--- a/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v3.xlsx
+++ b/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco V\Desktop\Proyecto\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco V\Desktop\Proyecto\Aplicacion\GitHub\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sedimentador alta tasa" sheetId="1" r:id="rId1"/>
@@ -3009,7 +3009,7 @@
     <numFmt numFmtId="174" formatCode="0.000"/>
     <numFmt numFmtId="175" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="40" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3293,6 +3293,13 @@
       <name val="Cambria"/>
       <family val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -3537,7 +3544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="421">
+  <cellXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4252,32 +4259,11 @@
     <xf numFmtId="1" fontId="22" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4285,49 +4271,34 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4342,29 +4313,71 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4372,16 +4385,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4393,23 +4427,89 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="38" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -4420,47 +4520,77 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4481,16 +4611,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4503,15 +4642,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4528,6 +4658,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4537,38 +4676,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -4597,148 +4748,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="174" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="38" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -31589,7 +31605,7 @@
   </sheetPr>
   <dimension ref="B2:W316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C75" sqref="C75:G75"/>
     </sheetView>
   </sheetViews>
@@ -31665,27 +31681,27 @@
       </c>
     </row>
     <row r="7" spans="2:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="272" t="s">
+      <c r="B7" s="290" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="272"/>
-      <c r="D7" s="272"/>
-      <c r="E7" s="272"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="272"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
+      <c r="G7" s="290"/>
       <c r="H7" s="40"/>
-      <c r="J7" s="270" t="s">
+      <c r="J7" s="289" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="270"/>
-      <c r="L7" s="270"/>
-      <c r="M7" s="270"/>
+      <c r="K7" s="289"/>
+      <c r="L7" s="289"/>
+      <c r="M7" s="289"/>
     </row>
     <row r="8" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="271" t="s">
+      <c r="B8" s="276" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="271"/>
+      <c r="C8" s="276"/>
       <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
@@ -31727,10 +31743,10 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="271" t="s">
+      <c r="B9" s="276" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="271"/>
+      <c r="C9" s="276"/>
       <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
@@ -31760,10 +31776,10 @@
       </c>
     </row>
     <row r="10" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="271" t="s">
+      <c r="B10" s="276" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="271"/>
+      <c r="C10" s="276"/>
       <c r="D10" s="9" t="s">
         <v>92</v>
       </c>
@@ -31798,10 +31814,10 @@
       </c>
     </row>
     <row r="11" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="271" t="s">
+      <c r="B11" s="276" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="271"/>
+      <c r="C11" s="276"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -31831,10 +31847,10 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="271" t="s">
+      <c r="B12" s="276" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="271"/>
+      <c r="C12" s="276"/>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
@@ -31860,11 +31876,11 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="271" t="str">
+      <c r="B13" s="276" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F12</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C13" s="271"/>
+      <c r="C13" s="276"/>
       <c r="D13" s="8" t="s">
         <v>108</v>
       </c>
@@ -31899,10 +31915,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="271" t="s">
+      <c r="B14" s="276" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="271"/>
+      <c r="C14" s="276"/>
       <c r="D14" s="9" t="s">
         <v>11</v>
       </c>
@@ -31937,10 +31953,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="271" t="s">
+      <c r="B15" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="271"/>
+      <c r="C15" s="276"/>
       <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
@@ -31972,10 +31988,10 @@
       </c>
     </row>
     <row r="16" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="271" t="s">
+      <c r="B16" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="271"/>
+      <c r="C16" s="276"/>
       <c r="D16" s="9" t="s">
         <v>105</v>
       </c>
@@ -32006,10 +32022,10 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="271" t="s">
+      <c r="B17" s="276" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="271"/>
+      <c r="C17" s="276"/>
       <c r="D17" s="9" t="s">
         <v>105</v>
       </c>
@@ -32042,10 +32058,10 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="271" t="s">
+      <c r="B18" s="276" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="271"/>
+      <c r="C18" s="276"/>
       <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
@@ -32075,10 +32091,10 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="271" t="s">
+      <c r="B19" s="276" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="271"/>
+      <c r="C19" s="276"/>
       <c r="D19" s="193" t="s">
         <v>13</v>
       </c>
@@ -32108,10 +32124,10 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="271" t="s">
+      <c r="B20" s="276" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="271"/>
+      <c r="C20" s="276"/>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
@@ -32141,10 +32157,10 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="271" t="s">
+      <c r="B21" s="276" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="271"/>
+      <c r="C21" s="276"/>
       <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
@@ -32226,10 +32242,10 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="271" t="s">
+      <c r="B24" s="276" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="271"/>
+      <c r="C24" s="276"/>
       <c r="D24" s="9" t="s">
         <v>46</v>
       </c>
@@ -32261,10 +32277,10 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="278" t="s">
+      <c r="B25" s="279" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="279"/>
+      <c r="C25" s="280"/>
       <c r="D25" s="28" t="s">
         <v>158</v>
       </c>
@@ -32296,10 +32312,10 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="271" t="s">
+      <c r="B26" s="276" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="271"/>
+      <c r="C26" s="276"/>
       <c r="D26" s="9" t="s">
         <v>54</v>
       </c>
@@ -32331,10 +32347,10 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="278" t="s">
+      <c r="B27" s="279" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="279"/>
+      <c r="C27" s="280"/>
       <c r="D27" s="9" t="s">
         <v>63</v>
       </c>
@@ -32364,10 +32380,10 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="278" t="s">
+      <c r="B28" s="279" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="279"/>
+      <c r="C28" s="280"/>
       <c r="D28" s="9" t="s">
         <v>75</v>
       </c>
@@ -32432,10 +32448,10 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="271" t="s">
+      <c r="B30" s="276" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="271"/>
+      <c r="C30" s="276"/>
       <c r="D30" s="9" t="s">
         <v>84</v>
       </c>
@@ -32478,14 +32494,14 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="284" t="s">
+      <c r="B32" s="272" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="284"/>
-      <c r="D32" s="284"/>
-      <c r="E32" s="284"/>
-      <c r="F32" s="284"/>
-      <c r="G32" s="284"/>
+      <c r="C32" s="272"/>
+      <c r="D32" s="272"/>
+      <c r="E32" s="272"/>
+      <c r="F32" s="272"/>
+      <c r="G32" s="272"/>
       <c r="H32" s="66"/>
       <c r="J32" s="22"/>
       <c r="K32" s="23"/>
@@ -32561,10 +32577,10 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="3.5">
-      <c r="B37" s="271" t="s">
+      <c r="B37" s="276" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="271"/>
+      <c r="C37" s="276"/>
       <c r="D37" s="38" t="s">
         <v>267</v>
       </c>
@@ -32575,22 +32591,22 @@
         <f>J9</f>
         <v>3.4760947255444699E-3</v>
       </c>
-      <c r="G37" s="265"/>
+      <c r="G37" s="264"/>
       <c r="H37" s="266"/>
-      <c r="I37" s="274" t="s">
+      <c r="I37" s="286" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="275"/>
-      <c r="K37" s="275"/>
-      <c r="L37" s="275"/>
-      <c r="M37" s="275"/>
-      <c r="N37" s="276"/>
+      <c r="J37" s="287"/>
+      <c r="K37" s="287"/>
+      <c r="L37" s="287"/>
+      <c r="M37" s="287"/>
+      <c r="N37" s="288"/>
     </row>
     <row r="38" spans="2:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="273" t="s">
+      <c r="B38" s="278" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="273"/>
+      <c r="C38" s="278"/>
       <c r="D38" s="45" t="s">
         <v>135</v>
       </c>
@@ -32601,20 +32617,20 @@
         <f>ROUND(MIN(J16:J30),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G38" s="265"/>
+      <c r="G38" s="264"/>
       <c r="H38" s="266"/>
-      <c r="I38" s="265"/>
-      <c r="J38" s="269"/>
-      <c r="K38" s="269"/>
-      <c r="L38" s="269"/>
-      <c r="M38" s="269"/>
+      <c r="I38" s="264"/>
+      <c r="J38" s="265"/>
+      <c r="K38" s="265"/>
+      <c r="L38" s="265"/>
+      <c r="M38" s="265"/>
       <c r="N38" s="266"/>
     </row>
     <row r="39" spans="2:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="273" t="s">
+      <c r="B39" s="278" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="273"/>
+      <c r="C39" s="278"/>
       <c r="D39" s="45" t="s">
         <v>135</v>
       </c>
@@ -32625,20 +32641,20 @@
         <f>ROUND((F16/F13*(SIN(F21*PI()/180)+(F18/F14)*COS(F21*PI()/180)))/(1+0.058*(F16/F13)*(F14/F11)*COS(F21*PI()/180)),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G39" s="265"/>
+      <c r="G39" s="264"/>
       <c r="H39" s="266"/>
-      <c r="I39" s="265"/>
-      <c r="J39" s="269"/>
-      <c r="K39" s="269"/>
-      <c r="L39" s="269"/>
-      <c r="M39" s="269"/>
+      <c r="I39" s="264"/>
+      <c r="J39" s="265"/>
+      <c r="K39" s="265"/>
+      <c r="L39" s="265"/>
+      <c r="M39" s="265"/>
       <c r="N39" s="266"/>
     </row>
     <row r="40" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="273" t="s">
+      <c r="B40" s="278" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="273"/>
+      <c r="C40" s="278"/>
       <c r="D40" s="45" t="s">
         <v>268</v>
       </c>
@@ -32649,20 +32665,20 @@
         <f>(F18/F39)/60</f>
         <v>8.095617529880478</v>
       </c>
-      <c r="G40" s="265"/>
+      <c r="G40" s="264"/>
       <c r="H40" s="266"/>
-      <c r="I40" s="265"/>
-      <c r="J40" s="269"/>
-      <c r="K40" s="269"/>
-      <c r="L40" s="269"/>
-      <c r="M40" s="269"/>
+      <c r="I40" s="264"/>
+      <c r="J40" s="265"/>
+      <c r="K40" s="265"/>
+      <c r="L40" s="265"/>
+      <c r="M40" s="265"/>
       <c r="N40" s="266"/>
     </row>
     <row r="41" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="273" t="s">
+      <c r="B41" s="278" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="273"/>
+      <c r="C41" s="278"/>
       <c r="D41" s="45" t="s">
         <v>27</v>
       </c>
@@ -32673,20 +32689,20 @@
         <f>ROUND(F10/(F20*F14*F39),0)</f>
         <v>94</v>
       </c>
-      <c r="G41" s="265"/>
+      <c r="G41" s="264"/>
       <c r="H41" s="266"/>
-      <c r="I41" s="265"/>
-      <c r="J41" s="269"/>
-      <c r="K41" s="269"/>
-      <c r="L41" s="269"/>
-      <c r="M41" s="269"/>
+      <c r="I41" s="264"/>
+      <c r="J41" s="265"/>
+      <c r="K41" s="265"/>
+      <c r="L41" s="265"/>
+      <c r="M41" s="265"/>
       <c r="N41" s="266"/>
     </row>
     <row r="42" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="273" t="s">
+      <c r="B42" s="278" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="273"/>
+      <c r="C42" s="278"/>
       <c r="D42" s="45" t="s">
         <v>269</v>
       </c>
@@ -32697,23 +32713,23 @@
         <f>((F41*F14+(F41-1)*F19)/SIN(F21*PI()/180))</f>
         <v>5.8566411306595638</v>
       </c>
-      <c r="G42" s="265"/>
+      <c r="G42" s="264"/>
       <c r="H42" s="266"/>
-      <c r="I42" s="285" t="s">
+      <c r="I42" s="273" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="286"/>
-      <c r="K42" s="286"/>
-      <c r="L42" s="286"/>
-      <c r="M42" s="286"/>
-      <c r="N42" s="287"/>
+      <c r="J42" s="274"/>
+      <c r="K42" s="274"/>
+      <c r="L42" s="274"/>
+      <c r="M42" s="274"/>
+      <c r="N42" s="275"/>
       <c r="O42" s="74"/>
     </row>
     <row r="43" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="273" t="s">
+      <c r="B43" s="278" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="273"/>
+      <c r="C43" s="278"/>
       <c r="D43" s="45" t="s">
         <v>270</v>
       </c>
@@ -32724,20 +32740,20 @@
         <f>F18*SIN(F21*PI()/180)</f>
         <v>1.0558581722939875</v>
       </c>
-      <c r="G43" s="265"/>
+      <c r="G43" s="264"/>
       <c r="H43" s="266"/>
-      <c r="I43" s="265"/>
-      <c r="J43" s="269"/>
-      <c r="K43" s="269"/>
-      <c r="L43" s="269"/>
-      <c r="M43" s="269"/>
+      <c r="I43" s="264"/>
+      <c r="J43" s="265"/>
+      <c r="K43" s="265"/>
+      <c r="L43" s="265"/>
+      <c r="M43" s="265"/>
       <c r="N43" s="266"/>
     </row>
     <row r="44" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="267" t="s">
+      <c r="B44" s="260" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="268"/>
+      <c r="C44" s="261"/>
       <c r="D44" s="56" t="s">
         <v>271</v>
       </c>
@@ -32748,20 +32764,20 @@
         <f>1.5*F24</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G44" s="265"/>
+      <c r="G44" s="264"/>
       <c r="H44" s="266"/>
-      <c r="I44" s="265"/>
-      <c r="J44" s="269"/>
-      <c r="K44" s="269"/>
-      <c r="L44" s="269"/>
-      <c r="M44" s="269"/>
+      <c r="I44" s="264"/>
+      <c r="J44" s="265"/>
+      <c r="K44" s="265"/>
+      <c r="L44" s="265"/>
+      <c r="M44" s="265"/>
       <c r="N44" s="266"/>
     </row>
     <row r="45" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="267" t="s">
+      <c r="B45" s="260" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="268"/>
+      <c r="C45" s="261"/>
       <c r="D45" s="56" t="s">
         <v>272</v>
       </c>
@@ -32782,10 +32798,10 @@
       <c r="N45" s="93"/>
     </row>
     <row r="46" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="267" t="s">
+      <c r="B46" s="260" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="268"/>
+      <c r="C46" s="261"/>
       <c r="D46" s="56" t="s">
         <v>271</v>
       </c>
@@ -32806,10 +32822,10 @@
       <c r="N46" s="93"/>
     </row>
     <row r="47" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="273" t="s">
+      <c r="B47" s="278" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="273"/>
+      <c r="C47" s="278"/>
       <c r="D47" s="56" t="s">
         <v>273</v>
       </c>
@@ -32820,13 +32836,13 @@
         <f>F25+F43+F24</f>
         <v>2.2558581722939874</v>
       </c>
-      <c r="G47" s="265"/>
+      <c r="G47" s="264"/>
       <c r="H47" s="266"/>
-      <c r="I47" s="265"/>
-      <c r="J47" s="269"/>
-      <c r="K47" s="269"/>
-      <c r="L47" s="269"/>
-      <c r="M47" s="269"/>
+      <c r="I47" s="264"/>
+      <c r="J47" s="265"/>
+      <c r="K47" s="265"/>
+      <c r="L47" s="265"/>
+      <c r="M47" s="265"/>
       <c r="N47" s="266"/>
       <c r="Q47" s="12">
         <f>6*0.0254</f>
@@ -32834,10 +32850,10 @@
       </c>
     </row>
     <row r="48" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="267" t="s">
+      <c r="B48" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="268"/>
+      <c r="C48" s="261"/>
       <c r="D48" s="56" t="s">
         <v>274</v>
       </c>
@@ -32848,26 +32864,26 @@
         <f>F47*F42*F20-(F41-1)*F18*F20*F19</f>
         <v>15.554808847800167</v>
       </c>
-      <c r="G48" s="265"/>
+      <c r="G48" s="264"/>
       <c r="H48" s="266"/>
-      <c r="I48" s="285" t="s">
+      <c r="I48" s="273" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="286"/>
-      <c r="K48" s="286"/>
-      <c r="L48" s="286"/>
-      <c r="M48" s="286"/>
-      <c r="N48" s="287"/>
+      <c r="J48" s="274"/>
+      <c r="K48" s="274"/>
+      <c r="L48" s="274"/>
+      <c r="M48" s="274"/>
+      <c r="N48" s="275"/>
       <c r="Q48" s="75">
         <f>Q47/2</f>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="273" t="s">
+      <c r="B49" s="278" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="273"/>
+      <c r="C49" s="278"/>
       <c r="D49" s="56" t="s">
         <v>275</v>
       </c>
@@ -32878,13 +32894,13 @@
         <f>(F48/F10)/60</f>
         <v>18.110151179182871</v>
       </c>
-      <c r="G49" s="265"/>
+      <c r="G49" s="264"/>
       <c r="H49" s="266"/>
-      <c r="I49" s="265"/>
-      <c r="J49" s="269"/>
-      <c r="K49" s="269"/>
-      <c r="L49" s="269"/>
-      <c r="M49" s="269"/>
+      <c r="I49" s="264"/>
+      <c r="J49" s="265"/>
+      <c r="K49" s="265"/>
+      <c r="L49" s="265"/>
+      <c r="M49" s="265"/>
       <c r="N49" s="266"/>
       <c r="Q49" s="12">
         <f>Q48/3</f>
@@ -32892,10 +32908,10 @@
       </c>
     </row>
     <row r="50" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="267" t="s">
+      <c r="B50" s="260" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="268"/>
+      <c r="C50" s="261"/>
       <c r="D50" s="56" t="s">
         <v>91</v>
       </c>
@@ -32906,13 +32922,13 @@
         <f>F10*86400/(F42*F20)</f>
         <v>173.21341640466753</v>
       </c>
-      <c r="G50" s="265"/>
+      <c r="G50" s="264"/>
       <c r="H50" s="266"/>
-      <c r="I50" s="265"/>
-      <c r="J50" s="269"/>
-      <c r="K50" s="269"/>
-      <c r="L50" s="269"/>
-      <c r="M50" s="269"/>
+      <c r="I50" s="264"/>
+      <c r="J50" s="265"/>
+      <c r="K50" s="265"/>
+      <c r="L50" s="265"/>
+      <c r="M50" s="265"/>
       <c r="N50" s="266"/>
       <c r="Q50" s="12">
         <f>Q49/2</f>
@@ -32924,10 +32940,10 @@
       </c>
     </row>
     <row r="51" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="273" t="s">
+      <c r="B51" s="278" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="273"/>
+      <c r="C51" s="278"/>
       <c r="D51" s="56" t="s">
         <v>73</v>
       </c>
@@ -32936,20 +32952,20 @@
         <f>"1: "&amp;ROUND(F42/F20,1)</f>
         <v>1: 4,8</v>
       </c>
-      <c r="G51" s="265"/>
+      <c r="G51" s="264"/>
       <c r="H51" s="266"/>
-      <c r="I51" s="265"/>
-      <c r="J51" s="269"/>
-      <c r="K51" s="269"/>
-      <c r="L51" s="269"/>
-      <c r="M51" s="269"/>
+      <c r="I51" s="264"/>
+      <c r="J51" s="265"/>
+      <c r="K51" s="265"/>
+      <c r="L51" s="265"/>
+      <c r="M51" s="265"/>
       <c r="N51" s="266"/>
     </row>
     <row r="52" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="267" t="s">
+      <c r="B52" s="260" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="268"/>
+      <c r="C52" s="261"/>
       <c r="D52" s="56" t="s">
         <v>276</v>
       </c>
@@ -32960,20 +32976,20 @@
         <f>((F20-F30)/2)*TAN(F29*PI()/180)</f>
         <v>0.79919162457288717</v>
       </c>
-      <c r="G52" s="265"/>
+      <c r="G52" s="264"/>
       <c r="H52" s="266"/>
-      <c r="I52" s="265"/>
-      <c r="J52" s="269"/>
-      <c r="K52" s="269"/>
-      <c r="L52" s="269"/>
-      <c r="M52" s="269"/>
+      <c r="I52" s="264"/>
+      <c r="J52" s="265"/>
+      <c r="K52" s="265"/>
+      <c r="L52" s="265"/>
+      <c r="M52" s="265"/>
       <c r="N52" s="266"/>
     </row>
     <row r="53" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="267" t="s">
+      <c r="B53" s="260" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="268"/>
+      <c r="C53" s="261"/>
       <c r="D53" s="56" t="s">
         <v>277</v>
       </c>
@@ -32984,20 +33000,20 @@
         <f>2*F28+F42</f>
         <v>6.4566411306595635</v>
       </c>
-      <c r="G53" s="265"/>
+      <c r="G53" s="264"/>
       <c r="H53" s="266"/>
-      <c r="I53" s="265"/>
-      <c r="J53" s="269"/>
-      <c r="K53" s="269"/>
-      <c r="L53" s="269"/>
-      <c r="M53" s="269"/>
+      <c r="I53" s="264"/>
+      <c r="J53" s="265"/>
+      <c r="K53" s="265"/>
+      <c r="L53" s="265"/>
+      <c r="M53" s="265"/>
       <c r="N53" s="266"/>
     </row>
     <row r="54" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="267" t="s">
+      <c r="B54" s="260" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="268"/>
+      <c r="C54" s="261"/>
       <c r="D54" s="56" t="s">
         <v>278</v>
       </c>
@@ -33008,20 +33024,20 @@
         <f>(2*F28+F20)*F9+(F9-1)*F27</f>
         <v>7.8767999999999994</v>
       </c>
-      <c r="G54" s="265"/>
+      <c r="G54" s="264"/>
       <c r="H54" s="266"/>
-      <c r="I54" s="265"/>
-      <c r="J54" s="269"/>
-      <c r="K54" s="269"/>
-      <c r="L54" s="269"/>
-      <c r="M54" s="269"/>
+      <c r="I54" s="264"/>
+      <c r="J54" s="265"/>
+      <c r="K54" s="265"/>
+      <c r="L54" s="265"/>
+      <c r="M54" s="265"/>
       <c r="N54" s="266"/>
     </row>
     <row r="55" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="273" t="s">
+      <c r="B55" s="278" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="273"/>
+      <c r="C55" s="278"/>
       <c r="D55" s="56" t="s">
         <v>279</v>
       </c>
@@ -33032,13 +33048,13 @@
         <f>F28+F52+F25+F43+F24+F26</f>
         <v>3.6550497968668743</v>
       </c>
-      <c r="G55" s="265"/>
+      <c r="G55" s="264"/>
       <c r="H55" s="266"/>
-      <c r="I55" s="265"/>
-      <c r="J55" s="269"/>
-      <c r="K55" s="269"/>
-      <c r="L55" s="269"/>
-      <c r="M55" s="269"/>
+      <c r="I55" s="264"/>
+      <c r="J55" s="265"/>
+      <c r="K55" s="265"/>
+      <c r="L55" s="265"/>
+      <c r="M55" s="265"/>
       <c r="N55" s="266"/>
     </row>
     <row r="56" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -33074,10 +33090,10 @@
       <c r="N57" s="83"/>
     </row>
     <row r="58" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="267" t="s">
+      <c r="B58" s="260" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="268"/>
+      <c r="C58" s="261"/>
       <c r="D58" s="56" t="s">
         <v>280</v>
       </c>
@@ -33088,20 +33104,20 @@
         <f>F42+F28</f>
         <v>6.1566411306595636</v>
       </c>
-      <c r="G58" s="265"/>
+      <c r="G58" s="264"/>
       <c r="H58" s="266"/>
-      <c r="I58" s="265"/>
-      <c r="J58" s="269"/>
-      <c r="K58" s="269"/>
-      <c r="L58" s="269"/>
-      <c r="M58" s="269"/>
+      <c r="I58" s="264"/>
+      <c r="J58" s="265"/>
+      <c r="K58" s="265"/>
+      <c r="L58" s="265"/>
+      <c r="M58" s="265"/>
       <c r="N58" s="266"/>
     </row>
     <row r="59" spans="2:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="267" t="s">
+      <c r="B59" s="260" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="268"/>
+      <c r="C59" s="261"/>
       <c r="D59" s="56" t="s">
         <v>281</v>
       </c>
@@ -33111,20 +33127,20 @@
       <c r="F59" s="95">
         <v>8</v>
       </c>
-      <c r="G59" s="265"/>
+      <c r="G59" s="264"/>
       <c r="H59" s="266"/>
-      <c r="I59" s="265"/>
-      <c r="J59" s="269"/>
-      <c r="K59" s="269"/>
-      <c r="L59" s="269"/>
-      <c r="M59" s="269"/>
+      <c r="I59" s="264"/>
+      <c r="J59" s="265"/>
+      <c r="K59" s="265"/>
+      <c r="L59" s="265"/>
+      <c r="M59" s="265"/>
       <c r="N59" s="266"/>
     </row>
     <row r="60" spans="2:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="267" t="s">
+      <c r="B60" s="260" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="268"/>
+      <c r="C60" s="261"/>
       <c r="D60" s="56" t="s">
         <v>282</v>
       </c>
@@ -33135,7 +33151,7 @@
         <f>IF(F59=4,0.10342,IF(F59=6,0.15222,IF(F59=8,0.20942)))</f>
         <v>0.20942</v>
       </c>
-      <c r="G60" s="265"/>
+      <c r="G60" s="264"/>
       <c r="H60" s="266"/>
       <c r="I60" s="67"/>
       <c r="J60" s="68"/>
@@ -33145,10 +33161,10 @@
       <c r="N60" s="69"/>
     </row>
     <row r="61" spans="2:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="262" t="s">
+      <c r="B61" s="267" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="262"/>
+      <c r="C61" s="267"/>
       <c r="D61" s="192" t="s">
         <v>283</v>
       </c>
@@ -33159,20 +33175,20 @@
         <f>F60*SQRT(0.4/F33)</f>
         <v>4.1884000000000005E-2</v>
       </c>
-      <c r="G61" s="265"/>
+      <c r="G61" s="264"/>
       <c r="H61" s="266"/>
-      <c r="I61" s="291"/>
-      <c r="J61" s="292"/>
-      <c r="K61" s="292"/>
-      <c r="L61" s="292"/>
-      <c r="M61" s="292"/>
-      <c r="N61" s="293"/>
+      <c r="I61" s="268"/>
+      <c r="J61" s="269"/>
+      <c r="K61" s="269"/>
+      <c r="L61" s="269"/>
+      <c r="M61" s="269"/>
+      <c r="N61" s="270"/>
     </row>
     <row r="62" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="262" t="s">
+      <c r="B62" s="267" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="262"/>
+      <c r="C62" s="267"/>
       <c r="D62" s="192" t="s">
         <v>284</v>
       </c>
@@ -33183,8 +33199,8 @@
         <f>IF(AND(F61&gt;0.02363,F61&lt;0.0302),1,IF(AND(F61&gt;0.0302,F61&lt;0.03814),1.25,IF(AND(F61&gt;0.03814,F61&lt;0.04368),1.5,IF(AND(F61&gt;0.04368,F61&lt;0.05458),2,IF(AND(F61&gt;0.05458,F61&lt;0.06607),2.5,IF(AND(F61&gt;0.06607,F61&lt;0.08042),3,IF(AND(F61&gt;0.08042,F61&lt;0.10342),4)))))))</f>
         <v>1.5</v>
       </c>
-      <c r="G62" s="289"/>
-      <c r="H62" s="290"/>
+      <c r="G62" s="262"/>
+      <c r="H62" s="263"/>
       <c r="I62" s="76"/>
       <c r="J62" s="77"/>
       <c r="K62" s="77"/>
@@ -33193,10 +33209,10 @@
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="262" t="s">
+      <c r="B63" s="267" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="262"/>
+      <c r="C63" s="267"/>
       <c r="D63" s="192" t="s">
         <v>283</v>
       </c>
@@ -33207,7 +33223,7 @@
         <f>IF(F62=1,0.0302,IF(F62=1.25,0.03814,IF(F62=1.5,0.04368,IF(F62=2,0.05458,IF(F62=2.5,0.06607,IF(F62=3,0.08042,IF(F62=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G63" s="265"/>
+      <c r="G63" s="264"/>
       <c r="H63" s="266"/>
       <c r="I63" s="98"/>
       <c r="J63" s="77"/>
@@ -33217,30 +33233,30 @@
       <c r="N63" s="78"/>
     </row>
     <row r="64" spans="2:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="263" t="s">
+      <c r="B64" s="284" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="264"/>
+      <c r="C64" s="285"/>
       <c r="D64" s="56"/>
       <c r="E64" s="46"/>
       <c r="F64" s="89">
         <f>(F63/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G64" s="265"/>
+      <c r="G64" s="264"/>
       <c r="H64" s="266"/>
-      <c r="I64" s="265"/>
-      <c r="J64" s="269"/>
-      <c r="K64" s="269"/>
-      <c r="L64" s="269"/>
-      <c r="M64" s="269"/>
+      <c r="I64" s="264"/>
+      <c r="J64" s="265"/>
+      <c r="K64" s="265"/>
+      <c r="L64" s="265"/>
+      <c r="M64" s="265"/>
       <c r="N64" s="266"/>
     </row>
     <row r="65" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="262" t="s">
+      <c r="B65" s="267" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="262"/>
+      <c r="C65" s="267"/>
       <c r="D65" s="192" t="s">
         <v>284</v>
       </c>
@@ -33261,10 +33277,10 @@
       <c r="N65" s="93"/>
     </row>
     <row r="66" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="262" t="s">
+      <c r="B66" s="267" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="262"/>
+      <c r="C66" s="267"/>
       <c r="D66" s="192" t="s">
         <v>283</v>
       </c>
@@ -33273,7 +33289,7 @@
         <f>IF(F65=1,0.0302,IF(F65=1.25,0.03814,IF(F65=1.5,0.04368,IF(F65=2,0.05458,IF(F65=2.5,0.06607,IF(F65=3,0.08042,IF(F65=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G66" s="265"/>
+      <c r="G66" s="264"/>
       <c r="H66" s="266"/>
       <c r="I66" s="92"/>
       <c r="J66" s="94"/>
@@ -33283,17 +33299,17 @@
       <c r="N66" s="93"/>
     </row>
     <row r="67" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="263" t="s">
+      <c r="B67" s="284" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="264"/>
+      <c r="C67" s="285"/>
       <c r="D67" s="56"/>
       <c r="E67" s="46"/>
       <c r="F67" s="89">
         <f>(F66/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G67" s="265"/>
+      <c r="G67" s="264"/>
       <c r="H67" s="266"/>
       <c r="I67" s="92"/>
       <c r="J67" s="101"/>
@@ -33303,10 +33319,10 @@
       <c r="N67" s="93"/>
     </row>
     <row r="68" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="267" t="s">
+      <c r="B68" s="260" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="268"/>
+      <c r="C68" s="261"/>
       <c r="D68" s="56" t="s">
         <v>285</v>
       </c>
@@ -33317,7 +33333,7 @@
         <f>F52+F25+F43+F24</f>
         <v>3.0550497968668746</v>
       </c>
-      <c r="G68" s="265"/>
+      <c r="G68" s="264"/>
       <c r="H68" s="266"/>
       <c r="I68" s="76"/>
       <c r="J68" s="77"/>
@@ -33327,10 +33343,10 @@
       <c r="N68" s="78"/>
     </row>
     <row r="69" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="267" t="s">
+      <c r="B69" s="260" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="268"/>
+      <c r="C69" s="261"/>
       <c r="D69" s="56" t="s">
         <v>286</v>
       </c>
@@ -33339,8 +33355,8 @@
         <f>F58/F33</f>
         <v>0.61566411306595636</v>
       </c>
-      <c r="G69" s="289"/>
-      <c r="H69" s="290"/>
+      <c r="G69" s="262"/>
+      <c r="H69" s="263"/>
       <c r="I69" s="76"/>
       <c r="J69" s="77"/>
       <c r="K69" s="77"/>
@@ -33349,10 +33365,10 @@
       <c r="N69" s="78"/>
     </row>
     <row r="70" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="263" t="s">
+      <c r="B70" s="284" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="264"/>
+      <c r="C70" s="285"/>
       <c r="D70" s="56" t="s">
         <v>287</v>
       </c>
@@ -33373,10 +33389,10 @@
       <c r="N70" s="78"/>
     </row>
     <row r="71" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="263" t="s">
+      <c r="B71" s="284" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="264"/>
+      <c r="C71" s="285"/>
       <c r="D71" s="56" t="s">
         <v>287</v>
       </c>
@@ -33385,16 +33401,16 @@
         <f>F42/F33</f>
         <v>0.58566411306595634</v>
       </c>
-      <c r="G71" s="265"/>
+      <c r="G71" s="264"/>
       <c r="H71" s="266"/>
-      <c r="I71" s="258" t="s">
+      <c r="I71" s="291" t="s">
         <v>171</v>
       </c>
-      <c r="J71" s="259"/>
-      <c r="K71" s="259"/>
-      <c r="L71" s="259"/>
-      <c r="M71" s="259"/>
-      <c r="N71" s="260"/>
+      <c r="J71" s="292"/>
+      <c r="K71" s="292"/>
+      <c r="L71" s="292"/>
+      <c r="M71" s="292"/>
+      <c r="N71" s="293"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="277"/>
@@ -33405,10 +33421,10 @@
       <c r="M72" s="24"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="284" t="s">
+      <c r="B73" s="272" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="284"/>
+      <c r="C73" s="272"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
@@ -33424,13 +33440,13 @@
       <c r="B75" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="288" t="s">
+      <c r="C75" s="259" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="288"/>
-      <c r="E75" s="288"/>
-      <c r="F75" s="288"/>
-      <c r="G75" s="288"/>
+      <c r="D75" s="259"/>
+      <c r="E75" s="259"/>
+      <c r="F75" s="259"/>
+      <c r="G75" s="259"/>
       <c r="H75" s="65"/>
       <c r="I75" s="96"/>
       <c r="J75" s="22"/>
@@ -33442,13 +33458,13 @@
       <c r="B76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="288" t="s">
+      <c r="C76" s="259" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="288"/>
-      <c r="E76" s="288"/>
-      <c r="F76" s="288"/>
-      <c r="G76" s="288"/>
+      <c r="D76" s="259"/>
+      <c r="E76" s="259"/>
+      <c r="F76" s="259"/>
+      <c r="G76" s="259"/>
       <c r="H76" s="65"/>
       <c r="J76" s="97"/>
       <c r="K76" s="23"/>
@@ -33459,13 +33475,13 @@
       <c r="B77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="280" t="s">
+      <c r="C77" s="271" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="280"/>
-      <c r="E77" s="280"/>
-      <c r="F77" s="280"/>
-      <c r="G77" s="280"/>
+      <c r="D77" s="271"/>
+      <c r="E77" s="271"/>
+      <c r="F77" s="271"/>
+      <c r="G77" s="271"/>
       <c r="H77" s="64"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
@@ -33476,13 +33492,13 @@
       <c r="B78" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="288" t="s">
+      <c r="C78" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="288"/>
-      <c r="E78" s="288"/>
-      <c r="F78" s="288"/>
-      <c r="G78" s="288"/>
+      <c r="D78" s="259"/>
+      <c r="E78" s="259"/>
+      <c r="F78" s="259"/>
+      <c r="G78" s="259"/>
       <c r="H78" s="65"/>
       <c r="J78" s="22"/>
       <c r="K78" s="23"/>
@@ -33493,16 +33509,16 @@
       <c r="B79" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="288" t="s">
+      <c r="C79" s="259" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="288"/>
-      <c r="E79" s="288"/>
-      <c r="F79" s="288"/>
-      <c r="G79" s="288"/>
+      <c r="D79" s="259"/>
+      <c r="E79" s="259"/>
+      <c r="F79" s="259"/>
+      <c r="G79" s="259"/>
       <c r="H79" s="65"/>
-      <c r="J79" s="261"/>
-      <c r="K79" s="261"/>
+      <c r="J79" s="294"/>
+      <c r="K79" s="294"/>
       <c r="L79" s="23"/>
       <c r="M79" s="24"/>
     </row>
@@ -33510,13 +33526,13 @@
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="280" t="s">
+      <c r="C80" s="271" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="280"/>
-      <c r="E80" s="280"/>
-      <c r="F80" s="280"/>
-      <c r="G80" s="280"/>
+      <c r="D80" s="271"/>
+      <c r="E80" s="271"/>
+      <c r="F80" s="271"/>
+      <c r="G80" s="271"/>
       <c r="H80" s="64"/>
       <c r="J80" s="22"/>
       <c r="K80" s="23"/>
@@ -33527,13 +33543,13 @@
       <c r="B81" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="280" t="s">
+      <c r="C81" s="271" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="280"/>
-      <c r="E81" s="280"/>
-      <c r="F81" s="280"/>
-      <c r="G81" s="280"/>
+      <c r="D81" s="271"/>
+      <c r="E81" s="271"/>
+      <c r="F81" s="271"/>
+      <c r="G81" s="271"/>
       <c r="H81" s="64"/>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
@@ -33544,13 +33560,13 @@
       <c r="B82" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="288" t="s">
+      <c r="C82" s="259" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="288"/>
-      <c r="E82" s="288"/>
-      <c r="F82" s="288"/>
-      <c r="G82" s="288"/>
+      <c r="D82" s="259"/>
+      <c r="E82" s="259"/>
+      <c r="F82" s="259"/>
+      <c r="G82" s="259"/>
       <c r="H82" s="65"/>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
@@ -33561,13 +33577,13 @@
       <c r="B83" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="288" t="s">
+      <c r="C83" s="259" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="288"/>
-      <c r="E83" s="288"/>
-      <c r="F83" s="288"/>
-      <c r="G83" s="288"/>
+      <c r="D83" s="259"/>
+      <c r="E83" s="259"/>
+      <c r="F83" s="259"/>
+      <c r="G83" s="259"/>
       <c r="H83" s="79"/>
       <c r="J83" s="22"/>
       <c r="K83" s="23"/>
@@ -34989,6 +35005,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="I71:N71"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="I59:N59"/>
+    <mergeCell ref="I64:N64"/>
+    <mergeCell ref="I54:N54"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
     <mergeCell ref="C83:G83"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="G69:H69"/>
@@ -35013,105 +35128,6 @@
     <mergeCell ref="C76:G76"/>
     <mergeCell ref="C77:G77"/>
     <mergeCell ref="B73:C73"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I71:N71"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="I59:N59"/>
-    <mergeCell ref="I64:N64"/>
-    <mergeCell ref="I54:N54"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="G68:H68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35164,13 +35180,13 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="298" t="s">
+      <c r="B7" s="296" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="298"/>
-      <c r="D7" s="298"/>
-      <c r="E7" s="298"/>
-      <c r="F7" s="298"/>
+      <c r="C7" s="296"/>
+      <c r="D7" s="296"/>
+      <c r="E7" s="296"/>
+      <c r="F7" s="296"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
@@ -35179,10 +35195,10 @@
       <c r="C9" s="41"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="278" t="s">
+      <c r="B10" s="279" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="279"/>
+      <c r="C10" s="280"/>
       <c r="D10" s="9" t="s">
         <v>0</v>
       </c>
@@ -35194,10 +35210,10 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="278" t="s">
+      <c r="B11" s="279" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="279"/>
+      <c r="C11" s="280"/>
       <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
@@ -35209,10 +35225,10 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="278" t="s">
+      <c r="B12" s="279" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="279"/>
+      <c r="C12" s="280"/>
       <c r="D12" s="9" t="s">
         <v>92</v>
       </c>
@@ -35225,10 +35241,10 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="278" t="s">
+      <c r="B13" s="279" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="279"/>
+      <c r="C13" s="280"/>
       <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
@@ -35240,10 +35256,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="278" t="s">
+      <c r="B14" s="279" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="279"/>
+      <c r="C14" s="280"/>
       <c r="D14" s="36"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3" t="s">
@@ -35251,11 +35267,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="278" t="str">
+      <c r="B15" s="279" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F14</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C15" s="279"/>
+      <c r="C15" s="280"/>
       <c r="D15" s="8" t="s">
         <v>108</v>
       </c>
@@ -35265,10 +35281,10 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="278" t="s">
+      <c r="B16" s="279" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="279"/>
+      <c r="C16" s="280"/>
       <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
@@ -35281,10 +35297,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="278" t="s">
+      <c r="B17" s="279" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="279"/>
+      <c r="C17" s="280"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -35297,10 +35313,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="278" t="s">
+      <c r="B18" s="279" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="279"/>
+      <c r="C18" s="280"/>
       <c r="D18" s="25" t="s">
         <v>13</v>
       </c>
@@ -35314,10 +35330,10 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="278" t="s">
+      <c r="B19" s="279" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="279"/>
+      <c r="C19" s="280"/>
       <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
@@ -35330,10 +35346,10 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="278" t="s">
+      <c r="B20" s="279" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="279"/>
+      <c r="C20" s="280"/>
       <c r="D20" s="7" t="s">
         <v>24</v>
       </c>
@@ -35362,10 +35378,10 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="278" t="s">
+      <c r="B23" s="279" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="279"/>
+      <c r="C23" s="280"/>
       <c r="D23" s="9" t="s">
         <v>46</v>
       </c>
@@ -35377,10 +35393,10 @@
       </c>
     </row>
     <row r="24" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="296" t="s">
+      <c r="B24" s="298" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="297"/>
+      <c r="C24" s="299"/>
       <c r="D24" s="28" t="s">
         <v>61</v>
       </c>
@@ -35435,10 +35451,10 @@
       <c r="G30" s="53"/>
     </row>
     <row r="31" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="267" t="s">
+      <c r="B31" s="260" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="268"/>
+      <c r="C31" s="261"/>
       <c r="D31" s="51" t="s">
         <v>137</v>
       </c>
@@ -35452,10 +35468,10 @@
       <c r="G31" s="53"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="267" t="s">
+      <c r="B32" s="260" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="268"/>
+      <c r="C32" s="261"/>
       <c r="D32" s="51" t="s">
         <v>14</v>
       </c>
@@ -35495,10 +35511,10 @@
       <c r="G35" s="53"/>
     </row>
     <row r="36" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="267" t="s">
+      <c r="B36" s="260" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="268"/>
+      <c r="C36" s="261"/>
       <c r="D36" s="55" t="s">
         <v>91</v>
       </c>
@@ -35538,10 +35554,10 @@
       <c r="G39" s="53"/>
     </row>
     <row r="40" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="267" t="s">
+      <c r="B40" s="260" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="268"/>
+      <c r="C40" s="261"/>
       <c r="D40" s="51" t="s">
         <v>131</v>
       </c>
@@ -35555,10 +35571,10 @@
       <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="267" t="s">
+      <c r="B41" s="260" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="268"/>
+      <c r="C41" s="261"/>
       <c r="D41" s="48" t="s">
         <v>144</v>
       </c>
@@ -35573,10 +35589,10 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="267" t="s">
+      <c r="B42" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="268"/>
+      <c r="C42" s="261"/>
       <c r="D42" s="45" t="s">
         <v>135</v>
       </c>
@@ -35616,10 +35632,10 @@
       <c r="G45" s="53"/>
     </row>
     <row r="46" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="267" t="s">
+      <c r="B46" s="260" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="268"/>
+      <c r="C46" s="261"/>
       <c r="D46" s="51" t="s">
         <v>88</v>
       </c>
@@ -35631,10 +35647,10 @@
       <c r="G46" s="49"/>
     </row>
     <row r="47" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="267" t="s">
+      <c r="B47" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="268"/>
+      <c r="C47" s="261"/>
       <c r="D47" s="51" t="s">
         <v>101</v>
       </c>
@@ -35646,10 +35662,10 @@
       <c r="G47" s="49"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="267" t="s">
+      <c r="B48" s="260" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="268"/>
+      <c r="C48" s="261"/>
       <c r="D48" s="51" t="s">
         <v>145</v>
       </c>
@@ -35687,10 +35703,10 @@
       <c r="G51" s="53"/>
     </row>
     <row r="52" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="267" t="s">
+      <c r="B52" s="260" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="268"/>
+      <c r="C52" s="261"/>
       <c r="D52" s="51" t="s">
         <v>146</v>
       </c>
@@ -35748,10 +35764,10 @@
       <c r="G57" s="53"/>
     </row>
     <row r="58" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="267" t="s">
+      <c r="B58" s="260" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="268"/>
+      <c r="C58" s="261"/>
       <c r="D58" s="56" t="s">
         <v>1</v>
       </c>
@@ -35789,10 +35805,10 @@
       <c r="G61" s="53"/>
     </row>
     <row r="62" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="267" t="s">
+      <c r="B62" s="260" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="268"/>
+      <c r="C62" s="261"/>
       <c r="D62" s="48" t="s">
         <v>136</v>
       </c>
@@ -35832,10 +35848,10 @@
       <c r="G65" s="53"/>
     </row>
     <row r="66" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="267" t="s">
+      <c r="B66" s="260" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="268"/>
+      <c r="C66" s="261"/>
       <c r="D66" s="51" t="s">
         <v>27</v>
       </c>
@@ -35875,10 +35891,10 @@
       <c r="G69" s="53"/>
     </row>
     <row r="70" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="267" t="s">
+      <c r="B70" s="260" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="268"/>
+      <c r="C70" s="261"/>
       <c r="D70" s="48" t="s">
         <v>138</v>
       </c>
@@ -35892,10 +35908,10 @@
       <c r="G70" s="49"/>
     </row>
     <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="267" t="s">
+      <c r="B71" s="260" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="268"/>
+      <c r="C71" s="261"/>
       <c r="D71" s="51" t="s">
         <v>139</v>
       </c>
@@ -35909,10 +35925,10 @@
       <c r="G71" s="49"/>
     </row>
     <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="267" t="s">
+      <c r="B72" s="260" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="268"/>
+      <c r="C72" s="261"/>
       <c r="D72" s="51" t="s">
         <v>140</v>
       </c>
@@ -35926,10 +35942,10 @@
       <c r="G72" s="49"/>
     </row>
     <row r="73" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="267" t="s">
+      <c r="B73" s="260" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="268"/>
+      <c r="C73" s="261"/>
       <c r="D73" s="51" t="s">
         <v>142</v>
       </c>
@@ -35949,46 +35965,46 @@
       <c r="C75" s="41"/>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="294" t="s">
+      <c r="B76" s="297" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="294"/>
-      <c r="D76" s="294"/>
-      <c r="E76" s="294"/>
-      <c r="F76" s="294"/>
-      <c r="G76" s="294"/>
+      <c r="C76" s="297"/>
+      <c r="D76" s="297"/>
+      <c r="E76" s="297"/>
+      <c r="F76" s="297"/>
+      <c r="G76" s="297"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="294"/>
-      <c r="C77" s="294"/>
-      <c r="D77" s="294"/>
-      <c r="E77" s="294"/>
-      <c r="F77" s="294"/>
-      <c r="G77" s="294"/>
+      <c r="B77" s="297"/>
+      <c r="C77" s="297"/>
+      <c r="D77" s="297"/>
+      <c r="E77" s="297"/>
+      <c r="F77" s="297"/>
+      <c r="G77" s="297"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="294"/>
-      <c r="C78" s="294"/>
-      <c r="D78" s="294"/>
-      <c r="E78" s="294"/>
-      <c r="F78" s="294"/>
-      <c r="G78" s="294"/>
+      <c r="B78" s="297"/>
+      <c r="C78" s="297"/>
+      <c r="D78" s="297"/>
+      <c r="E78" s="297"/>
+      <c r="F78" s="297"/>
+      <c r="G78" s="297"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="294"/>
-      <c r="C79" s="294"/>
-      <c r="D79" s="294"/>
-      <c r="E79" s="294"/>
-      <c r="F79" s="294"/>
-      <c r="G79" s="294"/>
+      <c r="B79" s="297"/>
+      <c r="C79" s="297"/>
+      <c r="D79" s="297"/>
+      <c r="E79" s="297"/>
+      <c r="F79" s="297"/>
+      <c r="G79" s="297"/>
     </row>
     <row r="80" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="294"/>
-      <c r="C80" s="294"/>
-      <c r="D80" s="294"/>
-      <c r="E80" s="294"/>
-      <c r="F80" s="294"/>
-      <c r="G80" s="294"/>
+      <c r="B80" s="297"/>
+      <c r="C80" s="297"/>
+      <c r="D80" s="297"/>
+      <c r="E80" s="297"/>
+      <c r="F80" s="297"/>
+      <c r="G80" s="297"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="42"/>
@@ -36026,25 +36042,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B76:G80"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B17:C17"/>
@@ -36061,6 +36058,25 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -36072,8 +36088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM236"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K119" sqref="K119:K120"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36110,11 +36126,11 @@
     </row>
     <row r="2" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="310"/>
+      <c r="B2" s="398"/>
+      <c r="C2" s="398"/>
+      <c r="D2" s="398"/>
+      <c r="E2" s="398"/>
+      <c r="F2" s="398"/>
       <c r="G2" s="41" t="s">
         <v>119</v>
       </c>
@@ -36122,11 +36138,11 @@
     </row>
     <row r="3" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310"/>
-      <c r="F3" s="310"/>
+      <c r="B3" s="398"/>
+      <c r="C3" s="398"/>
+      <c r="D3" s="398"/>
+      <c r="E3" s="398"/>
+      <c r="F3" s="398"/>
       <c r="G3" s="41" t="s">
         <v>120</v>
       </c>
@@ -36134,11 +36150,11 @@
     </row>
     <row r="4" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="310"/>
-      <c r="C4" s="310"/>
-      <c r="D4" s="310"/>
-      <c r="E4" s="310"/>
-      <c r="F4" s="310"/>
+      <c r="B4" s="398"/>
+      <c r="C4" s="398"/>
+      <c r="D4" s="398"/>
+      <c r="E4" s="398"/>
+      <c r="F4" s="398"/>
       <c r="G4" s="41" t="s">
         <v>121</v>
       </c>
@@ -36146,11 +36162,11 @@
     </row>
     <row r="5" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="310"/>
-      <c r="C5" s="310"/>
-      <c r="D5" s="310"/>
-      <c r="E5" s="310"/>
-      <c r="F5" s="310"/>
+      <c r="B5" s="398"/>
+      <c r="C5" s="398"/>
+      <c r="D5" s="398"/>
+      <c r="E5" s="398"/>
+      <c r="F5" s="398"/>
       <c r="G5" s="41" t="s">
         <v>327</v>
       </c>
@@ -36202,15 +36218,15 @@
       <c r="AK7" s="237"/>
     </row>
     <row r="8" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="273" t="s">
+      <c r="B8" s="278" t="s">
         <v>321</v>
       </c>
-      <c r="C8" s="273"/>
-      <c r="D8" s="273"/>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="273"/>
-      <c r="H8" s="273"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
       <c r="I8" s="145" t="s">
         <v>323</v>
       </c>
@@ -36218,10 +36234,10 @@
         <v>1.3</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="X8" s="273" t="s">
+      <c r="X8" s="278" t="s">
         <v>328</v>
       </c>
-      <c r="Y8" s="273"/>
+      <c r="Y8" s="278"/>
       <c r="Z8" s="118"/>
       <c r="AA8" s="13" t="s">
         <v>326</v>
@@ -36240,26 +36256,26 @@
       <c r="AK8" s="237"/>
     </row>
     <row r="9" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="416" t="s">
+      <c r="B9" s="306" t="s">
         <v>322</v>
       </c>
-      <c r="C9" s="416"/>
-      <c r="D9" s="416"/>
-      <c r="E9" s="416"/>
-      <c r="F9" s="416"/>
-      <c r="G9" s="416"/>
-      <c r="H9" s="416"/>
-      <c r="I9" s="417" t="s">
+      <c r="C9" s="306"/>
+      <c r="D9" s="306"/>
+      <c r="E9" s="306"/>
+      <c r="F9" s="306"/>
+      <c r="G9" s="306"/>
+      <c r="H9" s="306"/>
+      <c r="I9" s="258" t="s">
         <v>324</v>
       </c>
-      <c r="J9" s="417">
+      <c r="J9" s="258">
         <v>1.6</v>
       </c>
       <c r="K9" s="49"/>
-      <c r="X9" s="273" t="s">
+      <c r="X9" s="278" t="s">
         <v>329</v>
       </c>
-      <c r="Y9" s="273"/>
+      <c r="Y9" s="278"/>
       <c r="Z9" s="118"/>
       <c r="AA9" s="13" t="s">
         <v>340</v>
@@ -36278,19 +36294,19 @@
       <c r="AK9" s="237"/>
     </row>
     <row r="10" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="416" t="s">
+      <c r="B10" s="306" t="s">
         <v>317</v>
       </c>
-      <c r="C10" s="416"/>
-      <c r="D10" s="416"/>
-      <c r="E10" s="416"/>
-      <c r="F10" s="416"/>
-      <c r="G10" s="416"/>
-      <c r="H10" s="416"/>
-      <c r="I10" s="417" t="s">
+      <c r="C10" s="306"/>
+      <c r="D10" s="306"/>
+      <c r="E10" s="306"/>
+      <c r="F10" s="306"/>
+      <c r="G10" s="306"/>
+      <c r="H10" s="306"/>
+      <c r="I10" s="258" t="s">
         <v>318</v>
       </c>
-      <c r="J10" s="417">
+      <c r="J10" s="258">
         <v>4.4040000000000003E-2</v>
       </c>
       <c r="K10" s="56" t="s">
@@ -36318,15 +36334,15 @@
       <c r="AK10" s="237"/>
     </row>
     <row r="11" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="273" t="s">
+      <c r="B11" s="278" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="273"/>
-      <c r="D11" s="273"/>
-      <c r="E11" s="273"/>
-      <c r="F11" s="273"/>
-      <c r="G11" s="273"/>
-      <c r="H11" s="273"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="278"/>
+      <c r="E11" s="278"/>
+      <c r="F11" s="278"/>
+      <c r="G11" s="278"/>
+      <c r="H11" s="278"/>
       <c r="I11" s="56" t="s">
         <v>315</v>
       </c>
@@ -36360,15 +36376,15 @@
       <c r="AK11" s="237"/>
     </row>
     <row r="12" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="273" t="s">
+      <c r="B12" s="278" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="273"/>
-      <c r="D12" s="273"/>
-      <c r="E12" s="273"/>
-      <c r="F12" s="273"/>
-      <c r="G12" s="273"/>
-      <c r="H12" s="273"/>
+      <c r="C12" s="278"/>
+      <c r="D12" s="278"/>
+      <c r="E12" s="278"/>
+      <c r="F12" s="278"/>
+      <c r="G12" s="278"/>
+      <c r="H12" s="278"/>
       <c r="I12" s="56" t="s">
         <v>362</v>
       </c>
@@ -36448,10 +36464,10 @@
       <c r="J14" s="216"/>
       <c r="K14" s="215"/>
       <c r="L14" s="82"/>
-      <c r="X14" s="273" t="s">
+      <c r="X14" s="278" t="s">
         <v>333</v>
       </c>
-      <c r="Y14" s="273"/>
+      <c r="Y14" s="278"/>
       <c r="Z14" s="234"/>
       <c r="AA14" s="181" t="s">
         <v>348</v>
@@ -36470,18 +36486,18 @@
       <c r="AK14" s="237"/>
     </row>
     <row r="15" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="267" t="s">
+      <c r="B15" s="260" t="s">
         <v>328</v>
       </c>
-      <c r="C15" s="299"/>
-      <c r="D15" s="299"/>
-      <c r="E15" s="299"/>
-      <c r="F15" s="299"/>
-      <c r="G15" s="268"/>
-      <c r="H15" s="267" t="s">
+      <c r="C15" s="304"/>
+      <c r="D15" s="304"/>
+      <c r="E15" s="304"/>
+      <c r="F15" s="304"/>
+      <c r="G15" s="261"/>
+      <c r="H15" s="260" t="s">
         <v>326</v>
       </c>
-      <c r="I15" s="268"/>
+      <c r="I15" s="261"/>
       <c r="J15" s="229"/>
       <c r="K15" s="215"/>
       <c r="L15" s="82"/>
@@ -36507,19 +36523,19 @@
       <c r="AK15" s="237"/>
     </row>
     <row r="16" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="267" t="s">
+      <c r="B16" s="260" t="s">
         <v>329</v>
       </c>
-      <c r="C16" s="299"/>
-      <c r="D16" s="299"/>
-      <c r="E16" s="299"/>
-      <c r="F16" s="299"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="267" t="str">
+      <c r="C16" s="304"/>
+      <c r="D16" s="304"/>
+      <c r="E16" s="304"/>
+      <c r="F16" s="304"/>
+      <c r="G16" s="261"/>
+      <c r="H16" s="260" t="str">
         <f>IF($H$15=$AA$8,$AA$9,IF($H$15=$AB$8,$AB$9,""))</f>
         <v>Arena</v>
       </c>
-      <c r="I16" s="268"/>
+      <c r="I16" s="261"/>
       <c r="J16" s="229"/>
       <c r="K16" s="215"/>
       <c r="L16" s="82"/>
@@ -36545,24 +36561,24 @@
       <c r="AK16" s="237"/>
     </row>
     <row r="17" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="267" t="s">
+      <c r="B17" s="260" t="s">
         <v>330</v>
       </c>
-      <c r="C17" s="299"/>
-      <c r="D17" s="299"/>
-      <c r="E17" s="299"/>
-      <c r="F17" s="299"/>
-      <c r="G17" s="268"/>
-      <c r="H17" s="267" t="str">
+      <c r="C17" s="304"/>
+      <c r="D17" s="304"/>
+      <c r="E17" s="304"/>
+      <c r="F17" s="304"/>
+      <c r="G17" s="261"/>
+      <c r="H17" s="260" t="str">
         <f>IF($H$15=$AA$8,AA10,IF($H$15=$AB$8,AB10,""))</f>
         <v>Estratificado fino a grueso</v>
       </c>
-      <c r="I17" s="268"/>
+      <c r="I17" s="261"/>
       <c r="J17" s="229"/>
       <c r="K17" s="215"/>
       <c r="L17" s="82"/>
-      <c r="X17" s="308"/>
-      <c r="Y17" s="308"/>
+      <c r="X17" s="305"/>
+      <c r="Y17" s="305"/>
       <c r="Z17" s="220"/>
       <c r="AA17" s="250"/>
       <c r="AB17" s="181" t="s">
@@ -36579,23 +36595,23 @@
       <c r="AK17" s="237"/>
     </row>
     <row r="18" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="267" t="s">
+      <c r="B18" s="260" t="s">
         <v>337</v>
       </c>
-      <c r="C18" s="299"/>
-      <c r="D18" s="299"/>
-      <c r="E18" s="299"/>
-      <c r="F18" s="299"/>
-      <c r="G18" s="268"/>
-      <c r="H18" s="267"/>
-      <c r="I18" s="268"/>
+      <c r="C18" s="304"/>
+      <c r="D18" s="304"/>
+      <c r="E18" s="304"/>
+      <c r="F18" s="304"/>
+      <c r="G18" s="261"/>
+      <c r="H18" s="260"/>
+      <c r="I18" s="261"/>
       <c r="J18" s="229"/>
       <c r="K18" s="215"/>
       <c r="L18" s="82"/>
-      <c r="X18" s="308" t="s">
+      <c r="X18" s="305" t="s">
         <v>336</v>
       </c>
-      <c r="Y18" s="308"/>
+      <c r="Y18" s="305"/>
       <c r="Z18" s="220"/>
       <c r="AA18" s="250" t="s">
         <v>351</v>
@@ -36614,19 +36630,19 @@
       <c r="AK18" s="237"/>
     </row>
     <row r="19" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="267" t="s">
+      <c r="B19" s="260" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="268"/>
-      <c r="H19" s="300">
+      <c r="C19" s="304"/>
+      <c r="D19" s="304"/>
+      <c r="E19" s="304"/>
+      <c r="F19" s="304"/>
+      <c r="G19" s="261"/>
+      <c r="H19" s="302">
         <f t="shared" ref="H19:H24" si="0">IF($H$15=$AA$8,AA11,IF($H$15=$AB$8,AB11,""))</f>
         <v>120</v>
       </c>
-      <c r="I19" s="301"/>
+      <c r="I19" s="303"/>
       <c r="J19" s="56" t="s">
         <v>4</v>
       </c>
@@ -36652,19 +36668,19 @@
       <c r="AK19" s="237"/>
     </row>
     <row r="20" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="267" t="s">
+      <c r="B20" s="260" t="s">
         <v>331</v>
       </c>
-      <c r="C20" s="299"/>
-      <c r="D20" s="299"/>
-      <c r="E20" s="299"/>
-      <c r="F20" s="299"/>
-      <c r="G20" s="268"/>
-      <c r="H20" s="300" t="str">
+      <c r="C20" s="304"/>
+      <c r="D20" s="304"/>
+      <c r="E20" s="304"/>
+      <c r="F20" s="304"/>
+      <c r="G20" s="261"/>
+      <c r="H20" s="302" t="str">
         <f t="shared" si="0"/>
         <v>12 - 36</v>
       </c>
-      <c r="I20" s="301"/>
+      <c r="I20" s="303"/>
       <c r="J20" s="229" t="s">
         <v>345</v>
       </c>
@@ -36688,24 +36704,24 @@
       <c r="AK20" s="237"/>
     </row>
     <row r="21" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="267" t="s">
+      <c r="B21" s="260" t="s">
         <v>332</v>
       </c>
-      <c r="C21" s="299"/>
-      <c r="D21" s="299"/>
-      <c r="E21" s="299"/>
-      <c r="F21" s="299"/>
-      <c r="G21" s="268"/>
-      <c r="H21" s="300">
+      <c r="C21" s="304"/>
+      <c r="D21" s="304"/>
+      <c r="E21" s="304"/>
+      <c r="F21" s="304"/>
+      <c r="G21" s="261"/>
+      <c r="H21" s="302">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="I21" s="301"/>
+      <c r="I21" s="303"/>
       <c r="J21" s="229" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="215"/>
-      <c r="L21" s="82"/>
+      <c r="L21" s="423"/>
       <c r="X21" s="213"/>
       <c r="Y21" s="214"/>
       <c r="Z21" s="236"/>
@@ -36724,29 +36740,29 @@
       <c r="AK21" s="237"/>
     </row>
     <row r="22" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="267" t="s">
+      <c r="B22" s="260" t="s">
         <v>333</v>
       </c>
-      <c r="C22" s="299"/>
-      <c r="D22" s="299"/>
-      <c r="E22" s="299"/>
-      <c r="F22" s="299"/>
-      <c r="G22" s="268"/>
-      <c r="H22" s="300" t="str">
+      <c r="C22" s="304"/>
+      <c r="D22" s="304"/>
+      <c r="E22" s="304"/>
+      <c r="F22" s="304"/>
+      <c r="G22" s="261"/>
+      <c r="H22" s="302" t="str">
         <f t="shared" si="0"/>
         <v>2,4 - 3,0</v>
       </c>
-      <c r="I22" s="301"/>
+      <c r="I22" s="303"/>
       <c r="J22" s="229" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="215"/>
       <c r="L22" s="82"/>
-      <c r="X22" s="415"/>
-      <c r="Y22" s="415"/>
+      <c r="X22" s="301"/>
+      <c r="Y22" s="301"/>
       <c r="Z22" s="228"/>
-      <c r="AA22" s="414"/>
-      <c r="AB22" s="414"/>
+      <c r="AA22" s="300"/>
+      <c r="AB22" s="300"/>
       <c r="AC22" s="115"/>
       <c r="AD22" s="237"/>
       <c r="AE22" s="237"/>
@@ -36758,29 +36774,29 @@
       <c r="AK22" s="237"/>
     </row>
     <row r="23" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="267" t="s">
+      <c r="B23" s="260" t="s">
         <v>344</v>
       </c>
-      <c r="C23" s="299"/>
-      <c r="D23" s="299"/>
-      <c r="E23" s="299"/>
-      <c r="F23" s="299"/>
-      <c r="G23" s="268"/>
-      <c r="H23" s="300" t="str">
+      <c r="C23" s="304"/>
+      <c r="D23" s="304"/>
+      <c r="E23" s="304"/>
+      <c r="F23" s="304"/>
+      <c r="G23" s="261"/>
+      <c r="H23" s="421" t="str">
         <f t="shared" si="0"/>
         <v>2 - 4</v>
       </c>
-      <c r="I23" s="301"/>
+      <c r="I23" s="422"/>
       <c r="J23" s="229" t="s">
         <v>346</v>
       </c>
       <c r="K23" s="215"/>
       <c r="L23" s="82"/>
-      <c r="X23" s="415"/>
-      <c r="Y23" s="415"/>
+      <c r="X23" s="301"/>
+      <c r="Y23" s="301"/>
       <c r="Z23" s="228"/>
-      <c r="AA23" s="414"/>
-      <c r="AB23" s="414"/>
+      <c r="AA23" s="300"/>
+      <c r="AB23" s="300"/>
       <c r="AC23" s="115"/>
       <c r="AD23" s="237"/>
       <c r="AE23" s="237"/>
@@ -36792,30 +36808,30 @@
       <c r="AK23" s="237"/>
     </row>
     <row r="24" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="267" t="str">
+      <c r="B24" s="260" t="str">
         <f>IF($H$15=$AA$8,$X$16,IF($H$15=$AB$8,X16&amp;" (antracita)",IF($H$15="",X16&amp;" (antracita)")))</f>
         <v>Profundidad del medio</v>
       </c>
-      <c r="C24" s="299"/>
-      <c r="D24" s="299"/>
-      <c r="E24" s="299"/>
-      <c r="F24" s="299"/>
-      <c r="G24" s="268"/>
-      <c r="H24" s="300" t="str">
+      <c r="C24" s="304"/>
+      <c r="D24" s="304"/>
+      <c r="E24" s="304"/>
+      <c r="F24" s="304"/>
+      <c r="G24" s="261"/>
+      <c r="H24" s="302" t="str">
         <f t="shared" si="0"/>
         <v>0,60 - 0,75</v>
       </c>
-      <c r="I24" s="301"/>
+      <c r="I24" s="303"/>
       <c r="J24" s="229" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="215"/>
       <c r="L24" s="82"/>
-      <c r="X24" s="415"/>
-      <c r="Y24" s="415"/>
+      <c r="X24" s="301"/>
+      <c r="Y24" s="301"/>
       <c r="Z24" s="228"/>
-      <c r="AA24" s="414"/>
-      <c r="AB24" s="414"/>
+      <c r="AA24" s="300"/>
+      <c r="AB24" s="300"/>
       <c r="AC24" s="115"/>
       <c r="AD24" s="237"/>
       <c r="AE24" s="237"/>
@@ -36827,30 +36843,30 @@
       <c r="AK24" s="237"/>
     </row>
     <row r="25" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="267" t="str">
+      <c r="B25" s="260" t="str">
         <f>IF($H$15=$AA$8,$X$18,IF($H$15=$AB$8,X16&amp;" (arena)",IF($H$15="",X16&amp;" (arena)")))</f>
         <v>Profundidad de grava</v>
       </c>
-      <c r="C25" s="299"/>
-      <c r="D25" s="299"/>
-      <c r="E25" s="299"/>
-      <c r="F25" s="299"/>
-      <c r="G25" s="268"/>
-      <c r="H25" s="300" t="str">
+      <c r="C25" s="304"/>
+      <c r="D25" s="304"/>
+      <c r="E25" s="304"/>
+      <c r="F25" s="304"/>
+      <c r="G25" s="261"/>
+      <c r="H25" s="302" t="str">
         <f>IF($H$15=$AA$8,AA18,IF($H$15=$AB$8,AB17,""))</f>
         <v>0,30 - 0,45</v>
       </c>
-      <c r="I25" s="301"/>
+      <c r="I25" s="303"/>
       <c r="J25" s="229" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="215"/>
       <c r="L25" s="82"/>
-      <c r="X25" s="415"/>
-      <c r="Y25" s="415"/>
+      <c r="X25" s="301"/>
+      <c r="Y25" s="301"/>
       <c r="Z25" s="228"/>
-      <c r="AA25" s="414"/>
-      <c r="AB25" s="414"/>
+      <c r="AA25" s="300"/>
+      <c r="AB25" s="300"/>
       <c r="AD25" s="237"/>
       <c r="AE25" s="237"/>
       <c r="AF25" s="237"/>
@@ -36861,20 +36877,20 @@
       <c r="AK25" s="237"/>
     </row>
     <row r="26" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="267" t="str">
+      <c r="B26" s="260" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$X$18,IF($H$15="",$X$18)))</f>
         <v/>
       </c>
-      <c r="C26" s="299"/>
-      <c r="D26" s="299"/>
-      <c r="E26" s="299"/>
-      <c r="F26" s="299"/>
-      <c r="G26" s="299"/>
-      <c r="H26" s="300" t="str">
+      <c r="C26" s="304"/>
+      <c r="D26" s="304"/>
+      <c r="E26" s="304"/>
+      <c r="F26" s="304"/>
+      <c r="G26" s="304"/>
+      <c r="H26" s="302" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$AB$18,IF($H$15="","")))</f>
         <v/>
       </c>
-      <c r="I26" s="301"/>
+      <c r="I26" s="303"/>
       <c r="J26" s="245" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,"m",IF($H$15="","m")))</f>
         <v/>
@@ -36942,15 +36958,15 @@
       <c r="AB28" s="228"/>
     </row>
     <row r="29" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="273" t="s">
+      <c r="B29" s="278" t="s">
         <v>263</v>
       </c>
-      <c r="C29" s="273"/>
-      <c r="D29" s="273"/>
-      <c r="E29" s="273"/>
-      <c r="F29" s="273"/>
-      <c r="G29" s="273"/>
-      <c r="H29" s="273"/>
+      <c r="C29" s="278"/>
+      <c r="D29" s="278"/>
+      <c r="E29" s="278"/>
+      <c r="F29" s="278"/>
+      <c r="G29" s="278"/>
+      <c r="H29" s="278"/>
       <c r="I29" s="56" t="s">
         <v>260</v>
       </c>
@@ -36968,16 +36984,16 @@
       <c r="AB29" s="228"/>
     </row>
     <row r="30" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="273" t="str">
+      <c r="B30" s="278" t="str">
         <f>"Densidad del agua a "&amp;J29&amp;" °C"</f>
         <v>Densidad del agua a 3 °C</v>
       </c>
-      <c r="C30" s="273"/>
-      <c r="D30" s="273"/>
-      <c r="E30" s="273"/>
-      <c r="F30" s="273"/>
-      <c r="G30" s="273"/>
-      <c r="H30" s="273"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="278"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="278"/>
+      <c r="H30" s="278"/>
       <c r="I30" s="56" t="s">
         <v>259</v>
       </c>
@@ -36995,25 +37011,25 @@
       <c r="Y30" s="200" t="s">
         <v>325</v>
       </c>
-      <c r="Z30" s="395" t="s">
+      <c r="Z30" s="307" t="s">
         <v>257</v>
       </c>
-      <c r="AA30" s="395" t="s">
+      <c r="AA30" s="307" t="s">
         <v>255</v>
       </c>
       <c r="AB30" s="198"/>
     </row>
     <row r="31" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="273" t="str">
+      <c r="B31" s="278" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J29&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C31" s="273"/>
-      <c r="D31" s="273"/>
-      <c r="E31" s="273"/>
-      <c r="F31" s="273"/>
-      <c r="G31" s="273"/>
-      <c r="H31" s="273"/>
+      <c r="C31" s="278"/>
+      <c r="D31" s="278"/>
+      <c r="E31" s="278"/>
+      <c r="F31" s="278"/>
+      <c r="G31" s="278"/>
+      <c r="H31" s="278"/>
       <c r="I31" s="51" t="s">
         <v>213</v>
       </c>
@@ -37031,21 +37047,21 @@
       <c r="Y31" s="201" t="s">
         <v>259</v>
       </c>
-      <c r="Z31" s="396"/>
-      <c r="AA31" s="396"/>
+      <c r="Z31" s="308"/>
+      <c r="AA31" s="308"/>
       <c r="AB31" s="198"/>
     </row>
     <row r="32" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="319" t="str">
+      <c r="B32" s="403" t="str">
         <f>"Viscocidad cinemática del agua a "&amp;J29&amp;" °C"</f>
         <v>Viscocidad cinemática del agua a 3 °C</v>
       </c>
-      <c r="C32" s="319"/>
-      <c r="D32" s="319"/>
-      <c r="E32" s="319"/>
-      <c r="F32" s="319"/>
-      <c r="G32" s="319"/>
-      <c r="H32" s="319"/>
+      <c r="C32" s="403"/>
+      <c r="D32" s="403"/>
+      <c r="E32" s="403"/>
+      <c r="F32" s="403"/>
+      <c r="G32" s="403"/>
+      <c r="H32" s="403"/>
       <c r="I32" s="51" t="s">
         <v>2</v>
       </c>
@@ -37165,26 +37181,26 @@
       <c r="AB36" s="173"/>
     </row>
     <row r="37" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="328" t="s">
+      <c r="B37" s="369" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="329"/>
+      <c r="C37" s="370"/>
       <c r="D37" s="148"/>
       <c r="E37" s="144"/>
-      <c r="F37" s="317" t="s">
+      <c r="F37" s="375" t="s">
         <v>204</v>
       </c>
-      <c r="G37" s="317" t="s">
+      <c r="G37" s="375" t="s">
         <v>203</v>
       </c>
-      <c r="H37" s="374" t="s">
+      <c r="H37" s="378" t="s">
         <v>210</v>
       </c>
-      <c r="I37" s="375"/>
-      <c r="J37" s="374" t="s">
+      <c r="I37" s="379"/>
+      <c r="J37" s="378" t="s">
         <v>209</v>
       </c>
-      <c r="K37" s="375"/>
+      <c r="K37" s="379"/>
       <c r="X37" s="181">
         <v>3</v>
       </c>
@@ -37201,22 +37217,22 @@
       <c r="AB37" s="173"/>
     </row>
     <row r="38" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="330"/>
-      <c r="C38" s="331"/>
+      <c r="B38" s="371"/>
+      <c r="C38" s="372"/>
       <c r="D38" s="148"/>
       <c r="E38" s="144"/>
-      <c r="F38" s="324"/>
-      <c r="G38" s="324"/>
-      <c r="H38" s="317" t="s">
+      <c r="F38" s="376"/>
+      <c r="G38" s="376"/>
+      <c r="H38" s="375" t="s">
         <v>186</v>
       </c>
-      <c r="I38" s="317" t="s">
+      <c r="I38" s="375" t="s">
         <v>207</v>
       </c>
-      <c r="J38" s="317" t="s">
+      <c r="J38" s="375" t="s">
         <v>186</v>
       </c>
-      <c r="K38" s="317" t="s">
+      <c r="K38" s="375" t="s">
         <v>207</v>
       </c>
       <c r="X38" s="181">
@@ -37235,16 +37251,16 @@
       <c r="AB38" s="173"/>
     </row>
     <row r="39" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="330"/>
-      <c r="C39" s="331"/>
+      <c r="B39" s="371"/>
+      <c r="C39" s="372"/>
       <c r="D39" s="148"/>
       <c r="E39" s="144"/>
-      <c r="F39" s="324"/>
-      <c r="G39" s="324"/>
-      <c r="H39" s="324"/>
-      <c r="I39" s="324"/>
-      <c r="J39" s="324"/>
-      <c r="K39" s="324"/>
+      <c r="F39" s="376"/>
+      <c r="G39" s="376"/>
+      <c r="H39" s="376"/>
+      <c r="I39" s="376"/>
+      <c r="J39" s="376"/>
+      <c r="K39" s="376"/>
       <c r="X39" s="181">
         <v>5</v>
       </c>
@@ -37261,16 +37277,16 @@
       <c r="AB39" s="173"/>
     </row>
     <row r="40" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="332"/>
-      <c r="C40" s="333"/>
+      <c r="B40" s="373"/>
+      <c r="C40" s="374"/>
       <c r="D40" s="148"/>
       <c r="E40" s="144"/>
-      <c r="F40" s="318"/>
-      <c r="G40" s="318"/>
-      <c r="H40" s="318"/>
-      <c r="I40" s="318"/>
-      <c r="J40" s="318"/>
-      <c r="K40" s="318"/>
+      <c r="F40" s="377"/>
+      <c r="G40" s="377"/>
+      <c r="H40" s="377"/>
+      <c r="I40" s="377"/>
+      <c r="J40" s="377"/>
+      <c r="K40" s="377"/>
       <c r="X40" s="181">
         <v>6</v>
       </c>
@@ -37287,10 +37303,10 @@
       <c r="AB40" s="173"/>
     </row>
     <row r="41" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="376" t="s">
+      <c r="B41" s="380" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="377"/>
+      <c r="C41" s="381"/>
       <c r="D41" s="154">
         <f>LEFT(B41,2)+0</f>
         <v>14</v>
@@ -37340,10 +37356,10 @@
       <c r="AB41" s="173"/>
     </row>
     <row r="42" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="376" t="s">
+      <c r="B42" s="380" t="s">
         <v>194</v>
       </c>
-      <c r="C42" s="377"/>
+      <c r="C42" s="381"/>
       <c r="D42" s="154">
         <f t="shared" ref="D42:D49" si="3">LEFT(B42,2)+0</f>
         <v>20</v>
@@ -37393,10 +37409,10 @@
       <c r="AB42" s="173"/>
     </row>
     <row r="43" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="376" t="s">
+      <c r="B43" s="380" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="377"/>
+      <c r="C43" s="381"/>
       <c r="D43" s="154">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -37446,10 +37462,10 @@
       <c r="AB43" s="173"/>
     </row>
     <row r="44" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="376" t="s">
+      <c r="B44" s="380" t="s">
         <v>201</v>
       </c>
-      <c r="C44" s="377"/>
+      <c r="C44" s="381"/>
       <c r="D44" s="154">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -37499,10 +37515,10 @@
       <c r="AB44" s="173"/>
     </row>
     <row r="45" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="376" t="s">
+      <c r="B45" s="380" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="377"/>
+      <c r="C45" s="381"/>
       <c r="D45" s="154">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -37552,10 +37568,10 @@
       <c r="AB45" s="173"/>
     </row>
     <row r="46" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="376" t="s">
+      <c r="B46" s="380" t="s">
         <v>197</v>
       </c>
-      <c r="C46" s="377"/>
+      <c r="C46" s="381"/>
       <c r="D46" s="154">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -37605,10 +37621,10 @@
       <c r="AB46" s="173"/>
     </row>
     <row r="47" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="376" t="s">
+      <c r="B47" s="380" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="377"/>
+      <c r="C47" s="381"/>
       <c r="D47" s="154">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -37658,10 +37674,10 @@
       <c r="AB47" s="173"/>
     </row>
     <row r="48" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="376" t="s">
+      <c r="B48" s="380" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="377"/>
+      <c r="C48" s="381"/>
       <c r="D48" s="154">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -37711,10 +37727,10 @@
       <c r="AB48" s="173"/>
     </row>
     <row r="49" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="376" t="s">
+      <c r="B49" s="380" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="377"/>
+      <c r="C49" s="381"/>
       <c r="D49" s="154">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -37808,20 +37824,20 @@
       <c r="AB51" s="173"/>
     </row>
     <row r="52" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="306"/>
-      <c r="C52" s="306"/>
+      <c r="B52" s="357"/>
+      <c r="C52" s="357"/>
       <c r="D52" s="155"/>
       <c r="E52" s="103"/>
-      <c r="F52" s="323" t="s">
+      <c r="F52" s="358" t="s">
         <v>186</v>
       </c>
-      <c r="G52" s="323" t="s">
+      <c r="G52" s="358" t="s">
         <v>207</v>
       </c>
-      <c r="H52" s="378"/>
-      <c r="I52" s="378"/>
-      <c r="J52" s="378"/>
-      <c r="K52" s="373" t="s">
+      <c r="H52" s="340"/>
+      <c r="I52" s="340"/>
+      <c r="J52" s="340"/>
+      <c r="K52" s="367" t="s">
         <v>239</v>
       </c>
       <c r="L52" s="165"/>
@@ -37841,16 +37857,16 @@
       <c r="AB52" s="173"/>
     </row>
     <row r="53" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="306"/>
-      <c r="C53" s="306"/>
+      <c r="B53" s="357"/>
+      <c r="C53" s="357"/>
       <c r="D53" s="155"/>
       <c r="E53" s="103"/>
-      <c r="F53" s="323"/>
-      <c r="G53" s="323"/>
-      <c r="H53" s="378"/>
-      <c r="I53" s="378"/>
-      <c r="J53" s="378"/>
-      <c r="K53" s="373"/>
+      <c r="F53" s="358"/>
+      <c r="G53" s="358"/>
+      <c r="H53" s="340"/>
+      <c r="I53" s="340"/>
+      <c r="J53" s="340"/>
+      <c r="K53" s="367"/>
       <c r="L53" s="165"/>
       <c r="X53" s="181">
         <v>19</v>
@@ -37869,16 +37885,16 @@
       <c r="AD53" s="188"/>
     </row>
     <row r="54" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="306"/>
-      <c r="C54" s="306"/>
+      <c r="B54" s="357"/>
+      <c r="C54" s="357"/>
       <c r="D54" s="155"/>
       <c r="E54" s="103"/>
-      <c r="F54" s="323"/>
-      <c r="G54" s="323"/>
-      <c r="H54" s="378"/>
-      <c r="I54" s="378"/>
-      <c r="J54" s="378"/>
-      <c r="K54" s="373"/>
+      <c r="F54" s="358"/>
+      <c r="G54" s="358"/>
+      <c r="H54" s="340"/>
+      <c r="I54" s="340"/>
+      <c r="J54" s="340"/>
+      <c r="K54" s="367"/>
       <c r="L54" s="165"/>
       <c r="X54" s="183">
         <v>20</v>
@@ -37897,10 +37913,10 @@
       <c r="AD54" s="188"/>
     </row>
     <row r="55" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="378" t="s">
+      <c r="B55" s="340" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="378"/>
+      <c r="C55" s="340"/>
       <c r="D55" s="155"/>
       <c r="E55" s="103"/>
       <c r="F55" s="157">
@@ -37911,13 +37927,13 @@
         <f>VLOOKUP(F55,J$41:K$49,2,FALSE)</f>
         <v>2.0699999999999932</v>
       </c>
-      <c r="H55" s="306">
+      <c r="H55" s="357">
         <f>(LOG(F55)+((10-G55)/(G56-G55))*LOG(F56/F55))</f>
         <v>-0.61321454811239473</v>
       </c>
-      <c r="I55" s="306"/>
-      <c r="J55" s="306"/>
-      <c r="K55" s="378">
+      <c r="I55" s="357"/>
+      <c r="J55" s="357"/>
+      <c r="K55" s="340">
         <f>10^(H55)</f>
         <v>0.2436606799987964</v>
       </c>
@@ -37938,10 +37954,10 @@
       <c r="AB55" s="173"/>
     </row>
     <row r="56" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="378" t="s">
+      <c r="B56" s="340" t="s">
         <v>226</v>
       </c>
-      <c r="C56" s="378"/>
+      <c r="C56" s="340"/>
       <c r="D56" s="155"/>
       <c r="E56" s="103"/>
       <c r="F56" s="157">
@@ -37952,10 +37968,10 @@
         <f>VLOOKUP(F56,J$41:K$49,2,FALSE)</f>
         <v>11.36999999999999</v>
       </c>
-      <c r="H56" s="306"/>
-      <c r="I56" s="306"/>
-      <c r="J56" s="306"/>
-      <c r="K56" s="378"/>
+      <c r="H56" s="357"/>
+      <c r="I56" s="357"/>
+      <c r="J56" s="357"/>
+      <c r="K56" s="340"/>
       <c r="L56" s="165"/>
       <c r="X56" s="181">
         <v>22</v>
@@ -38029,20 +38045,20 @@
       <c r="AB58" s="173"/>
     </row>
     <row r="59" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="306"/>
-      <c r="C59" s="306"/>
+      <c r="B59" s="357"/>
+      <c r="C59" s="357"/>
       <c r="D59" s="155"/>
       <c r="E59" s="103"/>
-      <c r="F59" s="323" t="s">
+      <c r="F59" s="358" t="s">
         <v>186</v>
       </c>
-      <c r="G59" s="323" t="s">
+      <c r="G59" s="358" t="s">
         <v>207</v>
       </c>
-      <c r="H59" s="378"/>
-      <c r="I59" s="378"/>
-      <c r="J59" s="378"/>
-      <c r="K59" s="373" t="s">
+      <c r="H59" s="340"/>
+      <c r="I59" s="340"/>
+      <c r="J59" s="340"/>
+      <c r="K59" s="367" t="s">
         <v>228</v>
       </c>
       <c r="L59" s="165"/>
@@ -38062,16 +38078,16 @@
       <c r="AB59" s="173"/>
     </row>
     <row r="60" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="306"/>
-      <c r="C60" s="306"/>
+      <c r="B60" s="357"/>
+      <c r="C60" s="357"/>
       <c r="D60" s="155"/>
       <c r="E60" s="103"/>
-      <c r="F60" s="323"/>
-      <c r="G60" s="323"/>
-      <c r="H60" s="378"/>
-      <c r="I60" s="378"/>
-      <c r="J60" s="378"/>
-      <c r="K60" s="373"/>
+      <c r="F60" s="358"/>
+      <c r="G60" s="358"/>
+      <c r="H60" s="340"/>
+      <c r="I60" s="340"/>
+      <c r="J60" s="340"/>
+      <c r="K60" s="367"/>
       <c r="L60" s="165"/>
       <c r="X60" s="181">
         <v>26</v>
@@ -38089,16 +38105,16 @@
       <c r="AB60" s="173"/>
     </row>
     <row r="61" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="306"/>
-      <c r="C61" s="306"/>
+      <c r="B61" s="357"/>
+      <c r="C61" s="357"/>
       <c r="D61" s="155"/>
       <c r="E61" s="103"/>
-      <c r="F61" s="323"/>
-      <c r="G61" s="323"/>
-      <c r="H61" s="378"/>
-      <c r="I61" s="378"/>
-      <c r="J61" s="378"/>
-      <c r="K61" s="373"/>
+      <c r="F61" s="358"/>
+      <c r="G61" s="358"/>
+      <c r="H61" s="340"/>
+      <c r="I61" s="340"/>
+      <c r="J61" s="340"/>
+      <c r="K61" s="367"/>
       <c r="L61" s="165"/>
       <c r="X61" s="181">
         <v>27</v>
@@ -38116,10 +38132,10 @@
       <c r="AB61" s="173"/>
     </row>
     <row r="62" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="378" t="s">
+      <c r="B62" s="340" t="s">
         <v>225</v>
       </c>
-      <c r="C62" s="378"/>
+      <c r="C62" s="340"/>
       <c r="D62" s="155"/>
       <c r="E62" s="103"/>
       <c r="F62" s="157">
@@ -38130,13 +38146,13 @@
         <f>VLOOKUP(F62,J$41:K$49,2,FALSE)</f>
         <v>45.269999999999996</v>
       </c>
-      <c r="H62" s="306">
+      <c r="H62" s="357">
         <f>(LOG(F62)+((60-G62)/(G63-G62))*LOG(F63/F62))</f>
         <v>-0.31867934839393264</v>
       </c>
-      <c r="I62" s="306"/>
-      <c r="J62" s="306"/>
-      <c r="K62" s="378">
+      <c r="I62" s="357"/>
+      <c r="J62" s="357"/>
+      <c r="K62" s="340">
         <f>10^(H62)</f>
         <v>0.48008777987655482</v>
       </c>
@@ -38157,10 +38173,10 @@
       <c r="AB62" s="173"/>
     </row>
     <row r="63" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="378" t="s">
+      <c r="B63" s="340" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="378"/>
+      <c r="C63" s="340"/>
       <c r="D63" s="155"/>
       <c r="E63" s="103"/>
       <c r="F63" s="157">
@@ -38171,10 +38187,10 @@
         <f>VLOOKUP(F63,J$41:K$49,2,FALSE)</f>
         <v>63.28</v>
       </c>
-      <c r="H63" s="306"/>
-      <c r="I63" s="306"/>
-      <c r="J63" s="306"/>
-      <c r="K63" s="378"/>
+      <c r="H63" s="357"/>
+      <c r="I63" s="357"/>
+      <c r="J63" s="357"/>
+      <c r="K63" s="340"/>
       <c r="L63" s="165"/>
       <c r="X63" s="181">
         <v>29</v>
@@ -38248,19 +38264,19 @@
       <c r="AB65" s="173"/>
     </row>
     <row r="66" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="379" t="s">
+      <c r="B66" s="359" t="s">
         <v>227</v>
       </c>
-      <c r="C66" s="380"/>
+      <c r="C66" s="360"/>
       <c r="D66" s="155"/>
       <c r="E66" s="103"/>
-      <c r="F66" s="379" t="s">
+      <c r="F66" s="359" t="s">
         <v>228</v>
       </c>
-      <c r="G66" s="385" t="s">
+      <c r="G66" s="365" t="s">
         <v>211</v>
       </c>
-      <c r="H66" s="385"/>
+      <c r="H66" s="365"/>
       <c r="I66" s="107"/>
       <c r="J66" s="107"/>
       <c r="K66" s="122"/>
@@ -38281,13 +38297,13 @@
       <c r="AB66" s="173"/>
     </row>
     <row r="67" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="381"/>
-      <c r="C67" s="382"/>
+      <c r="B67" s="361"/>
+      <c r="C67" s="362"/>
       <c r="D67" s="155"/>
       <c r="E67" s="103"/>
-      <c r="F67" s="381"/>
-      <c r="G67" s="385"/>
-      <c r="H67" s="385"/>
+      <c r="F67" s="361"/>
+      <c r="G67" s="365"/>
+      <c r="H67" s="365"/>
       <c r="I67" s="107"/>
       <c r="J67" s="107"/>
       <c r="K67" s="122"/>
@@ -38309,13 +38325,13 @@
       <c r="AB67" s="173"/>
     </row>
     <row r="68" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="383"/>
-      <c r="C68" s="384"/>
+      <c r="B68" s="363"/>
+      <c r="C68" s="364"/>
       <c r="D68" s="155"/>
       <c r="E68" s="103"/>
-      <c r="F68" s="383"/>
-      <c r="G68" s="385"/>
-      <c r="H68" s="385"/>
+      <c r="F68" s="363"/>
+      <c r="G68" s="365"/>
+      <c r="H68" s="365"/>
       <c r="I68" s="107"/>
       <c r="J68" s="107"/>
       <c r="K68" s="122"/>
@@ -38337,22 +38353,22 @@
       <c r="AB68" s="173"/>
     </row>
     <row r="69" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="378">
+      <c r="B69" s="340">
         <f>K55</f>
         <v>0.2436606799987964</v>
       </c>
-      <c r="C69" s="378"/>
+      <c r="C69" s="340"/>
       <c r="D69" s="155"/>
       <c r="E69" s="103"/>
       <c r="F69" s="157">
         <f>K62</f>
         <v>0.48008777987655482</v>
       </c>
-      <c r="G69" s="307">
+      <c r="G69" s="341">
         <f>F69/B69</f>
         <v>1.9703128952891631</v>
       </c>
-      <c r="H69" s="307"/>
+      <c r="H69" s="341"/>
       <c r="I69" s="107"/>
       <c r="J69" s="107"/>
       <c r="K69" s="122"/>
@@ -38394,15 +38410,15 @@
       <c r="AB71" s="173"/>
     </row>
     <row r="72" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="311" t="s">
+      <c r="B72" s="342" t="s">
         <v>235</v>
       </c>
-      <c r="C72" s="312"/>
-      <c r="D72" s="312"/>
-      <c r="E72" s="312"/>
-      <c r="F72" s="312"/>
-      <c r="G72" s="312"/>
-      <c r="H72" s="313"/>
+      <c r="C72" s="343"/>
+      <c r="D72" s="343"/>
+      <c r="E72" s="343"/>
+      <c r="F72" s="343"/>
+      <c r="G72" s="343"/>
+      <c r="H72" s="344"/>
       <c r="I72" s="56" t="s">
         <v>181</v>
       </c>
@@ -38420,15 +38436,15 @@
       <c r="AA72" s="115"/>
     </row>
     <row r="73" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="311" t="s">
+      <c r="B73" s="342" t="s">
         <v>296</v>
       </c>
-      <c r="C73" s="312"/>
-      <c r="D73" s="312"/>
-      <c r="E73" s="312"/>
-      <c r="F73" s="312"/>
-      <c r="G73" s="312"/>
-      <c r="H73" s="313"/>
+      <c r="C73" s="343"/>
+      <c r="D73" s="343"/>
+      <c r="E73" s="343"/>
+      <c r="F73" s="343"/>
+      <c r="G73" s="343"/>
+      <c r="H73" s="344"/>
       <c r="I73" s="56" t="s">
         <v>88</v>
       </c>
@@ -38446,15 +38462,15 @@
       <c r="AA73" s="115"/>
     </row>
     <row r="74" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="311" t="s">
+      <c r="B74" s="342" t="s">
         <v>292</v>
       </c>
-      <c r="C74" s="312"/>
-      <c r="D74" s="312"/>
-      <c r="E74" s="312"/>
-      <c r="F74" s="312"/>
-      <c r="G74" s="312"/>
-      <c r="H74" s="313"/>
+      <c r="C74" s="343"/>
+      <c r="D74" s="343"/>
+      <c r="E74" s="343"/>
+      <c r="F74" s="343"/>
+      <c r="G74" s="343"/>
+      <c r="H74" s="344"/>
       <c r="I74" s="56" t="s">
         <v>293</v>
       </c>
@@ -38470,15 +38486,15 @@
       <c r="AA74" s="115"/>
     </row>
     <row r="75" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="311" t="s">
+      <c r="B75" s="342" t="s">
         <v>238</v>
       </c>
-      <c r="C75" s="312"/>
-      <c r="D75" s="312"/>
-      <c r="E75" s="312"/>
-      <c r="F75" s="312"/>
-      <c r="G75" s="312"/>
-      <c r="H75" s="313"/>
+      <c r="C75" s="343"/>
+      <c r="D75" s="343"/>
+      <c r="E75" s="343"/>
+      <c r="F75" s="343"/>
+      <c r="G75" s="343"/>
+      <c r="H75" s="344"/>
       <c r="I75" s="56" t="s">
         <v>248</v>
       </c>
@@ -38494,15 +38510,15 @@
       <c r="AA75" s="115"/>
     </row>
     <row r="76" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="311" t="s">
+      <c r="B76" s="342" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="312"/>
-      <c r="D76" s="312"/>
-      <c r="E76" s="312"/>
-      <c r="F76" s="312"/>
-      <c r="G76" s="312"/>
-      <c r="H76" s="313"/>
+      <c r="C76" s="343"/>
+      <c r="D76" s="343"/>
+      <c r="E76" s="343"/>
+      <c r="F76" s="343"/>
+      <c r="G76" s="343"/>
+      <c r="H76" s="344"/>
       <c r="I76" s="56" t="s">
         <v>191</v>
       </c>
@@ -38518,15 +38534,15 @@
       <c r="AA76" s="115"/>
     </row>
     <row r="77" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="311" t="s">
+      <c r="B77" s="342" t="s">
         <v>236</v>
       </c>
-      <c r="C77" s="312"/>
-      <c r="D77" s="312"/>
-      <c r="E77" s="312"/>
-      <c r="F77" s="312"/>
-      <c r="G77" s="312"/>
-      <c r="H77" s="313"/>
+      <c r="C77" s="343"/>
+      <c r="D77" s="343"/>
+      <c r="E77" s="343"/>
+      <c r="F77" s="343"/>
+      <c r="G77" s="343"/>
+      <c r="H77" s="344"/>
       <c r="I77" s="145" t="s">
         <v>189</v>
       </c>
@@ -38542,15 +38558,15 @@
       <c r="AA77" s="115"/>
     </row>
     <row r="78" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="311" t="s">
+      <c r="B78" s="342" t="s">
         <v>237</v>
       </c>
-      <c r="C78" s="312"/>
-      <c r="D78" s="312"/>
-      <c r="E78" s="312"/>
-      <c r="F78" s="312"/>
-      <c r="G78" s="312"/>
-      <c r="H78" s="313"/>
+      <c r="C78" s="343"/>
+      <c r="D78" s="343"/>
+      <c r="E78" s="343"/>
+      <c r="F78" s="343"/>
+      <c r="G78" s="343"/>
+      <c r="H78" s="344"/>
       <c r="I78" s="145" t="s">
         <v>189</v>
       </c>
@@ -38566,15 +38582,15 @@
       <c r="AA78" s="115"/>
     </row>
     <row r="79" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="311" t="s">
+      <c r="B79" s="342" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="312"/>
-      <c r="D79" s="312"/>
-      <c r="E79" s="312"/>
-      <c r="F79" s="312"/>
-      <c r="G79" s="312"/>
-      <c r="H79" s="313"/>
+      <c r="C79" s="343"/>
+      <c r="D79" s="343"/>
+      <c r="E79" s="343"/>
+      <c r="F79" s="343"/>
+      <c r="G79" s="343"/>
+      <c r="H79" s="344"/>
       <c r="I79" s="167" t="s">
         <v>246</v>
       </c>
@@ -38656,139 +38672,139 @@
       <c r="Z82" s="111"/>
     </row>
     <row r="83" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="328" t="s">
+      <c r="B83" s="369" t="s">
         <v>192</v>
       </c>
-      <c r="C83" s="329"/>
-      <c r="D83" s="316"/>
-      <c r="E83" s="317"/>
-      <c r="F83" s="317" t="s">
+      <c r="C83" s="370"/>
+      <c r="D83" s="402"/>
+      <c r="E83" s="375"/>
+      <c r="F83" s="375" t="s">
         <v>204</v>
       </c>
-      <c r="G83" s="317" t="s">
+      <c r="G83" s="375" t="s">
         <v>205</v>
       </c>
-      <c r="H83" s="317" t="s">
+      <c r="H83" s="375" t="s">
         <v>206</v>
       </c>
-      <c r="I83" s="334" t="s">
+      <c r="I83" s="409" t="s">
         <v>208</v>
       </c>
-      <c r="J83" s="320" t="s">
+      <c r="J83" s="404" t="s">
         <v>182</v>
       </c>
-      <c r="K83" s="321"/>
-      <c r="L83" s="321"/>
-      <c r="M83" s="322"/>
-      <c r="N83" s="346" t="s">
+      <c r="K83" s="405"/>
+      <c r="L83" s="405"/>
+      <c r="M83" s="406"/>
+      <c r="N83" s="387" t="s">
         <v>183</v>
       </c>
-      <c r="O83" s="347"/>
-      <c r="P83" s="347"/>
-      <c r="Q83" s="347"/>
-      <c r="R83" s="348"/>
-      <c r="S83" s="345" t="s">
+      <c r="O83" s="388"/>
+      <c r="P83" s="388"/>
+      <c r="Q83" s="388"/>
+      <c r="R83" s="389"/>
+      <c r="S83" s="386" t="s">
         <v>184</v>
       </c>
-      <c r="T83" s="345"/>
-      <c r="U83" s="345"/>
-      <c r="V83" s="345"/>
+      <c r="T83" s="386"/>
+      <c r="U83" s="386"/>
+      <c r="V83" s="386"/>
       <c r="W83" s="114"/>
-      <c r="X83" s="317" t="s">
+      <c r="X83" s="375" t="s">
         <v>185</v>
       </c>
-      <c r="Y83" s="317" t="s">
+      <c r="Y83" s="375" t="s">
         <v>186</v>
       </c>
       <c r="Z83" s="111"/>
     </row>
     <row r="84" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="330"/>
-      <c r="C84" s="331"/>
-      <c r="D84" s="316"/>
-      <c r="E84" s="318"/>
-      <c r="F84" s="324"/>
-      <c r="G84" s="324"/>
-      <c r="H84" s="324"/>
-      <c r="I84" s="335"/>
-      <c r="J84" s="325" t="s">
+      <c r="B84" s="371"/>
+      <c r="C84" s="372"/>
+      <c r="D84" s="402"/>
+      <c r="E84" s="377"/>
+      <c r="F84" s="376"/>
+      <c r="G84" s="376"/>
+      <c r="H84" s="376"/>
+      <c r="I84" s="410"/>
+      <c r="J84" s="391" t="s">
         <v>187</v>
       </c>
-      <c r="K84" s="355"/>
-      <c r="L84" s="356"/>
-      <c r="M84" s="357"/>
-      <c r="N84" s="349"/>
-      <c r="O84" s="355"/>
-      <c r="P84" s="357"/>
-      <c r="Q84" s="325" t="s">
+      <c r="K84" s="334"/>
+      <c r="L84" s="397"/>
+      <c r="M84" s="335"/>
+      <c r="N84" s="390"/>
+      <c r="O84" s="334"/>
+      <c r="P84" s="335"/>
+      <c r="Q84" s="391" t="s">
         <v>188</v>
       </c>
-      <c r="R84" s="350"/>
-      <c r="S84" s="350"/>
-      <c r="T84" s="350"/>
-      <c r="U84" s="325" t="s">
+      <c r="R84" s="394"/>
+      <c r="S84" s="394"/>
+      <c r="T84" s="394"/>
+      <c r="U84" s="391" t="s">
         <v>188</v>
       </c>
-      <c r="V84" s="350"/>
-      <c r="X84" s="324"/>
-      <c r="Y84" s="324"/>
+      <c r="V84" s="394"/>
+      <c r="X84" s="376"/>
+      <c r="Y84" s="376"/>
     </row>
     <row r="85" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="330"/>
-      <c r="C85" s="331"/>
+      <c r="B85" s="371"/>
+      <c r="C85" s="372"/>
       <c r="D85" s="125"/>
       <c r="E85" s="126"/>
-      <c r="F85" s="324"/>
-      <c r="G85" s="324"/>
-      <c r="H85" s="324"/>
-      <c r="I85" s="335"/>
-      <c r="J85" s="326"/>
-      <c r="K85" s="358"/>
-      <c r="L85" s="310"/>
-      <c r="M85" s="359"/>
-      <c r="N85" s="349"/>
-      <c r="O85" s="358"/>
-      <c r="P85" s="359"/>
-      <c r="Q85" s="326"/>
-      <c r="R85" s="351"/>
-      <c r="S85" s="351"/>
-      <c r="T85" s="351"/>
-      <c r="U85" s="326"/>
-      <c r="V85" s="351"/>
-      <c r="X85" s="324"/>
-      <c r="Y85" s="324"/>
+      <c r="F85" s="376"/>
+      <c r="G85" s="376"/>
+      <c r="H85" s="376"/>
+      <c r="I85" s="410"/>
+      <c r="J85" s="392"/>
+      <c r="K85" s="336"/>
+      <c r="L85" s="398"/>
+      <c r="M85" s="337"/>
+      <c r="N85" s="390"/>
+      <c r="O85" s="336"/>
+      <c r="P85" s="337"/>
+      <c r="Q85" s="392"/>
+      <c r="R85" s="395"/>
+      <c r="S85" s="395"/>
+      <c r="T85" s="395"/>
+      <c r="U85" s="392"/>
+      <c r="V85" s="395"/>
+      <c r="X85" s="376"/>
+      <c r="Y85" s="376"/>
     </row>
     <row r="86" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="332"/>
-      <c r="C86" s="333"/>
+      <c r="B86" s="373"/>
+      <c r="C86" s="374"/>
       <c r="D86" s="125"/>
       <c r="E86" s="126"/>
-      <c r="F86" s="318"/>
-      <c r="G86" s="318"/>
-      <c r="H86" s="318"/>
-      <c r="I86" s="336"/>
-      <c r="J86" s="327"/>
-      <c r="K86" s="360"/>
-      <c r="L86" s="361"/>
-      <c r="M86" s="362"/>
-      <c r="N86" s="349"/>
-      <c r="O86" s="360"/>
-      <c r="P86" s="362"/>
-      <c r="Q86" s="327"/>
-      <c r="R86" s="352"/>
-      <c r="S86" s="352"/>
-      <c r="T86" s="352"/>
-      <c r="U86" s="327"/>
-      <c r="V86" s="352"/>
-      <c r="X86" s="318"/>
-      <c r="Y86" s="318"/>
+      <c r="F86" s="377"/>
+      <c r="G86" s="377"/>
+      <c r="H86" s="377"/>
+      <c r="I86" s="411"/>
+      <c r="J86" s="393"/>
+      <c r="K86" s="338"/>
+      <c r="L86" s="399"/>
+      <c r="M86" s="339"/>
+      <c r="N86" s="390"/>
+      <c r="O86" s="338"/>
+      <c r="P86" s="339"/>
+      <c r="Q86" s="393"/>
+      <c r="R86" s="396"/>
+      <c r="S86" s="396"/>
+      <c r="T86" s="396"/>
+      <c r="U86" s="393"/>
+      <c r="V86" s="396"/>
+      <c r="X86" s="377"/>
+      <c r="Y86" s="377"/>
     </row>
     <row r="87" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="300" t="str">
+      <c r="B87" s="302" t="str">
         <f t="shared" ref="B87:B95" si="6">B41</f>
         <v>14-20</v>
       </c>
-      <c r="C87" s="301"/>
+      <c r="C87" s="303"/>
       <c r="D87" s="130">
         <f>LEFT(B87,2)+0</f>
         <v>14</v>
@@ -38817,26 +38833,26 @@
         <f t="shared" ref="J87:J95" si="10">(F87/100)/((I87/1000)^2)</f>
         <v>6746.44335939147</v>
       </c>
-      <c r="K87" s="364" t="str">
+      <c r="K87" s="412" t="str">
         <f>ROUND((J76*J32*((1-J75)^2)/(J75^3)*(J73*(J72/3600))/9.806*((6/J77)^2)*J96),4)&amp;" m"</f>
         <v>0.9072 m</v>
       </c>
-      <c r="L87" s="365"/>
-      <c r="M87" s="366"/>
+      <c r="L87" s="413"/>
+      <c r="M87" s="414"/>
       <c r="N87" s="104">
         <f t="shared" ref="N87:N95" si="11">$J$78*(I87/1000)*($J$72/3600)/$J$32</f>
         <v>0.79404869211710449</v>
       </c>
-      <c r="O87" s="353">
+      <c r="O87" s="332">
         <f>150*(1-$J$75)/N87+1.75</f>
         <v>105.64791056772258</v>
       </c>
-      <c r="P87" s="354"/>
+      <c r="P87" s="333"/>
       <c r="Q87" s="118">
         <f t="shared" ref="Q87:Q95" si="12">O87*(F87/100)/(I87/1000)</f>
         <v>776.14585960550062</v>
       </c>
-      <c r="R87" s="363" t="str">
+      <c r="R87" s="366" t="str">
         <f>ROUND((1/J78*(1-J75)/(J75^3)*J73*((J72/3600)^2)/9.806*Q96),4)&amp; " m"</f>
         <v>0.7598 m</v>
       </c>
@@ -38852,7 +38868,7 @@
         <f t="shared" ref="U87:U95" si="14">T87*(F87/100)/(I87/1000)</f>
         <v>214.04135325970518</v>
       </c>
-      <c r="V87" s="363" t="str">
+      <c r="V87" s="366" t="str">
         <f>ROUND((0.178*((J72/3600)^2)*J73*1/(9.806*(J75^4))*J79*U96),4)&amp;" m"</f>
         <v>0.7576 m</v>
       </c>
@@ -38873,11 +38889,11 @@
       </c>
     </row>
     <row r="88" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="300" t="str">
+      <c r="B88" s="302" t="str">
         <f t="shared" si="6"/>
         <v>20-25</v>
       </c>
-      <c r="C88" s="301"/>
+      <c r="C88" s="303"/>
       <c r="D88" s="130">
         <f t="shared" ref="D88:D95" si="15">LEFT(B88,2)+0</f>
         <v>20</v>
@@ -38906,23 +38922,23 @@
         <f t="shared" si="10"/>
         <v>71478.185698644607</v>
       </c>
-      <c r="K88" s="367"/>
-      <c r="L88" s="368"/>
-      <c r="M88" s="369"/>
+      <c r="K88" s="415"/>
+      <c r="L88" s="416"/>
+      <c r="M88" s="417"/>
       <c r="N88" s="104">
         <f t="shared" si="11"/>
         <v>0.56227307233134372</v>
       </c>
-      <c r="O88" s="353">
+      <c r="O88" s="332">
         <f t="shared" ref="O88:O95" si="18">150*(1-$J$75)/N88+1.75</f>
         <v>148.4758598352071</v>
       </c>
-      <c r="P88" s="354"/>
+      <c r="P88" s="333"/>
       <c r="Q88" s="118">
         <f t="shared" si="12"/>
         <v>8183.4620779777897</v>
       </c>
-      <c r="R88" s="363"/>
+      <c r="R88" s="366"/>
       <c r="S88" s="119">
         <f t="shared" si="13"/>
         <v>0.66149773215452201</v>
@@ -38935,7 +38951,7 @@
         <f t="shared" si="14"/>
         <v>2221.7366199873777</v>
       </c>
-      <c r="V88" s="363"/>
+      <c r="V88" s="366"/>
       <c r="X88" s="46">
         <v>100</v>
       </c>
@@ -38953,11 +38969,11 @@
       </c>
     </row>
     <row r="89" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="300" t="str">
+      <c r="B89" s="302" t="str">
         <f t="shared" si="6"/>
         <v>25-30</v>
       </c>
-      <c r="C89" s="301"/>
+      <c r="C89" s="303"/>
       <c r="D89" s="130">
         <f t="shared" si="15"/>
         <v>25</v>
@@ -38986,23 +39002,23 @@
         <f t="shared" si="10"/>
         <v>357053.7125741386</v>
       </c>
-      <c r="K89" s="367"/>
-      <c r="L89" s="368"/>
-      <c r="M89" s="369"/>
+      <c r="K89" s="415"/>
+      <c r="L89" s="416"/>
+      <c r="M89" s="417"/>
       <c r="N89" s="104">
         <f t="shared" si="11"/>
         <v>0.47294187660521642</v>
       </c>
-      <c r="O89" s="353">
+      <c r="O89" s="332">
         <f t="shared" si="18"/>
         <v>176.1900402691895</v>
       </c>
-      <c r="P89" s="354"/>
+      <c r="P89" s="333"/>
       <c r="Q89" s="118">
         <f t="shared" si="12"/>
         <v>40802.154662329915</v>
       </c>
-      <c r="R89" s="363"/>
+      <c r="R89" s="366"/>
       <c r="S89" s="119">
         <f t="shared" si="13"/>
         <v>0.55640220777084282</v>
@@ -39015,7 +39031,7 @@
         <f t="shared" si="14"/>
         <v>10999.169821885265</v>
       </c>
-      <c r="V89" s="363"/>
+      <c r="V89" s="366"/>
       <c r="X89" s="46">
         <v>80</v>
       </c>
@@ -39033,11 +39049,11 @@
       </c>
     </row>
     <row r="90" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="300" t="str">
+      <c r="B90" s="302" t="str">
         <f t="shared" si="6"/>
         <v>30-35</v>
       </c>
-      <c r="C90" s="301"/>
+      <c r="C90" s="303"/>
       <c r="D90" s="130">
         <f t="shared" si="15"/>
         <v>30</v>
@@ -39066,23 +39082,23 @@
         <f t="shared" si="10"/>
         <v>559663.86554621835</v>
       </c>
-      <c r="K90" s="367"/>
-      <c r="L90" s="368"/>
-      <c r="M90" s="369"/>
+      <c r="K90" s="415"/>
+      <c r="L90" s="416"/>
+      <c r="M90" s="417"/>
       <c r="N90" s="104">
         <f t="shared" si="11"/>
         <v>0.39772516031159311</v>
       </c>
-      <c r="O90" s="353">
+      <c r="O90" s="332">
         <f t="shared" si="18"/>
         <v>209.17967313248764</v>
       </c>
-      <c r="P90" s="354"/>
+      <c r="P90" s="333"/>
       <c r="Q90" s="118">
         <f t="shared" si="12"/>
         <v>63854.312425811499</v>
       </c>
-      <c r="R90" s="363"/>
+      <c r="R90" s="366"/>
       <c r="S90" s="119">
         <f t="shared" si="13"/>
         <v>0.46791195330775665</v>
@@ -39095,7 +39111,7 @@
         <f t="shared" si="14"/>
         <v>17099.90622380986</v>
       </c>
-      <c r="V90" s="363"/>
+      <c r="V90" s="366"/>
       <c r="X90" s="46">
         <v>70</v>
       </c>
@@ -39107,11 +39123,11 @@
       <c r="AF90" s="143"/>
     </row>
     <row r="91" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="300" t="str">
+      <c r="B91" s="302" t="str">
         <f t="shared" si="6"/>
         <v>35-40</v>
       </c>
-      <c r="C91" s="301"/>
+      <c r="C91" s="303"/>
       <c r="D91" s="130">
         <f t="shared" si="15"/>
         <v>35</v>
@@ -39140,23 +39156,23 @@
         <f t="shared" si="10"/>
         <v>900500</v>
       </c>
-      <c r="K91" s="367"/>
-      <c r="L91" s="368"/>
-      <c r="M91" s="369"/>
+      <c r="K91" s="415"/>
+      <c r="L91" s="416"/>
+      <c r="M91" s="417"/>
       <c r="N91" s="104">
         <f t="shared" si="11"/>
         <v>0.32610283797865985</v>
       </c>
-      <c r="O91" s="353">
+      <c r="O91" s="332">
         <f t="shared" si="18"/>
         <v>254.7376787070427</v>
       </c>
-      <c r="P91" s="354"/>
+      <c r="P91" s="333"/>
       <c r="Q91" s="118">
         <f t="shared" si="12"/>
         <v>102586.89896010263</v>
       </c>
-      <c r="R91" s="363"/>
+      <c r="R91" s="366"/>
       <c r="S91" s="119">
         <f t="shared" si="13"/>
         <v>0.3836503976219528</v>
@@ -39169,7 +39185,7 @@
         <f t="shared" si="14"/>
         <v>27280.127341534007</v>
       </c>
-      <c r="V91" s="363"/>
+      <c r="V91" s="366"/>
       <c r="X91" s="46">
         <v>60</v>
       </c>
@@ -39182,11 +39198,11 @@
       <c r="AF91" s="143"/>
     </row>
     <row r="92" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="300" t="str">
+      <c r="B92" s="302" t="str">
         <f t="shared" si="6"/>
         <v>40-50</v>
       </c>
-      <c r="C92" s="301"/>
+      <c r="C92" s="303"/>
       <c r="D92" s="130">
         <f t="shared" si="15"/>
         <v>40</v>
@@ -39215,23 +39231,23 @@
         <f t="shared" si="10"/>
         <v>1536195.2861952859</v>
       </c>
-      <c r="K92" s="367"/>
-      <c r="L92" s="368"/>
-      <c r="M92" s="369"/>
+      <c r="K92" s="415"/>
+      <c r="L92" s="416"/>
+      <c r="M92" s="417"/>
       <c r="N92" s="104">
         <f t="shared" si="11"/>
         <v>0.2513320079039183</v>
       </c>
-      <c r="O92" s="353">
+      <c r="O92" s="332">
         <f t="shared" si="18"/>
         <v>330.00106793217884</v>
       </c>
-      <c r="P92" s="354"/>
+      <c r="P92" s="333"/>
       <c r="Q92" s="118">
         <f t="shared" si="12"/>
         <v>174731.01262088667</v>
       </c>
-      <c r="R92" s="363"/>
+      <c r="R92" s="366"/>
       <c r="S92" s="119">
         <f t="shared" si="13"/>
         <v>0.29568471518108036</v>
@@ -39244,7 +39260,7 @@
         <f t="shared" si="14"/>
         <v>46078.31738632395</v>
       </c>
-      <c r="V92" s="363"/>
+      <c r="V92" s="366"/>
       <c r="W92" s="123"/>
       <c r="X92" s="46">
         <v>50</v>
@@ -39258,11 +39274,11 @@
       <c r="AF92" s="143"/>
     </row>
     <row r="93" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="300" t="str">
+      <c r="B93" s="302" t="str">
         <f t="shared" si="6"/>
         <v>50-60</v>
       </c>
-      <c r="C93" s="301"/>
+      <c r="C93" s="303"/>
       <c r="D93" s="130">
         <f t="shared" si="15"/>
         <v>50</v>
@@ -39291,23 +39307,23 @@
         <f t="shared" si="10"/>
         <v>2107744.1077441075</v>
       </c>
-      <c r="K93" s="367"/>
-      <c r="L93" s="368"/>
-      <c r="M93" s="369"/>
+      <c r="K93" s="415"/>
+      <c r="L93" s="416"/>
+      <c r="M93" s="417"/>
       <c r="N93" s="104">
         <f t="shared" si="11"/>
         <v>0.19869539846995582</v>
       </c>
-      <c r="O93" s="353">
+      <c r="O93" s="332">
         <f t="shared" si="18"/>
         <v>416.95840761933698</v>
       </c>
-      <c r="P93" s="354"/>
+      <c r="P93" s="333"/>
       <c r="Q93" s="118">
         <f t="shared" si="12"/>
         <v>239474.26464116818</v>
       </c>
-      <c r="R93" s="363"/>
+      <c r="R93" s="366"/>
       <c r="S93" s="119">
         <f t="shared" si="13"/>
         <v>0.23375929231759512</v>
@@ -39320,7 +39336,7 @@
         <f t="shared" si="14"/>
         <v>62725.912586708182</v>
       </c>
-      <c r="V93" s="363"/>
+      <c r="V93" s="366"/>
       <c r="W93" s="123"/>
       <c r="X93" s="46">
         <v>45</v>
@@ -39333,11 +39349,11 @@
       <c r="AF93" s="143"/>
     </row>
     <row r="94" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="300" t="str">
+      <c r="B94" s="302" t="str">
         <f t="shared" si="6"/>
         <v>60-70</v>
       </c>
-      <c r="C94" s="301"/>
+      <c r="C94" s="303"/>
       <c r="D94" s="130">
         <f t="shared" si="15"/>
         <v>60</v>
@@ -39366,23 +39382,23 @@
         <f t="shared" si="10"/>
         <v>1771428.5714285716</v>
       </c>
-      <c r="K94" s="367"/>
-      <c r="L94" s="368"/>
-      <c r="M94" s="369"/>
+      <c r="K94" s="415"/>
+      <c r="L94" s="416"/>
+      <c r="M94" s="417"/>
       <c r="N94" s="104">
         <f t="shared" si="11"/>
         <v>0.16707798627035139</v>
       </c>
-      <c r="O94" s="353">
+      <c r="O94" s="332">
         <f t="shared" si="18"/>
         <v>495.53138821056604</v>
       </c>
-      <c r="P94" s="354"/>
+      <c r="P94" s="333"/>
       <c r="Q94" s="118">
         <f t="shared" si="12"/>
         <v>201128.89419070137</v>
       </c>
-      <c r="R94" s="363"/>
+      <c r="R94" s="366"/>
       <c r="S94" s="119">
         <f t="shared" si="13"/>
         <v>0.19656233678864868</v>
@@ -39395,7 +39411,7 @@
         <f t="shared" si="14"/>
         <v>52442.520648440608</v>
       </c>
-      <c r="V94" s="363"/>
+      <c r="V94" s="366"/>
       <c r="W94" s="123"/>
       <c r="X94" s="46">
         <v>40</v>
@@ -39408,11 +39424,11 @@
       <c r="AF94" s="143"/>
     </row>
     <row r="95" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="300" t="str">
+      <c r="B95" s="302" t="str">
         <f t="shared" si="6"/>
         <v>70-100</v>
       </c>
-      <c r="C95" s="301"/>
+      <c r="C95" s="303"/>
       <c r="D95" s="130">
         <f t="shared" si="15"/>
         <v>70</v>
@@ -39441,23 +39457,23 @@
         <f t="shared" si="10"/>
         <v>661553.21188878256</v>
       </c>
-      <c r="K95" s="370"/>
-      <c r="L95" s="371"/>
-      <c r="M95" s="372"/>
+      <c r="K95" s="418"/>
+      <c r="L95" s="419"/>
+      <c r="M95" s="420"/>
       <c r="N95" s="104">
         <f t="shared" si="11"/>
         <v>0.12898593676718717</v>
       </c>
-      <c r="O95" s="353">
+      <c r="O95" s="332">
         <f t="shared" si="18"/>
         <v>641.35461169428231</v>
       </c>
-      <c r="P95" s="354"/>
+      <c r="P95" s="333"/>
       <c r="Q95" s="118">
         <f t="shared" si="12"/>
         <v>75052.607596385686</v>
       </c>
-      <c r="R95" s="363"/>
+      <c r="R95" s="366"/>
       <c r="S95" s="119">
         <f t="shared" si="13"/>
         <v>0.15174816090257315</v>
@@ -39470,7 +39486,7 @@
         <f t="shared" si="14"/>
         <v>19448.824116320677</v>
       </c>
-      <c r="V95" s="363"/>
+      <c r="V95" s="366"/>
       <c r="W95" s="123"/>
       <c r="X95" s="46">
         <v>35</v>
@@ -39494,7 +39510,7 @@
       <c r="G96" s="129"/>
       <c r="H96" s="5"/>
       <c r="I96" s="123"/>
-      <c r="J96" s="314">
+      <c r="J96" s="401">
         <f>SUM(J87:J95)</f>
         <v>7972363.3844351405</v>
       </c>
@@ -39504,14 +39520,14 @@
       <c r="N96" s="123"/>
       <c r="O96" s="123"/>
       <c r="P96" s="123"/>
-      <c r="Q96" s="315">
+      <c r="Q96" s="368">
         <f>SUM(Q87:Q95)</f>
         <v>906589.75303496921</v>
       </c>
       <c r="R96" s="123"/>
       <c r="S96" s="123"/>
       <c r="T96" s="123"/>
-      <c r="U96" s="339">
+      <c r="U96" s="383">
         <f>SUM(U87:U95)</f>
         <v>238510.55609826962</v>
       </c>
@@ -39534,18 +39550,18 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="123"/>
-      <c r="J97" s="315"/>
+      <c r="J97" s="368"/>
       <c r="K97" s="123"/>
       <c r="L97" s="123"/>
       <c r="M97" s="123"/>
       <c r="N97" s="123"/>
       <c r="O97" s="123"/>
       <c r="P97" s="123"/>
-      <c r="Q97" s="315"/>
+      <c r="Q97" s="368"/>
       <c r="R97" s="123"/>
       <c r="S97" s="123"/>
       <c r="T97" s="123"/>
-      <c r="U97" s="340"/>
+      <c r="U97" s="384"/>
       <c r="V97" s="123"/>
       <c r="W97" s="123"/>
       <c r="X97" s="46">
@@ -39565,7 +39581,7 @@
       <c r="G98" s="124"/>
       <c r="H98" s="124"/>
       <c r="I98" s="123"/>
-      <c r="J98" s="315"/>
+      <c r="J98" s="368"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6">
@@ -39574,13 +39590,13 @@
       <c r="N98" s="123"/>
       <c r="O98" s="123"/>
       <c r="P98" s="123"/>
-      <c r="Q98" s="315"/>
+      <c r="Q98" s="368"/>
       <c r="R98" s="6">
         <v>0.47220000000000001</v>
       </c>
       <c r="S98" s="123"/>
       <c r="T98" s="123"/>
-      <c r="U98" s="341"/>
+      <c r="U98" s="385"/>
       <c r="V98" s="6" t="s">
         <v>247</v>
       </c>
@@ -39658,19 +39674,19 @@
       <c r="Z100" s="122"/>
     </row>
     <row r="101" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="389" t="s">
+      <c r="B101" s="348" t="s">
         <v>224</v>
       </c>
-      <c r="C101" s="390"/>
+      <c r="C101" s="349"/>
       <c r="D101" s="149"/>
       <c r="E101" s="203"/>
-      <c r="F101" s="395" t="s">
+      <c r="F101" s="307" t="s">
         <v>222</v>
       </c>
-      <c r="G101" s="395" t="s">
+      <c r="G101" s="307" t="s">
         <v>223</v>
       </c>
-      <c r="H101" s="395" t="s">
+      <c r="H101" s="307" t="s">
         <v>216</v>
       </c>
       <c r="I101" s="123"/>
@@ -39697,13 +39713,13 @@
       <c r="Z101" s="122"/>
     </row>
     <row r="102" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="391"/>
-      <c r="C102" s="392"/>
+      <c r="B102" s="350"/>
+      <c r="C102" s="351"/>
       <c r="D102" s="149"/>
       <c r="E102" s="203"/>
-      <c r="F102" s="396"/>
-      <c r="G102" s="396"/>
-      <c r="H102" s="396"/>
+      <c r="F102" s="308"/>
+      <c r="G102" s="308"/>
+      <c r="H102" s="308"/>
       <c r="I102" s="123"/>
       <c r="J102" s="147"/>
       <c r="K102" s="6"/>
@@ -39728,13 +39744,13 @@
       <c r="Z102" s="122"/>
     </row>
     <row r="103" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="391"/>
-      <c r="C103" s="392"/>
+      <c r="B103" s="350"/>
+      <c r="C103" s="351"/>
       <c r="D103" s="149"/>
       <c r="E103" s="203"/>
-      <c r="F103" s="396"/>
-      <c r="G103" s="396"/>
-      <c r="H103" s="396"/>
+      <c r="F103" s="308"/>
+      <c r="G103" s="308"/>
+      <c r="H103" s="308"/>
       <c r="I103" s="166"/>
       <c r="J103" s="166"/>
       <c r="K103" s="166"/>
@@ -39759,13 +39775,13 @@
       <c r="Z103" s="122"/>
     </row>
     <row r="104" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="393"/>
-      <c r="C104" s="394"/>
+      <c r="B104" s="352"/>
+      <c r="C104" s="353"/>
       <c r="D104" s="149"/>
       <c r="E104" s="203"/>
-      <c r="F104" s="397"/>
-      <c r="G104" s="397"/>
-      <c r="H104" s="397"/>
+      <c r="F104" s="354"/>
+      <c r="G104" s="354"/>
+      <c r="H104" s="354"/>
       <c r="I104" s="166"/>
       <c r="J104" s="166"/>
       <c r="K104" s="166"/>
@@ -39790,10 +39806,10 @@
       <c r="Z104" s="122"/>
     </row>
     <row r="105" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="342">
+      <c r="B105" s="355">
         <v>1</v>
       </c>
-      <c r="C105" s="343"/>
+      <c r="C105" s="356"/>
       <c r="D105" s="150"/>
       <c r="E105" s="134"/>
       <c r="F105" s="152">
@@ -39831,10 +39847,10 @@
       <c r="Z105" s="122"/>
     </row>
     <row r="106" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="342">
+      <c r="B106" s="355">
         <v>2</v>
       </c>
-      <c r="C106" s="343"/>
+      <c r="C106" s="356"/>
       <c r="D106" s="150"/>
       <c r="E106" s="134"/>
       <c r="F106" s="152" t="s">
@@ -39863,7 +39879,7 @@
       <c r="O106" s="123">
         <v>15</v>
       </c>
-      <c r="P106" s="417">
+      <c r="P106" s="258">
         <v>1.6</v>
       </c>
       <c r="Q106" s="5"/>
@@ -39878,10 +39894,10 @@
       <c r="Z106" s="122"/>
     </row>
     <row r="107" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="342">
+      <c r="B107" s="355">
         <v>3</v>
       </c>
-      <c r="C107" s="343"/>
+      <c r="C107" s="356"/>
       <c r="D107" s="150"/>
       <c r="E107" s="134"/>
       <c r="F107" s="152" t="s">
@@ -39910,7 +39926,7 @@
       <c r="O107" s="123">
         <v>16</v>
       </c>
-      <c r="P107" s="417">
+      <c r="P107" s="258">
         <v>4.4040000000000003E-2</v>
       </c>
       <c r="Q107" s="5"/>
@@ -39925,10 +39941,10 @@
       <c r="Z107" s="122"/>
     </row>
     <row r="108" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="342">
+      <c r="B108" s="355">
         <v>4</v>
       </c>
-      <c r="C108" s="343"/>
+      <c r="C108" s="356"/>
       <c r="D108" s="150"/>
       <c r="E108" s="134"/>
       <c r="F108" s="152" t="s">
@@ -39966,10 +39982,10 @@
       <c r="Z108" s="122"/>
     </row>
     <row r="109" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="342">
+      <c r="B109" s="355">
         <v>5</v>
       </c>
-      <c r="C109" s="343"/>
+      <c r="C109" s="356"/>
       <c r="D109" s="199"/>
       <c r="E109" s="204"/>
       <c r="F109" s="135" t="s">
@@ -40066,15 +40082,15 @@
       <c r="Z111" s="122"/>
     </row>
     <row r="112" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="273" t="s">
+      <c r="B112" s="278" t="s">
         <v>180</v>
       </c>
-      <c r="C112" s="273"/>
-      <c r="D112" s="273"/>
-      <c r="E112" s="273"/>
-      <c r="F112" s="273"/>
-      <c r="G112" s="273"/>
-      <c r="H112" s="273"/>
+      <c r="C112" s="278"/>
+      <c r="D112" s="278"/>
+      <c r="E112" s="278"/>
+      <c r="F112" s="278"/>
+      <c r="G112" s="278"/>
+      <c r="H112" s="278"/>
       <c r="I112" s="225" t="s">
         <v>212</v>
       </c>
@@ -40084,10 +40100,10 @@
       <c r="K112" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="L112" s="302"/>
-      <c r="M112" s="303"/>
-      <c r="N112" s="303"/>
-      <c r="O112" s="304"/>
+      <c r="L112" s="311"/>
+      <c r="M112" s="312"/>
+      <c r="N112" s="312"/>
+      <c r="O112" s="313"/>
       <c r="P112" s="123"/>
       <c r="Q112" s="205"/>
       <c r="R112" s="6"/>
@@ -40101,15 +40117,15 @@
       <c r="Z112" s="122"/>
     </row>
     <row r="113" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="267" t="s">
+      <c r="B113" s="260" t="s">
         <v>304</v>
       </c>
-      <c r="C113" s="299"/>
-      <c r="D113" s="299"/>
-      <c r="E113" s="299"/>
-      <c r="F113" s="299"/>
-      <c r="G113" s="299"/>
-      <c r="H113" s="268"/>
+      <c r="C113" s="304"/>
+      <c r="D113" s="304"/>
+      <c r="E113" s="304"/>
+      <c r="F113" s="304"/>
+      <c r="G113" s="304"/>
+      <c r="H113" s="261"/>
       <c r="I113" s="225" t="s">
         <v>305</v>
       </c>
@@ -40120,10 +40136,10 @@
       <c r="K113" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="L113" s="302"/>
-      <c r="M113" s="303"/>
-      <c r="N113" s="303"/>
-      <c r="O113" s="304"/>
+      <c r="L113" s="311"/>
+      <c r="M113" s="312"/>
+      <c r="N113" s="312"/>
+      <c r="O113" s="313"/>
       <c r="P113" s="123"/>
       <c r="Q113" s="205"/>
       <c r="R113" s="6"/>
@@ -40137,29 +40153,29 @@
       <c r="Z113" s="122"/>
     </row>
     <row r="114" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="398" t="s">
+      <c r="B114" s="314" t="s">
         <v>308</v>
       </c>
-      <c r="C114" s="399"/>
-      <c r="D114" s="399"/>
-      <c r="E114" s="399"/>
-      <c r="F114" s="399"/>
-      <c r="G114" s="399"/>
-      <c r="H114" s="400"/>
-      <c r="I114" s="404" t="s">
+      <c r="C114" s="315"/>
+      <c r="D114" s="315"/>
+      <c r="E114" s="315"/>
+      <c r="F114" s="315"/>
+      <c r="G114" s="315"/>
+      <c r="H114" s="316"/>
+      <c r="I114" s="324" t="s">
         <v>309</v>
       </c>
-      <c r="J114" s="406">
+      <c r="J114" s="322">
         <f>J112/(24*60)*J113/3</f>
         <v>1.2499999999999997E-2</v>
       </c>
-      <c r="K114" s="404" t="s">
+      <c r="K114" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="L114" s="408"/>
-      <c r="M114" s="409"/>
-      <c r="N114" s="409"/>
-      <c r="O114" s="410"/>
+      <c r="L114" s="326"/>
+      <c r="M114" s="327"/>
+      <c r="N114" s="327"/>
+      <c r="O114" s="328"/>
       <c r="P114" s="123"/>
       <c r="Q114" s="205"/>
       <c r="R114" s="6"/>
@@ -40173,20 +40189,20 @@
       <c r="Z114" s="122"/>
     </row>
     <row r="115" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="401"/>
-      <c r="C115" s="402"/>
-      <c r="D115" s="402"/>
-      <c r="E115" s="402"/>
-      <c r="F115" s="402"/>
-      <c r="G115" s="402"/>
-      <c r="H115" s="403"/>
-      <c r="I115" s="405"/>
-      <c r="J115" s="407"/>
-      <c r="K115" s="405"/>
-      <c r="L115" s="411"/>
-      <c r="M115" s="412"/>
-      <c r="N115" s="412"/>
-      <c r="O115" s="413"/>
+      <c r="B115" s="317"/>
+      <c r="C115" s="318"/>
+      <c r="D115" s="318"/>
+      <c r="E115" s="318"/>
+      <c r="F115" s="318"/>
+      <c r="G115" s="318"/>
+      <c r="H115" s="319"/>
+      <c r="I115" s="325"/>
+      <c r="J115" s="323"/>
+      <c r="K115" s="325"/>
+      <c r="L115" s="329"/>
+      <c r="M115" s="330"/>
+      <c r="N115" s="330"/>
+      <c r="O115" s="331"/>
       <c r="P115" s="123"/>
       <c r="Q115" s="205"/>
       <c r="R115" s="6"/>
@@ -40256,15 +40272,15 @@
       <c r="Z117" s="122"/>
     </row>
     <row r="118" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="267" t="s">
+      <c r="B118" s="260" t="s">
         <v>361</v>
       </c>
-      <c r="C118" s="299"/>
-      <c r="D118" s="299"/>
-      <c r="E118" s="299"/>
-      <c r="F118" s="299"/>
-      <c r="G118" s="299"/>
-      <c r="H118" s="268"/>
+      <c r="C118" s="304"/>
+      <c r="D118" s="304"/>
+      <c r="E118" s="304"/>
+      <c r="F118" s="304"/>
+      <c r="G118" s="304"/>
+      <c r="H118" s="261"/>
       <c r="I118" s="211" t="s">
         <v>362</v>
       </c>
@@ -40275,10 +40291,10 @@
         <f>VLOOKUP(I118,I11:J12,2,FALSE)</f>
         <v>7.0464000000000013E-2</v>
       </c>
-      <c r="L118" s="302"/>
-      <c r="M118" s="303"/>
-      <c r="N118" s="303"/>
-      <c r="O118" s="304"/>
+      <c r="L118" s="311"/>
+      <c r="M118" s="312"/>
+      <c r="N118" s="312"/>
+      <c r="O118" s="313"/>
       <c r="P118" s="123"/>
       <c r="Q118" s="212"/>
       <c r="R118" s="6"/>
@@ -40301,20 +40317,20 @@
       <c r="F119" s="281"/>
       <c r="G119" s="281"/>
       <c r="H119" s="281"/>
-      <c r="I119" s="305" t="s">
+      <c r="I119" s="407" t="s">
         <v>27</v>
       </c>
-      <c r="J119" s="306" t="s">
+      <c r="J119" s="357" t="s">
         <v>28</v>
       </c>
-      <c r="K119" s="418">
+      <c r="K119" s="408">
         <f>0.044*SQRT(J11*86400)</f>
         <v>3.0946025497307401</v>
       </c>
-      <c r="L119" s="306"/>
-      <c r="M119" s="306"/>
-      <c r="N119" s="306"/>
-      <c r="O119" s="306"/>
+      <c r="L119" s="357"/>
+      <c r="M119" s="357"/>
+      <c r="N119" s="357"/>
+      <c r="O119" s="357"/>
       <c r="P119" s="123"/>
       <c r="Q119" s="212"/>
       <c r="R119" s="6"/>
@@ -40335,13 +40351,13 @@
       <c r="F120" s="281"/>
       <c r="G120" s="281"/>
       <c r="H120" s="281"/>
-      <c r="I120" s="305"/>
-      <c r="J120" s="306"/>
-      <c r="K120" s="418"/>
-      <c r="L120" s="306"/>
-      <c r="M120" s="306"/>
-      <c r="N120" s="306"/>
-      <c r="O120" s="306"/>
+      <c r="I120" s="407"/>
+      <c r="J120" s="357"/>
+      <c r="K120" s="408"/>
+      <c r="L120" s="357"/>
+      <c r="M120" s="357"/>
+      <c r="N120" s="357"/>
+      <c r="O120" s="357"/>
       <c r="P120" s="123"/>
       <c r="Q120" s="212"/>
       <c r="R120" s="6"/>
@@ -40550,15 +40566,15 @@
       <c r="Z127" s="122"/>
     </row>
     <row r="128" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="311" t="s">
+      <c r="B128" s="342" t="s">
         <v>238</v>
       </c>
-      <c r="C128" s="312"/>
-      <c r="D128" s="312"/>
-      <c r="E128" s="312"/>
-      <c r="F128" s="312"/>
-      <c r="G128" s="312"/>
-      <c r="H128" s="313"/>
+      <c r="C128" s="343"/>
+      <c r="D128" s="343"/>
+      <c r="E128" s="343"/>
+      <c r="F128" s="343"/>
+      <c r="G128" s="343"/>
+      <c r="H128" s="344"/>
       <c r="I128" s="56" t="s">
         <v>11</v>
       </c>
@@ -40567,10 +40583,10 @@
         <v>0.45</v>
       </c>
       <c r="K128" s="222"/>
-      <c r="L128" s="302"/>
-      <c r="M128" s="303"/>
-      <c r="N128" s="303"/>
-      <c r="O128" s="304"/>
+      <c r="L128" s="311"/>
+      <c r="M128" s="312"/>
+      <c r="N128" s="312"/>
+      <c r="O128" s="313"/>
       <c r="P128" s="123"/>
       <c r="Q128" s="205"/>
       <c r="R128" s="6"/>
@@ -40584,16 +40600,16 @@
       <c r="Z128" s="122"/>
     </row>
     <row r="129" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="311" t="str">
+      <c r="B129" s="342" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J29&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C129" s="312"/>
-      <c r="D129" s="312"/>
-      <c r="E129" s="312"/>
-      <c r="F129" s="312"/>
-      <c r="G129" s="312"/>
-      <c r="H129" s="313"/>
+      <c r="C129" s="343"/>
+      <c r="D129" s="343"/>
+      <c r="E129" s="343"/>
+      <c r="F129" s="343"/>
+      <c r="G129" s="343"/>
+      <c r="H129" s="344"/>
       <c r="I129" s="51" t="s">
         <v>213</v>
       </c>
@@ -40621,15 +40637,15 @@
       <c r="Z129" s="122"/>
     </row>
     <row r="130" spans="2:26" s="136" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="278" t="s">
+      <c r="B130" s="279" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="344"/>
-      <c r="D130" s="344"/>
-      <c r="E130" s="344"/>
-      <c r="F130" s="344"/>
-      <c r="G130" s="344"/>
-      <c r="H130" s="279"/>
+      <c r="C130" s="309"/>
+      <c r="D130" s="309"/>
+      <c r="E130" s="309"/>
+      <c r="F130" s="309"/>
+      <c r="G130" s="309"/>
+      <c r="H130" s="280"/>
       <c r="I130" s="169" t="s">
         <v>266</v>
       </c>
@@ -40640,10 +40656,10 @@
       <c r="K130" s="169" t="s">
         <v>253</v>
       </c>
-      <c r="L130" s="309"/>
-      <c r="M130" s="309"/>
-      <c r="N130" s="309"/>
-      <c r="O130" s="309"/>
+      <c r="L130" s="310"/>
+      <c r="M130" s="310"/>
+      <c r="N130" s="310"/>
+      <c r="O130" s="310"/>
       <c r="P130" s="177"/>
       <c r="Q130" s="153"/>
       <c r="R130" s="6"/>
@@ -40657,15 +40673,15 @@
       <c r="Z130" s="122"/>
     </row>
     <row r="131" spans="2:26" s="136" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="278" t="s">
+      <c r="B131" s="279" t="s">
         <v>289</v>
       </c>
-      <c r="C131" s="344"/>
-      <c r="D131" s="344"/>
-      <c r="E131" s="344"/>
-      <c r="F131" s="344"/>
-      <c r="G131" s="344"/>
-      <c r="H131" s="279"/>
+      <c r="C131" s="309"/>
+      <c r="D131" s="309"/>
+      <c r="E131" s="309"/>
+      <c r="F131" s="309"/>
+      <c r="G131" s="309"/>
+      <c r="H131" s="280"/>
       <c r="I131" s="169" t="s">
         <v>288</v>
       </c>
@@ -40676,10 +40692,10 @@
       <c r="K131" s="169" t="s">
         <v>251</v>
       </c>
-      <c r="L131" s="309"/>
-      <c r="M131" s="309"/>
-      <c r="N131" s="309"/>
-      <c r="O131" s="309"/>
+      <c r="L131" s="310"/>
+      <c r="M131" s="310"/>
+      <c r="N131" s="310"/>
+      <c r="O131" s="310"/>
       <c r="P131" s="177"/>
       <c r="Q131" s="153"/>
       <c r="R131" s="6"/>
@@ -40693,16 +40709,16 @@
       <c r="Z131" s="122"/>
     </row>
     <row r="132" spans="2:26" s="136" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="278" t="str">
+      <c r="B132" s="279" t="str">
         <f>"Velocidad de arrastre del medio filtrante a "&amp;J29&amp;" °C"</f>
         <v>Velocidad de arrastre del medio filtrante a 3 °C</v>
       </c>
-      <c r="C132" s="344"/>
-      <c r="D132" s="344"/>
-      <c r="E132" s="344"/>
-      <c r="F132" s="344"/>
-      <c r="G132" s="344"/>
-      <c r="H132" s="279"/>
+      <c r="C132" s="309"/>
+      <c r="D132" s="309"/>
+      <c r="E132" s="309"/>
+      <c r="F132" s="309"/>
+      <c r="G132" s="309"/>
+      <c r="H132" s="280"/>
       <c r="I132" s="169" t="s">
         <v>298</v>
       </c>
@@ -40713,10 +40729,10 @@
       <c r="K132" s="169" t="s">
         <v>251</v>
       </c>
-      <c r="L132" s="309"/>
-      <c r="M132" s="309"/>
-      <c r="N132" s="309"/>
-      <c r="O132" s="309"/>
+      <c r="L132" s="310"/>
+      <c r="M132" s="310"/>
+      <c r="N132" s="310"/>
+      <c r="O132" s="310"/>
       <c r="P132" s="177"/>
       <c r="Q132" s="153"/>
       <c r="R132" s="6"/>
@@ -40730,16 +40746,16 @@
       <c r="Z132" s="122"/>
     </row>
     <row r="133" spans="2:26" s="136" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="278" t="str">
+      <c r="B133" s="279" t="str">
         <f>"Velocidad de fluidización del medio filtrante a "&amp;J29&amp;" °C"</f>
         <v>Velocidad de fluidización del medio filtrante a 3 °C</v>
       </c>
-      <c r="C133" s="344"/>
-      <c r="D133" s="344"/>
-      <c r="E133" s="344"/>
-      <c r="F133" s="344"/>
-      <c r="G133" s="344"/>
-      <c r="H133" s="279"/>
+      <c r="C133" s="309"/>
+      <c r="D133" s="309"/>
+      <c r="E133" s="309"/>
+      <c r="F133" s="309"/>
+      <c r="G133" s="309"/>
+      <c r="H133" s="280"/>
       <c r="I133" s="169" t="s">
         <v>297</v>
       </c>
@@ -40750,10 +40766,10 @@
       <c r="K133" s="169" t="s">
         <v>251</v>
       </c>
-      <c r="L133" s="386"/>
-      <c r="M133" s="387"/>
-      <c r="N133" s="387"/>
-      <c r="O133" s="388"/>
+      <c r="L133" s="345"/>
+      <c r="M133" s="346"/>
+      <c r="N133" s="346"/>
+      <c r="O133" s="347"/>
       <c r="P133" s="177"/>
       <c r="Q133" s="205"/>
       <c r="R133" s="6"/>
@@ -40767,16 +40783,16 @@
       <c r="Z133" s="122"/>
     </row>
     <row r="134" spans="2:26" s="136" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="278" t="str">
+      <c r="B134" s="279" t="str">
         <f>"Velocidad óptima de lavado a "&amp;J29&amp;" °C"</f>
         <v>Velocidad óptima de lavado a 3 °C</v>
       </c>
-      <c r="C134" s="344"/>
-      <c r="D134" s="344"/>
-      <c r="E134" s="344"/>
-      <c r="F134" s="344"/>
-      <c r="G134" s="344"/>
-      <c r="H134" s="279"/>
+      <c r="C134" s="309"/>
+      <c r="D134" s="309"/>
+      <c r="E134" s="309"/>
+      <c r="F134" s="309"/>
+      <c r="G134" s="309"/>
+      <c r="H134" s="280"/>
       <c r="I134" s="169" t="s">
         <v>290</v>
       </c>
@@ -40787,10 +40803,10 @@
       <c r="K134" s="169" t="s">
         <v>251</v>
       </c>
-      <c r="L134" s="309"/>
-      <c r="M134" s="309"/>
-      <c r="N134" s="309"/>
-      <c r="O134" s="309"/>
+      <c r="L134" s="310"/>
+      <c r="M134" s="310"/>
+      <c r="N134" s="310"/>
+      <c r="O134" s="310"/>
       <c r="P134" s="177"/>
       <c r="Q134" s="153"/>
       <c r="R134" s="6"/>
@@ -41051,15 +41067,15 @@
       <c r="Z143" s="122"/>
     </row>
     <row r="144" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="278" t="s">
+      <c r="B144" s="279" t="s">
         <v>240</v>
       </c>
-      <c r="C144" s="344"/>
-      <c r="D144" s="344"/>
-      <c r="E144" s="344"/>
-      <c r="F144" s="344"/>
-      <c r="G144" s="344"/>
-      <c r="H144" s="279"/>
+      <c r="C144" s="309"/>
+      <c r="D144" s="309"/>
+      <c r="E144" s="309"/>
+      <c r="F144" s="309"/>
+      <c r="G144" s="309"/>
+      <c r="H144" s="280"/>
       <c r="I144" s="169" t="s">
         <v>88</v>
       </c>
@@ -41070,10 +41086,10 @@
       <c r="K144" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="L144" s="309"/>
-      <c r="M144" s="309"/>
-      <c r="N144" s="309"/>
-      <c r="O144" s="309"/>
+      <c r="L144" s="310"/>
+      <c r="M144" s="310"/>
+      <c r="N144" s="310"/>
+      <c r="O144" s="310"/>
       <c r="P144" s="123"/>
       <c r="Q144" s="123"/>
       <c r="R144" s="123"/>
@@ -41087,15 +41103,15 @@
       <c r="Z144" s="122"/>
     </row>
     <row r="145" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="278" t="s">
+      <c r="B145" s="279" t="s">
         <v>238</v>
       </c>
-      <c r="C145" s="344"/>
-      <c r="D145" s="344"/>
-      <c r="E145" s="344"/>
-      <c r="F145" s="344"/>
-      <c r="G145" s="344"/>
-      <c r="H145" s="279"/>
+      <c r="C145" s="309"/>
+      <c r="D145" s="309"/>
+      <c r="E145" s="309"/>
+      <c r="F145" s="309"/>
+      <c r="G145" s="309"/>
+      <c r="H145" s="280"/>
       <c r="I145" s="169" t="s">
         <v>11</v>
       </c>
@@ -41104,10 +41120,10 @@
         <v>0.45</v>
       </c>
       <c r="K145" s="172"/>
-      <c r="L145" s="309"/>
-      <c r="M145" s="309"/>
-      <c r="N145" s="309"/>
-      <c r="O145" s="309"/>
+      <c r="L145" s="310"/>
+      <c r="M145" s="310"/>
+      <c r="N145" s="310"/>
+      <c r="O145" s="310"/>
       <c r="P145" s="123"/>
       <c r="Q145" s="123"/>
       <c r="R145" s="123"/>
@@ -41121,15 +41137,15 @@
       <c r="Z145" s="122"/>
     </row>
     <row r="146" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="278" t="s">
+      <c r="B146" s="279" t="s">
         <v>241</v>
       </c>
-      <c r="C146" s="344"/>
-      <c r="D146" s="344"/>
-      <c r="E146" s="344"/>
-      <c r="F146" s="344"/>
-      <c r="G146" s="344"/>
-      <c r="H146" s="279"/>
+      <c r="C146" s="309"/>
+      <c r="D146" s="309"/>
+      <c r="E146" s="309"/>
+      <c r="F146" s="309"/>
+      <c r="G146" s="309"/>
+      <c r="H146" s="280"/>
       <c r="I146" s="169" t="s">
         <v>242</v>
       </c>
@@ -41138,10 +41154,10 @@
         <v>2.65</v>
       </c>
       <c r="K146" s="172"/>
-      <c r="L146" s="309"/>
-      <c r="M146" s="309"/>
-      <c r="N146" s="309"/>
-      <c r="O146" s="309"/>
+      <c r="L146" s="310"/>
+      <c r="M146" s="310"/>
+      <c r="N146" s="310"/>
+      <c r="O146" s="310"/>
       <c r="P146" s="123"/>
       <c r="Q146" s="123"/>
       <c r="R146" s="123"/>
@@ -41155,15 +41171,15 @@
       <c r="Z146" s="122"/>
     </row>
     <row r="147" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="271" t="s">
+      <c r="B147" s="276" t="s">
         <v>244</v>
       </c>
-      <c r="C147" s="271"/>
-      <c r="D147" s="271"/>
-      <c r="E147" s="271"/>
-      <c r="F147" s="271"/>
-      <c r="G147" s="271"/>
-      <c r="H147" s="271"/>
+      <c r="C147" s="276"/>
+      <c r="D147" s="276"/>
+      <c r="E147" s="276"/>
+      <c r="F147" s="276"/>
+      <c r="G147" s="276"/>
+      <c r="H147" s="276"/>
       <c r="I147" s="169" t="s">
         <v>243</v>
       </c>
@@ -41174,10 +41190,10 @@
       <c r="K147" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="L147" s="309"/>
-      <c r="M147" s="309"/>
-      <c r="N147" s="309"/>
-      <c r="O147" s="309"/>
+      <c r="L147" s="310"/>
+      <c r="M147" s="310"/>
+      <c r="N147" s="310"/>
+      <c r="O147" s="310"/>
       <c r="P147" s="123"/>
       <c r="Q147" s="123"/>
       <c r="R147" s="123"/>
@@ -41247,15 +41263,15 @@
       <c r="Z149" s="122"/>
     </row>
     <row r="150" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="273" t="s">
+      <c r="B150" s="278" t="s">
         <v>310</v>
       </c>
-      <c r="C150" s="273"/>
-      <c r="D150" s="273"/>
-      <c r="E150" s="273"/>
-      <c r="F150" s="273"/>
-      <c r="G150" s="273"/>
-      <c r="H150" s="273"/>
+      <c r="C150" s="278"/>
+      <c r="D150" s="278"/>
+      <c r="E150" s="278"/>
+      <c r="F150" s="278"/>
+      <c r="G150" s="278"/>
+      <c r="H150" s="278"/>
       <c r="I150" s="225" t="s">
         <v>311</v>
       </c>
@@ -41266,10 +41282,10 @@
       <c r="K150" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="L150" s="302"/>
-      <c r="M150" s="303"/>
-      <c r="N150" s="303"/>
-      <c r="O150" s="304"/>
+      <c r="L150" s="311"/>
+      <c r="M150" s="312"/>
+      <c r="N150" s="312"/>
+      <c r="O150" s="313"/>
       <c r="P150" s="123"/>
       <c r="Q150" s="153"/>
       <c r="R150" s="6"/>
@@ -41283,15 +41299,15 @@
       <c r="Z150" s="122"/>
     </row>
     <row r="151" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="267" t="s">
+      <c r="B151" s="260" t="s">
         <v>304</v>
       </c>
-      <c r="C151" s="299"/>
-      <c r="D151" s="299"/>
-      <c r="E151" s="299"/>
-      <c r="F151" s="299"/>
-      <c r="G151" s="299"/>
-      <c r="H151" s="268"/>
+      <c r="C151" s="304"/>
+      <c r="D151" s="304"/>
+      <c r="E151" s="304"/>
+      <c r="F151" s="304"/>
+      <c r="G151" s="304"/>
+      <c r="H151" s="261"/>
       <c r="I151" s="225" t="s">
         <v>305</v>
       </c>
@@ -41302,10 +41318,10 @@
       <c r="K151" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="L151" s="302"/>
-      <c r="M151" s="303"/>
-      <c r="N151" s="303"/>
-      <c r="O151" s="304"/>
+      <c r="L151" s="311"/>
+      <c r="M151" s="312"/>
+      <c r="N151" s="312"/>
+      <c r="O151" s="313"/>
       <c r="P151" s="123"/>
       <c r="Q151" s="153"/>
       <c r="R151" s="6"/>
@@ -41319,29 +41335,29 @@
       <c r="Z151" s="122"/>
     </row>
     <row r="152" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="398" t="s">
+      <c r="B152" s="314" t="s">
         <v>312</v>
       </c>
-      <c r="C152" s="399"/>
-      <c r="D152" s="399"/>
-      <c r="E152" s="399"/>
-      <c r="F152" s="399"/>
-      <c r="G152" s="399"/>
-      <c r="H152" s="400"/>
-      <c r="I152" s="419" t="s">
+      <c r="C152" s="315"/>
+      <c r="D152" s="315"/>
+      <c r="E152" s="315"/>
+      <c r="F152" s="315"/>
+      <c r="G152" s="315"/>
+      <c r="H152" s="316"/>
+      <c r="I152" s="320" t="s">
         <v>366</v>
       </c>
-      <c r="J152" s="406">
+      <c r="J152" s="322">
         <f>J150*J151/3</f>
         <v>6.132858733100844E-2</v>
       </c>
-      <c r="K152" s="404" t="s">
+      <c r="K152" s="324" t="s">
         <v>3</v>
       </c>
-      <c r="L152" s="408"/>
-      <c r="M152" s="409"/>
-      <c r="N152" s="409"/>
-      <c r="O152" s="410"/>
+      <c r="L152" s="326"/>
+      <c r="M152" s="327"/>
+      <c r="N152" s="327"/>
+      <c r="O152" s="328"/>
       <c r="P152" s="123"/>
       <c r="Q152" s="153"/>
       <c r="R152" s="6"/>
@@ -41355,20 +41371,20 @@
       <c r="Z152" s="122"/>
     </row>
     <row r="153" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="401"/>
-      <c r="C153" s="402"/>
-      <c r="D153" s="402"/>
-      <c r="E153" s="402"/>
-      <c r="F153" s="402"/>
-      <c r="G153" s="402"/>
-      <c r="H153" s="403"/>
-      <c r="I153" s="420"/>
-      <c r="J153" s="407"/>
-      <c r="K153" s="405"/>
-      <c r="L153" s="411"/>
-      <c r="M153" s="412"/>
-      <c r="N153" s="412"/>
-      <c r="O153" s="413"/>
+      <c r="B153" s="317"/>
+      <c r="C153" s="318"/>
+      <c r="D153" s="318"/>
+      <c r="E153" s="318"/>
+      <c r="F153" s="318"/>
+      <c r="G153" s="318"/>
+      <c r="H153" s="319"/>
+      <c r="I153" s="321"/>
+      <c r="J153" s="323"/>
+      <c r="K153" s="325"/>
+      <c r="L153" s="329"/>
+      <c r="M153" s="330"/>
+      <c r="N153" s="330"/>
+      <c r="O153" s="331"/>
       <c r="P153" s="123"/>
       <c r="Q153" s="153"/>
       <c r="R153" s="6"/>
@@ -41463,8 +41479,8 @@
       <c r="Z156" s="122"/>
     </row>
     <row r="157" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="338"/>
-      <c r="C157" s="338"/>
+      <c r="B157" s="382"/>
+      <c r="C157" s="382"/>
       <c r="D157" s="132"/>
       <c r="E157" s="5"/>
       <c r="F157" s="133"/>
@@ -41569,13 +41585,13 @@
       <c r="Y160" s="115"/>
     </row>
     <row r="161" spans="2:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="284" t="s">
+      <c r="B161" s="272" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="284"/>
-      <c r="D161" s="284"/>
-      <c r="E161" s="284"/>
-      <c r="F161" s="284"/>
+      <c r="C161" s="272"/>
+      <c r="D161" s="272"/>
+      <c r="E161" s="272"/>
+      <c r="F161" s="272"/>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
@@ -41626,16 +41642,16 @@
       <c r="B163" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C163" s="288" t="s">
+      <c r="C163" s="259" t="s">
         <v>202</v>
       </c>
-      <c r="D163" s="288"/>
-      <c r="E163" s="288"/>
-      <c r="F163" s="288"/>
-      <c r="G163" s="288"/>
-      <c r="H163" s="288"/>
-      <c r="I163" s="288"/>
-      <c r="J163" s="288"/>
+      <c r="D163" s="259"/>
+      <c r="E163" s="259"/>
+      <c r="F163" s="259"/>
+      <c r="G163" s="259"/>
+      <c r="H163" s="259"/>
+      <c r="I163" s="259"/>
+      <c r="J163" s="259"/>
       <c r="K163" s="115"/>
       <c r="L163" s="115"/>
       <c r="M163" s="115"/>
@@ -41656,16 +41672,16 @@
       <c r="B164" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C164" s="288" t="s">
+      <c r="C164" s="259" t="s">
         <v>64</v>
       </c>
-      <c r="D164" s="288"/>
-      <c r="E164" s="288"/>
-      <c r="F164" s="288"/>
-      <c r="G164" s="288"/>
-      <c r="H164" s="288"/>
-      <c r="I164" s="288"/>
-      <c r="J164" s="288"/>
+      <c r="D164" s="259"/>
+      <c r="E164" s="259"/>
+      <c r="F164" s="259"/>
+      <c r="G164" s="259"/>
+      <c r="H164" s="259"/>
+      <c r="I164" s="259"/>
+      <c r="J164" s="259"/>
       <c r="K164" s="115"/>
       <c r="L164" s="115"/>
       <c r="M164" s="115"/>
@@ -41686,16 +41702,16 @@
       <c r="B165" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C165" s="337" t="s">
+      <c r="C165" s="400" t="s">
         <v>40</v>
       </c>
-      <c r="D165" s="337"/>
-      <c r="E165" s="337"/>
-      <c r="F165" s="337"/>
-      <c r="G165" s="337"/>
-      <c r="H165" s="337"/>
-      <c r="I165" s="337"/>
-      <c r="J165" s="337"/>
+      <c r="D165" s="400"/>
+      <c r="E165" s="400"/>
+      <c r="F165" s="400"/>
+      <c r="G165" s="400"/>
+      <c r="H165" s="400"/>
+      <c r="I165" s="400"/>
+      <c r="J165" s="400"/>
       <c r="K165" s="23"/>
       <c r="L165" s="23"/>
       <c r="M165" s="23"/>
@@ -41716,16 +41732,16 @@
       <c r="B166" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C166" s="288" t="s">
+      <c r="C166" s="259" t="s">
         <v>65</v>
       </c>
-      <c r="D166" s="288"/>
-      <c r="E166" s="288"/>
-      <c r="F166" s="288"/>
-      <c r="G166" s="288"/>
-      <c r="H166" s="288"/>
-      <c r="I166" s="288"/>
-      <c r="J166" s="288"/>
+      <c r="D166" s="259"/>
+      <c r="E166" s="259"/>
+      <c r="F166" s="259"/>
+      <c r="G166" s="259"/>
+      <c r="H166" s="259"/>
+      <c r="I166" s="259"/>
+      <c r="J166" s="259"/>
       <c r="K166" s="23"/>
       <c r="L166" s="23"/>
       <c r="M166" s="23"/>
@@ -41746,16 +41762,16 @@
       <c r="B167" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C167" s="288" t="s">
+      <c r="C167" s="259" t="s">
         <v>66</v>
       </c>
-      <c r="D167" s="288"/>
-      <c r="E167" s="288"/>
-      <c r="F167" s="288"/>
-      <c r="G167" s="288"/>
-      <c r="H167" s="288"/>
-      <c r="I167" s="288"/>
-      <c r="J167" s="288"/>
+      <c r="D167" s="259"/>
+      <c r="E167" s="259"/>
+      <c r="F167" s="259"/>
+      <c r="G167" s="259"/>
+      <c r="H167" s="259"/>
+      <c r="I167" s="259"/>
+      <c r="J167" s="259"/>
       <c r="K167" s="23"/>
       <c r="L167" s="23"/>
       <c r="M167" s="23"/>
@@ -41776,16 +41792,16 @@
       <c r="B168" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C168" s="280" t="s">
+      <c r="C168" s="271" t="s">
         <v>56</v>
       </c>
-      <c r="D168" s="280"/>
-      <c r="E168" s="280"/>
-      <c r="F168" s="280"/>
-      <c r="G168" s="280"/>
-      <c r="H168" s="280"/>
-      <c r="I168" s="280"/>
-      <c r="J168" s="280"/>
+      <c r="D168" s="271"/>
+      <c r="E168" s="271"/>
+      <c r="F168" s="271"/>
+      <c r="G168" s="271"/>
+      <c r="H168" s="271"/>
+      <c r="I168" s="271"/>
+      <c r="J168" s="271"/>
       <c r="K168" s="115"/>
       <c r="L168" s="115"/>
       <c r="M168" s="115"/>
@@ -41806,16 +41822,16 @@
       <c r="B169" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C169" s="337" t="s">
+      <c r="C169" s="400" t="s">
         <v>78</v>
       </c>
-      <c r="D169" s="337"/>
-      <c r="E169" s="337"/>
-      <c r="F169" s="337"/>
-      <c r="G169" s="337"/>
-      <c r="H169" s="337"/>
-      <c r="I169" s="337"/>
-      <c r="J169" s="337"/>
+      <c r="D169" s="400"/>
+      <c r="E169" s="400"/>
+      <c r="F169" s="400"/>
+      <c r="G169" s="400"/>
+      <c r="H169" s="400"/>
+      <c r="I169" s="400"/>
+      <c r="J169" s="400"/>
       <c r="K169" s="115"/>
       <c r="L169" s="115"/>
       <c r="M169" s="115"/>
@@ -41836,16 +41852,16 @@
       <c r="B170" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C170" s="288" t="s">
+      <c r="C170" s="259" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="288"/>
-      <c r="E170" s="288"/>
-      <c r="F170" s="288"/>
-      <c r="G170" s="288"/>
-      <c r="H170" s="288"/>
-      <c r="I170" s="288"/>
-      <c r="J170" s="288"/>
+      <c r="D170" s="259"/>
+      <c r="E170" s="259"/>
+      <c r="F170" s="259"/>
+      <c r="G170" s="259"/>
+      <c r="H170" s="259"/>
+      <c r="I170" s="259"/>
+      <c r="J170" s="259"/>
       <c r="K170" s="115"/>
       <c r="L170" s="115"/>
       <c r="M170" s="115"/>
@@ -41866,16 +41882,16 @@
       <c r="B171" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="288" t="s">
+      <c r="C171" s="259" t="s">
         <v>169</v>
       </c>
-      <c r="D171" s="288"/>
-      <c r="E171" s="288"/>
-      <c r="F171" s="288"/>
-      <c r="G171" s="288"/>
-      <c r="H171" s="288"/>
-      <c r="I171" s="288"/>
-      <c r="J171" s="288"/>
+      <c r="D171" s="259"/>
+      <c r="E171" s="259"/>
+      <c r="F171" s="259"/>
+      <c r="G171" s="259"/>
+      <c r="H171" s="259"/>
+      <c r="I171" s="259"/>
+      <c r="J171" s="259"/>
       <c r="K171" s="123"/>
       <c r="L171" s="123"/>
       <c r="M171" s="123"/>
@@ -43538,76 +43554,118 @@
     </row>
   </sheetData>
   <mergeCells count="210">
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B132:H132"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="L150:O150"/>
-    <mergeCell ref="L151:O151"/>
-    <mergeCell ref="B152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="L152:O153"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="O84:P86"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="B131:H131"/>
-    <mergeCell ref="B114:H115"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="K114:K115"/>
-    <mergeCell ref="L114:O115"/>
+    <mergeCell ref="X83:X86"/>
+    <mergeCell ref="Y83:Y86"/>
+    <mergeCell ref="J84:J86"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="L118:O118"/>
+    <mergeCell ref="B119:H120"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="J119:J120"/>
+    <mergeCell ref="K119:K120"/>
+    <mergeCell ref="L119:O120"/>
+    <mergeCell ref="B118:H118"/>
+    <mergeCell ref="B83:C86"/>
+    <mergeCell ref="F83:F86"/>
+    <mergeCell ref="G83:G86"/>
+    <mergeCell ref="H83:H86"/>
+    <mergeCell ref="I83:I86"/>
+    <mergeCell ref="K87:M95"/>
+    <mergeCell ref="H52:J54"/>
+    <mergeCell ref="B72:H72"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="B78:H78"/>
+    <mergeCell ref="K52:K54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="J96:J98"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="C171:J171"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="C166:J166"/>
+    <mergeCell ref="C167:J167"/>
+    <mergeCell ref="C168:J168"/>
+    <mergeCell ref="C169:J169"/>
+    <mergeCell ref="C170:J170"/>
+    <mergeCell ref="C163:J163"/>
+    <mergeCell ref="C164:J164"/>
+    <mergeCell ref="C165:J165"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="U96:U98"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="S83:V83"/>
+    <mergeCell ref="N83:R83"/>
+    <mergeCell ref="N84:N86"/>
+    <mergeCell ref="Q84:Q86"/>
+    <mergeCell ref="R84:R86"/>
+    <mergeCell ref="S84:S86"/>
+    <mergeCell ref="T84:T86"/>
+    <mergeCell ref="U84:U86"/>
+    <mergeCell ref="V84:V86"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="K84:M86"/>
+    <mergeCell ref="R87:R95"/>
+    <mergeCell ref="V87:V95"/>
+    <mergeCell ref="L112:O112"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="Q96:Q98"/>
+    <mergeCell ref="B37:C40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B52:C54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="B59:C61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="H62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B66:C68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:H68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="G69:H69"/>
     <mergeCell ref="B76:H76"/>
@@ -43632,122 +43690,80 @@
     <mergeCell ref="B106:C106"/>
     <mergeCell ref="B109:C109"/>
     <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B59:C61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="H62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B66:C68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:H68"/>
-    <mergeCell ref="V87:V95"/>
-    <mergeCell ref="L112:O112"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="Q96:Q98"/>
-    <mergeCell ref="B37:C40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B52:C54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="U96:U98"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="S83:V83"/>
-    <mergeCell ref="N83:R83"/>
-    <mergeCell ref="N84:N86"/>
-    <mergeCell ref="Q84:Q86"/>
-    <mergeCell ref="R84:R86"/>
-    <mergeCell ref="S84:S86"/>
-    <mergeCell ref="T84:T86"/>
-    <mergeCell ref="U84:U86"/>
-    <mergeCell ref="V84:V86"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="K84:M86"/>
-    <mergeCell ref="R87:R95"/>
-    <mergeCell ref="C171:J171"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="C166:J166"/>
-    <mergeCell ref="C167:J167"/>
-    <mergeCell ref="C168:J168"/>
-    <mergeCell ref="C169:J169"/>
-    <mergeCell ref="C170:J170"/>
-    <mergeCell ref="C163:J163"/>
-    <mergeCell ref="C164:J164"/>
-    <mergeCell ref="C165:J165"/>
-    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="B152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="L152:O153"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="O84:P86"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="B114:H115"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="L114:O115"/>
     <mergeCell ref="L130:O130"/>
     <mergeCell ref="L131:O131"/>
     <mergeCell ref="L132:O132"/>
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="J96:J98"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="X83:X86"/>
-    <mergeCell ref="Y83:Y86"/>
-    <mergeCell ref="J84:J86"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="L118:O118"/>
-    <mergeCell ref="B119:H120"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="J119:J120"/>
-    <mergeCell ref="K119:K120"/>
-    <mergeCell ref="L119:O120"/>
-    <mergeCell ref="B118:H118"/>
-    <mergeCell ref="B83:C86"/>
-    <mergeCell ref="F83:F86"/>
-    <mergeCell ref="G83:G86"/>
-    <mergeCell ref="H83:H86"/>
-    <mergeCell ref="I83:I86"/>
-    <mergeCell ref="K87:M95"/>
-    <mergeCell ref="H52:J54"/>
-    <mergeCell ref="B72:H72"/>
-    <mergeCell ref="B79:H79"/>
-    <mergeCell ref="B78:H78"/>
-    <mergeCell ref="K52:K54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="H55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B132:H132"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="L150:O150"/>
+    <mergeCell ref="L151:O151"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:J27">
     <cfRule type="expression" dxfId="4" priority="6">

--- a/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v3.xlsx
+++ b/Excel/Proyecto (0EAS0201-101_A1) - Grupo 01 v3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco V\Desktop\Proyecto\Aplicacion\GitHub\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco V\Desktop\Proyecto\Aplicacion\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sedimentador alta tasa" sheetId="1" r:id="rId1"/>
@@ -4262,8 +4262,35 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4271,34 +4298,49 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4313,71 +4355,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4385,37 +4385,34 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4426,6 +4423,264 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4481,272 +4736,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="28" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4754,8 +4748,14 @@
     <xf numFmtId="0" fontId="40" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -31630,7 +31630,7 @@
   <sheetData>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B2" s="43"/>
-      <c r="C2" s="277"/>
+      <c r="C2" s="279"/>
       <c r="D2" s="41" t="s">
         <v>119</v>
       </c>
@@ -31644,14 +31644,14 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B3" s="43"/>
-      <c r="C3" s="277"/>
+      <c r="C3" s="279"/>
       <c r="D3" s="41" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B4" s="43"/>
-      <c r="C4" s="277"/>
+      <c r="C4" s="279"/>
       <c r="D4" s="41" t="s">
         <v>121</v>
       </c>
@@ -31660,7 +31660,7 @@
     </row>
     <row r="5" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
-      <c r="C5" s="277"/>
+      <c r="C5" s="279"/>
       <c r="D5" s="41" t="s">
         <v>127</v>
       </c>
@@ -31681,27 +31681,27 @@
       </c>
     </row>
     <row r="7" spans="2:23" ht="18" x14ac:dyDescent="0.25">
-      <c r="B7" s="290" t="s">
+      <c r="B7" s="274" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="290"/>
-      <c r="D7" s="290"/>
-      <c r="E7" s="290"/>
-      <c r="F7" s="290"/>
-      <c r="G7" s="290"/>
+      <c r="C7" s="274"/>
+      <c r="D7" s="274"/>
+      <c r="E7" s="274"/>
+      <c r="F7" s="274"/>
+      <c r="G7" s="274"/>
       <c r="H7" s="40"/>
-      <c r="J7" s="289" t="s">
+      <c r="J7" s="272" t="s">
         <v>41</v>
       </c>
-      <c r="K7" s="289"/>
-      <c r="L7" s="289"/>
-      <c r="M7" s="289"/>
+      <c r="K7" s="272"/>
+      <c r="L7" s="272"/>
+      <c r="M7" s="272"/>
     </row>
     <row r="8" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="276" t="s">
+      <c r="B8" s="273" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="276"/>
+      <c r="C8" s="273"/>
       <c r="D8" s="9" t="s">
         <v>0</v>
       </c>
@@ -31743,10 +31743,10 @@
       </c>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="276" t="s">
+      <c r="B9" s="273" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="276"/>
+      <c r="C9" s="273"/>
       <c r="D9" s="9" t="s">
         <v>3</v>
       </c>
@@ -31776,10 +31776,10 @@
       </c>
     </row>
     <row r="10" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="276" t="s">
+      <c r="B10" s="273" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="276"/>
+      <c r="C10" s="273"/>
       <c r="D10" s="9" t="s">
         <v>92</v>
       </c>
@@ -31814,10 +31814,10 @@
       </c>
     </row>
     <row r="11" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="276" t="s">
+      <c r="B11" s="273" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="276"/>
+      <c r="C11" s="273"/>
       <c r="D11" s="9" t="s">
         <v>2</v>
       </c>
@@ -31847,10 +31847,10 @@
       </c>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B12" s="276" t="s">
+      <c r="B12" s="273" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="276"/>
+      <c r="C12" s="273"/>
       <c r="D12" s="9"/>
       <c r="E12" s="1"/>
       <c r="F12" s="3" t="s">
@@ -31876,11 +31876,11 @@
       </c>
     </row>
     <row r="13" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="276" t="str">
+      <c r="B13" s="273" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F12</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C13" s="276"/>
+      <c r="C13" s="273"/>
       <c r="D13" s="8" t="s">
         <v>108</v>
       </c>
@@ -31915,10 +31915,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="276" t="s">
+      <c r="B14" s="273" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="276"/>
+      <c r="C14" s="273"/>
       <c r="D14" s="9" t="s">
         <v>11</v>
       </c>
@@ -31953,10 +31953,10 @@
       </c>
     </row>
     <row r="15" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="276" t="s">
+      <c r="B15" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="276"/>
+      <c r="C15" s="273"/>
       <c r="D15" s="9" t="s">
         <v>105</v>
       </c>
@@ -31988,10 +31988,10 @@
       </c>
     </row>
     <row r="16" spans="2:23" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="276" t="s">
+      <c r="B16" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="276"/>
+      <c r="C16" s="273"/>
       <c r="D16" s="9" t="s">
         <v>105</v>
       </c>
@@ -32022,10 +32022,10 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="276" t="s">
+      <c r="B17" s="273" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="276"/>
+      <c r="C17" s="273"/>
       <c r="D17" s="9" t="s">
         <v>105</v>
       </c>
@@ -32058,10 +32058,10 @@
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="276" t="s">
+      <c r="B18" s="273" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="276"/>
+      <c r="C18" s="273"/>
       <c r="D18" s="9" t="s">
         <v>12</v>
       </c>
@@ -32091,10 +32091,10 @@
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="276" t="s">
+      <c r="B19" s="273" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="276"/>
+      <c r="C19" s="273"/>
       <c r="D19" s="193" t="s">
         <v>13</v>
       </c>
@@ -32124,10 +32124,10 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="276" t="s">
+      <c r="B20" s="273" t="s">
         <v>18</v>
       </c>
-      <c r="C20" s="276"/>
+      <c r="C20" s="273"/>
       <c r="D20" s="9" t="s">
         <v>14</v>
       </c>
@@ -32157,10 +32157,10 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="276" t="s">
+      <c r="B21" s="273" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="276"/>
+      <c r="C21" s="273"/>
       <c r="D21" s="7" t="s">
         <v>24</v>
       </c>
@@ -32242,10 +32242,10 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="276" t="s">
+      <c r="B24" s="273" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="276"/>
+      <c r="C24" s="273"/>
       <c r="D24" s="9" t="s">
         <v>46</v>
       </c>
@@ -32277,10 +32277,10 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="279" t="s">
+      <c r="B25" s="280" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="280"/>
+      <c r="C25" s="281"/>
       <c r="D25" s="28" t="s">
         <v>158</v>
       </c>
@@ -32312,10 +32312,10 @@
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="276" t="s">
+      <c r="B26" s="273" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="276"/>
+      <c r="C26" s="273"/>
       <c r="D26" s="9" t="s">
         <v>54</v>
       </c>
@@ -32347,10 +32347,10 @@
       </c>
     </row>
     <row r="27" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B27" s="279" t="s">
+      <c r="B27" s="280" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="280"/>
+      <c r="C27" s="281"/>
       <c r="D27" s="9" t="s">
         <v>63</v>
       </c>
@@ -32380,10 +32380,10 @@
       </c>
     </row>
     <row r="28" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="279" t="s">
+      <c r="B28" s="280" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="280"/>
+      <c r="C28" s="281"/>
       <c r="D28" s="9" t="s">
         <v>75</v>
       </c>
@@ -32448,10 +32448,10 @@
       </c>
     </row>
     <row r="30" spans="2:13" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B30" s="276" t="s">
+      <c r="B30" s="273" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="276"/>
+      <c r="C30" s="273"/>
       <c r="D30" s="9" t="s">
         <v>84</v>
       </c>
@@ -32483,8 +32483,8 @@
       </c>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="277"/>
-      <c r="C31" s="277"/>
+      <c r="B31" s="279"/>
+      <c r="C31" s="279"/>
       <c r="D31" s="11"/>
       <c r="E31" s="5"/>
       <c r="F31" s="6"/>
@@ -32494,14 +32494,14 @@
       <c r="M31" s="24"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="272" t="s">
+      <c r="B32" s="286" t="s">
         <v>152</v>
       </c>
-      <c r="C32" s="272"/>
-      <c r="D32" s="272"/>
-      <c r="E32" s="272"/>
-      <c r="F32" s="272"/>
-      <c r="G32" s="272"/>
+      <c r="C32" s="286"/>
+      <c r="D32" s="286"/>
+      <c r="E32" s="286"/>
+      <c r="F32" s="286"/>
+      <c r="G32" s="286"/>
       <c r="H32" s="66"/>
       <c r="J32" s="22"/>
       <c r="K32" s="23"/>
@@ -32509,10 +32509,10 @@
       <c r="M32" s="24"/>
     </row>
     <row r="33" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B33" s="281" t="s">
+      <c r="B33" s="283" t="s">
         <v>162</v>
       </c>
-      <c r="C33" s="281"/>
+      <c r="C33" s="283"/>
       <c r="D33" s="7" t="s">
         <v>157</v>
       </c>
@@ -32530,10 +32530,10 @@
       <c r="M33" s="24"/>
     </row>
     <row r="34" spans="2:17" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B34" s="282" t="s">
+      <c r="B34" s="284" t="s">
         <v>165</v>
       </c>
-      <c r="C34" s="283"/>
+      <c r="C34" s="285"/>
       <c r="D34" s="7" t="s">
         <v>166</v>
       </c>
@@ -32577,10 +32577,10 @@
       <c r="M36" s="24"/>
     </row>
     <row r="37" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="3.5">
-      <c r="B37" s="276" t="s">
+      <c r="B37" s="273" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="276"/>
+      <c r="C37" s="273"/>
       <c r="D37" s="38" t="s">
         <v>267</v>
       </c>
@@ -32591,22 +32591,22 @@
         <f>J9</f>
         <v>3.4760947255444699E-3</v>
       </c>
-      <c r="G37" s="264"/>
-      <c r="H37" s="266"/>
-      <c r="I37" s="286" t="s">
+      <c r="G37" s="267"/>
+      <c r="H37" s="268"/>
+      <c r="I37" s="276" t="s">
         <v>72</v>
       </c>
-      <c r="J37" s="287"/>
-      <c r="K37" s="287"/>
-      <c r="L37" s="287"/>
-      <c r="M37" s="287"/>
-      <c r="N37" s="288"/>
+      <c r="J37" s="277"/>
+      <c r="K37" s="277"/>
+      <c r="L37" s="277"/>
+      <c r="M37" s="277"/>
+      <c r="N37" s="278"/>
     </row>
     <row r="38" spans="2:17" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="278" t="s">
+      <c r="B38" s="275" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="278"/>
+      <c r="C38" s="275"/>
       <c r="D38" s="45" t="s">
         <v>135</v>
       </c>
@@ -32617,20 +32617,20 @@
         <f>ROUND(MIN(J16:J30),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G38" s="264"/>
-      <c r="H38" s="266"/>
-      <c r="I38" s="264"/>
-      <c r="J38" s="265"/>
-      <c r="K38" s="265"/>
-      <c r="L38" s="265"/>
-      <c r="M38" s="265"/>
-      <c r="N38" s="266"/>
+      <c r="G38" s="267"/>
+      <c r="H38" s="268"/>
+      <c r="I38" s="267"/>
+      <c r="J38" s="271"/>
+      <c r="K38" s="271"/>
+      <c r="L38" s="271"/>
+      <c r="M38" s="271"/>
+      <c r="N38" s="268"/>
     </row>
     <row r="39" spans="2:17" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="278" t="s">
+      <c r="B39" s="275" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="278"/>
+      <c r="C39" s="275"/>
       <c r="D39" s="45" t="s">
         <v>135</v>
       </c>
@@ -32641,20 +32641,20 @@
         <f>ROUND((F16/F13*(SIN(F21*PI()/180)+(F18/F14)*COS(F21*PI()/180)))/(1+0.058*(F16/F13)*(F14/F11)*COS(F21*PI()/180)),5)</f>
         <v>2.5100000000000001E-3</v>
       </c>
-      <c r="G39" s="264"/>
-      <c r="H39" s="266"/>
-      <c r="I39" s="264"/>
-      <c r="J39" s="265"/>
-      <c r="K39" s="265"/>
-      <c r="L39" s="265"/>
-      <c r="M39" s="265"/>
-      <c r="N39" s="266"/>
+      <c r="G39" s="267"/>
+      <c r="H39" s="268"/>
+      <c r="I39" s="267"/>
+      <c r="J39" s="271"/>
+      <c r="K39" s="271"/>
+      <c r="L39" s="271"/>
+      <c r="M39" s="271"/>
+      <c r="N39" s="268"/>
     </row>
     <row r="40" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="278" t="s">
+      <c r="B40" s="275" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="278"/>
+      <c r="C40" s="275"/>
       <c r="D40" s="45" t="s">
         <v>268</v>
       </c>
@@ -32665,20 +32665,20 @@
         <f>(F18/F39)/60</f>
         <v>8.095617529880478</v>
       </c>
-      <c r="G40" s="264"/>
-      <c r="H40" s="266"/>
-      <c r="I40" s="264"/>
-      <c r="J40" s="265"/>
-      <c r="K40" s="265"/>
-      <c r="L40" s="265"/>
-      <c r="M40" s="265"/>
-      <c r="N40" s="266"/>
+      <c r="G40" s="267"/>
+      <c r="H40" s="268"/>
+      <c r="I40" s="267"/>
+      <c r="J40" s="271"/>
+      <c r="K40" s="271"/>
+      <c r="L40" s="271"/>
+      <c r="M40" s="271"/>
+      <c r="N40" s="268"/>
     </row>
     <row r="41" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="278" t="s">
+      <c r="B41" s="275" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="278"/>
+      <c r="C41" s="275"/>
       <c r="D41" s="45" t="s">
         <v>27</v>
       </c>
@@ -32689,20 +32689,20 @@
         <f>ROUND(F10/(F20*F14*F39),0)</f>
         <v>94</v>
       </c>
-      <c r="G41" s="264"/>
-      <c r="H41" s="266"/>
-      <c r="I41" s="264"/>
-      <c r="J41" s="265"/>
-      <c r="K41" s="265"/>
-      <c r="L41" s="265"/>
-      <c r="M41" s="265"/>
-      <c r="N41" s="266"/>
+      <c r="G41" s="267"/>
+      <c r="H41" s="268"/>
+      <c r="I41" s="267"/>
+      <c r="J41" s="271"/>
+      <c r="K41" s="271"/>
+      <c r="L41" s="271"/>
+      <c r="M41" s="271"/>
+      <c r="N41" s="268"/>
     </row>
     <row r="42" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="278" t="s">
+      <c r="B42" s="275" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="278"/>
+      <c r="C42" s="275"/>
       <c r="D42" s="45" t="s">
         <v>269</v>
       </c>
@@ -32713,23 +32713,23 @@
         <f>((F41*F14+(F41-1)*F19)/SIN(F21*PI()/180))</f>
         <v>5.8566411306595638</v>
       </c>
-      <c r="G42" s="264"/>
-      <c r="H42" s="266"/>
-      <c r="I42" s="273" t="s">
+      <c r="G42" s="267"/>
+      <c r="H42" s="268"/>
+      <c r="I42" s="287" t="s">
         <v>129</v>
       </c>
-      <c r="J42" s="274"/>
-      <c r="K42" s="274"/>
-      <c r="L42" s="274"/>
-      <c r="M42" s="274"/>
-      <c r="N42" s="275"/>
+      <c r="J42" s="288"/>
+      <c r="K42" s="288"/>
+      <c r="L42" s="288"/>
+      <c r="M42" s="288"/>
+      <c r="N42" s="289"/>
       <c r="O42" s="74"/>
     </row>
     <row r="43" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="278" t="s">
+      <c r="B43" s="275" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="278"/>
+      <c r="C43" s="275"/>
       <c r="D43" s="45" t="s">
         <v>270</v>
       </c>
@@ -32740,20 +32740,20 @@
         <f>F18*SIN(F21*PI()/180)</f>
         <v>1.0558581722939875</v>
       </c>
-      <c r="G43" s="264"/>
-      <c r="H43" s="266"/>
-      <c r="I43" s="264"/>
-      <c r="J43" s="265"/>
-      <c r="K43" s="265"/>
-      <c r="L43" s="265"/>
-      <c r="M43" s="265"/>
-      <c r="N43" s="266"/>
+      <c r="G43" s="267"/>
+      <c r="H43" s="268"/>
+      <c r="I43" s="267"/>
+      <c r="J43" s="271"/>
+      <c r="K43" s="271"/>
+      <c r="L43" s="271"/>
+      <c r="M43" s="271"/>
+      <c r="N43" s="268"/>
     </row>
     <row r="44" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="260" t="s">
+      <c r="B44" s="269" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="261"/>
+      <c r="C44" s="270"/>
       <c r="D44" s="56" t="s">
         <v>271</v>
       </c>
@@ -32764,20 +32764,20 @@
         <f>1.5*F24</f>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G44" s="264"/>
-      <c r="H44" s="266"/>
-      <c r="I44" s="264"/>
-      <c r="J44" s="265"/>
-      <c r="K44" s="265"/>
-      <c r="L44" s="265"/>
-      <c r="M44" s="265"/>
-      <c r="N44" s="266"/>
+      <c r="G44" s="267"/>
+      <c r="H44" s="268"/>
+      <c r="I44" s="267"/>
+      <c r="J44" s="271"/>
+      <c r="K44" s="271"/>
+      <c r="L44" s="271"/>
+      <c r="M44" s="271"/>
+      <c r="N44" s="268"/>
     </row>
     <row r="45" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="260" t="s">
+      <c r="B45" s="269" t="s">
         <v>177</v>
       </c>
-      <c r="C45" s="261"/>
+      <c r="C45" s="270"/>
       <c r="D45" s="56" t="s">
         <v>272</v>
       </c>
@@ -32798,10 +32798,10 @@
       <c r="N45" s="93"/>
     </row>
     <row r="46" spans="2:17" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="260" t="s">
+      <c r="B46" s="269" t="s">
         <v>179</v>
       </c>
-      <c r="C46" s="261"/>
+      <c r="C46" s="270"/>
       <c r="D46" s="56" t="s">
         <v>271</v>
       </c>
@@ -32822,10 +32822,10 @@
       <c r="N46" s="93"/>
     </row>
     <row r="47" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="278" t="s">
+      <c r="B47" s="275" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="278"/>
+      <c r="C47" s="275"/>
       <c r="D47" s="56" t="s">
         <v>273</v>
       </c>
@@ -32836,24 +32836,24 @@
         <f>F25+F43+F24</f>
         <v>2.2558581722939874</v>
       </c>
-      <c r="G47" s="264"/>
-      <c r="H47" s="266"/>
-      <c r="I47" s="264"/>
-      <c r="J47" s="265"/>
-      <c r="K47" s="265"/>
-      <c r="L47" s="265"/>
-      <c r="M47" s="265"/>
-      <c r="N47" s="266"/>
+      <c r="G47" s="267"/>
+      <c r="H47" s="268"/>
+      <c r="I47" s="267"/>
+      <c r="J47" s="271"/>
+      <c r="K47" s="271"/>
+      <c r="L47" s="271"/>
+      <c r="M47" s="271"/>
+      <c r="N47" s="268"/>
       <c r="Q47" s="12">
         <f>6*0.0254</f>
         <v>0.15239999999999998</v>
       </c>
     </row>
     <row r="48" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="260" t="s">
+      <c r="B48" s="269" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="261"/>
+      <c r="C48" s="270"/>
       <c r="D48" s="56" t="s">
         <v>274</v>
       </c>
@@ -32864,26 +32864,26 @@
         <f>F47*F42*F20-(F41-1)*F18*F20*F19</f>
         <v>15.554808847800167</v>
       </c>
-      <c r="G48" s="264"/>
-      <c r="H48" s="266"/>
-      <c r="I48" s="273" t="s">
+      <c r="G48" s="267"/>
+      <c r="H48" s="268"/>
+      <c r="I48" s="287" t="s">
         <v>130</v>
       </c>
-      <c r="J48" s="274"/>
-      <c r="K48" s="274"/>
-      <c r="L48" s="274"/>
-      <c r="M48" s="274"/>
-      <c r="N48" s="275"/>
+      <c r="J48" s="288"/>
+      <c r="K48" s="288"/>
+      <c r="L48" s="288"/>
+      <c r="M48" s="288"/>
+      <c r="N48" s="289"/>
       <c r="Q48" s="75">
         <f>Q47/2</f>
         <v>7.619999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="278" t="s">
+      <c r="B49" s="275" t="s">
         <v>68</v>
       </c>
-      <c r="C49" s="278"/>
+      <c r="C49" s="275"/>
       <c r="D49" s="56" t="s">
         <v>275</v>
       </c>
@@ -32894,24 +32894,24 @@
         <f>(F48/F10)/60</f>
         <v>18.110151179182871</v>
       </c>
-      <c r="G49" s="264"/>
-      <c r="H49" s="266"/>
-      <c r="I49" s="264"/>
-      <c r="J49" s="265"/>
-      <c r="K49" s="265"/>
-      <c r="L49" s="265"/>
-      <c r="M49" s="265"/>
-      <c r="N49" s="266"/>
+      <c r="G49" s="267"/>
+      <c r="H49" s="268"/>
+      <c r="I49" s="267"/>
+      <c r="J49" s="271"/>
+      <c r="K49" s="271"/>
+      <c r="L49" s="271"/>
+      <c r="M49" s="271"/>
+      <c r="N49" s="268"/>
       <c r="Q49" s="12">
         <f>Q48/3</f>
         <v>2.5399999999999995E-2</v>
       </c>
     </row>
     <row r="50" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="260" t="s">
+      <c r="B50" s="269" t="s">
         <v>90</v>
       </c>
-      <c r="C50" s="261"/>
+      <c r="C50" s="270"/>
       <c r="D50" s="56" t="s">
         <v>91</v>
       </c>
@@ -32922,14 +32922,14 @@
         <f>F10*86400/(F42*F20)</f>
         <v>173.21341640466753</v>
       </c>
-      <c r="G50" s="264"/>
-      <c r="H50" s="266"/>
-      <c r="I50" s="264"/>
-      <c r="J50" s="265"/>
-      <c r="K50" s="265"/>
-      <c r="L50" s="265"/>
-      <c r="M50" s="265"/>
-      <c r="N50" s="266"/>
+      <c r="G50" s="267"/>
+      <c r="H50" s="268"/>
+      <c r="I50" s="267"/>
+      <c r="J50" s="271"/>
+      <c r="K50" s="271"/>
+      <c r="L50" s="271"/>
+      <c r="M50" s="271"/>
+      <c r="N50" s="268"/>
       <c r="Q50" s="12">
         <f>Q49/2</f>
         <v>1.2699999999999998E-2</v>
@@ -32940,10 +32940,10 @@
       </c>
     </row>
     <row r="51" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="278" t="s">
+      <c r="B51" s="275" t="s">
         <v>149</v>
       </c>
-      <c r="C51" s="278"/>
+      <c r="C51" s="275"/>
       <c r="D51" s="56" t="s">
         <v>73</v>
       </c>
@@ -32952,20 +32952,20 @@
         <f>"1: "&amp;ROUND(F42/F20,1)</f>
         <v>1: 4,8</v>
       </c>
-      <c r="G51" s="264"/>
-      <c r="H51" s="266"/>
-      <c r="I51" s="264"/>
-      <c r="J51" s="265"/>
-      <c r="K51" s="265"/>
-      <c r="L51" s="265"/>
-      <c r="M51" s="265"/>
-      <c r="N51" s="266"/>
+      <c r="G51" s="267"/>
+      <c r="H51" s="268"/>
+      <c r="I51" s="267"/>
+      <c r="J51" s="271"/>
+      <c r="K51" s="271"/>
+      <c r="L51" s="271"/>
+      <c r="M51" s="271"/>
+      <c r="N51" s="268"/>
     </row>
     <row r="52" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="260" t="s">
+      <c r="B52" s="269" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="261"/>
+      <c r="C52" s="270"/>
       <c r="D52" s="56" t="s">
         <v>276</v>
       </c>
@@ -32976,20 +32976,20 @@
         <f>((F20-F30)/2)*TAN(F29*PI()/180)</f>
         <v>0.79919162457288717</v>
       </c>
-      <c r="G52" s="264"/>
-      <c r="H52" s="266"/>
-      <c r="I52" s="264"/>
-      <c r="J52" s="265"/>
-      <c r="K52" s="265"/>
-      <c r="L52" s="265"/>
-      <c r="M52" s="265"/>
-      <c r="N52" s="266"/>
+      <c r="G52" s="267"/>
+      <c r="H52" s="268"/>
+      <c r="I52" s="267"/>
+      <c r="J52" s="271"/>
+      <c r="K52" s="271"/>
+      <c r="L52" s="271"/>
+      <c r="M52" s="271"/>
+      <c r="N52" s="268"/>
     </row>
     <row r="53" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="260" t="s">
+      <c r="B53" s="269" t="s">
         <v>87</v>
       </c>
-      <c r="C53" s="261"/>
+      <c r="C53" s="270"/>
       <c r="D53" s="56" t="s">
         <v>277</v>
       </c>
@@ -33000,20 +33000,20 @@
         <f>2*F28+F42</f>
         <v>6.4566411306595635</v>
       </c>
-      <c r="G53" s="264"/>
-      <c r="H53" s="266"/>
-      <c r="I53" s="264"/>
-      <c r="J53" s="265"/>
-      <c r="K53" s="265"/>
-      <c r="L53" s="265"/>
-      <c r="M53" s="265"/>
-      <c r="N53" s="266"/>
+      <c r="G53" s="267"/>
+      <c r="H53" s="268"/>
+      <c r="I53" s="267"/>
+      <c r="J53" s="271"/>
+      <c r="K53" s="271"/>
+      <c r="L53" s="271"/>
+      <c r="M53" s="271"/>
+      <c r="N53" s="268"/>
     </row>
     <row r="54" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="260" t="s">
+      <c r="B54" s="269" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="261"/>
+      <c r="C54" s="270"/>
       <c r="D54" s="56" t="s">
         <v>278</v>
       </c>
@@ -33024,20 +33024,20 @@
         <f>(2*F28+F20)*F9+(F9-1)*F27</f>
         <v>7.8767999999999994</v>
       </c>
-      <c r="G54" s="264"/>
-      <c r="H54" s="266"/>
-      <c r="I54" s="264"/>
-      <c r="J54" s="265"/>
-      <c r="K54" s="265"/>
-      <c r="L54" s="265"/>
-      <c r="M54" s="265"/>
-      <c r="N54" s="266"/>
+      <c r="G54" s="267"/>
+      <c r="H54" s="268"/>
+      <c r="I54" s="267"/>
+      <c r="J54" s="271"/>
+      <c r="K54" s="271"/>
+      <c r="L54" s="271"/>
+      <c r="M54" s="271"/>
+      <c r="N54" s="268"/>
     </row>
     <row r="55" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="278" t="s">
+      <c r="B55" s="275" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="278"/>
+      <c r="C55" s="275"/>
       <c r="D55" s="56" t="s">
         <v>279</v>
       </c>
@@ -33048,14 +33048,14 @@
         <f>F28+F52+F25+F43+F24+F26</f>
         <v>3.6550497968668743</v>
       </c>
-      <c r="G55" s="264"/>
-      <c r="H55" s="266"/>
-      <c r="I55" s="264"/>
-      <c r="J55" s="265"/>
-      <c r="K55" s="265"/>
-      <c r="L55" s="265"/>
-      <c r="M55" s="265"/>
-      <c r="N55" s="266"/>
+      <c r="G55" s="267"/>
+      <c r="H55" s="268"/>
+      <c r="I55" s="267"/>
+      <c r="J55" s="271"/>
+      <c r="K55" s="271"/>
+      <c r="L55" s="271"/>
+      <c r="M55" s="271"/>
+      <c r="N55" s="268"/>
     </row>
     <row r="56" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="80"/>
@@ -33090,10 +33090,10 @@
       <c r="N57" s="83"/>
     </row>
     <row r="58" spans="2:19" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="260" t="s">
+      <c r="B58" s="269" t="s">
         <v>156</v>
       </c>
-      <c r="C58" s="261"/>
+      <c r="C58" s="270"/>
       <c r="D58" s="56" t="s">
         <v>280</v>
       </c>
@@ -33104,20 +33104,20 @@
         <f>F42+F28</f>
         <v>6.1566411306595636</v>
       </c>
-      <c r="G58" s="264"/>
-      <c r="H58" s="266"/>
-      <c r="I58" s="264"/>
-      <c r="J58" s="265"/>
-      <c r="K58" s="265"/>
-      <c r="L58" s="265"/>
-      <c r="M58" s="265"/>
-      <c r="N58" s="266"/>
+      <c r="G58" s="267"/>
+      <c r="H58" s="268"/>
+      <c r="I58" s="267"/>
+      <c r="J58" s="271"/>
+      <c r="K58" s="271"/>
+      <c r="L58" s="271"/>
+      <c r="M58" s="271"/>
+      <c r="N58" s="268"/>
     </row>
     <row r="59" spans="2:19" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="260" t="s">
+      <c r="B59" s="269" t="s">
         <v>155</v>
       </c>
-      <c r="C59" s="261"/>
+      <c r="C59" s="270"/>
       <c r="D59" s="56" t="s">
         <v>281</v>
       </c>
@@ -33127,20 +33127,20 @@
       <c r="F59" s="95">
         <v>8</v>
       </c>
-      <c r="G59" s="264"/>
-      <c r="H59" s="266"/>
-      <c r="I59" s="264"/>
-      <c r="J59" s="265"/>
-      <c r="K59" s="265"/>
-      <c r="L59" s="265"/>
-      <c r="M59" s="265"/>
-      <c r="N59" s="266"/>
+      <c r="G59" s="267"/>
+      <c r="H59" s="268"/>
+      <c r="I59" s="267"/>
+      <c r="J59" s="271"/>
+      <c r="K59" s="271"/>
+      <c r="L59" s="271"/>
+      <c r="M59" s="271"/>
+      <c r="N59" s="268"/>
     </row>
     <row r="60" spans="2:19" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="260" t="s">
+      <c r="B60" s="269" t="s">
         <v>178</v>
       </c>
-      <c r="C60" s="261"/>
+      <c r="C60" s="270"/>
       <c r="D60" s="56" t="s">
         <v>282</v>
       </c>
@@ -33151,8 +33151,8 @@
         <f>IF(F59=4,0.10342,IF(F59=6,0.15222,IF(F59=8,0.20942)))</f>
         <v>0.20942</v>
       </c>
-      <c r="G60" s="264"/>
-      <c r="H60" s="266"/>
+      <c r="G60" s="267"/>
+      <c r="H60" s="268"/>
       <c r="I60" s="67"/>
       <c r="J60" s="68"/>
       <c r="K60" s="68"/>
@@ -33161,10 +33161,10 @@
       <c r="N60" s="69"/>
     </row>
     <row r="61" spans="2:19" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="267" t="s">
+      <c r="B61" s="264" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="267"/>
+      <c r="C61" s="264"/>
       <c r="D61" s="192" t="s">
         <v>283</v>
       </c>
@@ -33175,20 +33175,20 @@
         <f>F60*SQRT(0.4/F33)</f>
         <v>4.1884000000000005E-2</v>
       </c>
-      <c r="G61" s="264"/>
-      <c r="H61" s="266"/>
-      <c r="I61" s="268"/>
-      <c r="J61" s="269"/>
-      <c r="K61" s="269"/>
-      <c r="L61" s="269"/>
-      <c r="M61" s="269"/>
-      <c r="N61" s="270"/>
+      <c r="G61" s="267"/>
+      <c r="H61" s="268"/>
+      <c r="I61" s="293"/>
+      <c r="J61" s="294"/>
+      <c r="K61" s="294"/>
+      <c r="L61" s="294"/>
+      <c r="M61" s="294"/>
+      <c r="N61" s="295"/>
     </row>
     <row r="62" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="267" t="s">
+      <c r="B62" s="264" t="s">
         <v>163</v>
       </c>
-      <c r="C62" s="267"/>
+      <c r="C62" s="264"/>
       <c r="D62" s="192" t="s">
         <v>284</v>
       </c>
@@ -33199,8 +33199,8 @@
         <f>IF(AND(F61&gt;0.02363,F61&lt;0.0302),1,IF(AND(F61&gt;0.0302,F61&lt;0.03814),1.25,IF(AND(F61&gt;0.03814,F61&lt;0.04368),1.5,IF(AND(F61&gt;0.04368,F61&lt;0.05458),2,IF(AND(F61&gt;0.05458,F61&lt;0.06607),2.5,IF(AND(F61&gt;0.06607,F61&lt;0.08042),3,IF(AND(F61&gt;0.08042,F61&lt;0.10342),4)))))))</f>
         <v>1.5</v>
       </c>
-      <c r="G62" s="262"/>
-      <c r="H62" s="263"/>
+      <c r="G62" s="291"/>
+      <c r="H62" s="292"/>
       <c r="I62" s="76"/>
       <c r="J62" s="77"/>
       <c r="K62" s="77"/>
@@ -33209,10 +33209,10 @@
       <c r="N62" s="78"/>
     </row>
     <row r="63" spans="2:19" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="267" t="s">
+      <c r="B63" s="264" t="s">
         <v>172</v>
       </c>
-      <c r="C63" s="267"/>
+      <c r="C63" s="264"/>
       <c r="D63" s="192" t="s">
         <v>283</v>
       </c>
@@ -33223,8 +33223,8 @@
         <f>IF(F62=1,0.0302,IF(F62=1.25,0.03814,IF(F62=1.5,0.04368,IF(F62=2,0.05458,IF(F62=2.5,0.06607,IF(F62=3,0.08042,IF(F62=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G63" s="264"/>
-      <c r="H63" s="266"/>
+      <c r="G63" s="267"/>
+      <c r="H63" s="268"/>
       <c r="I63" s="98"/>
       <c r="J63" s="77"/>
       <c r="K63" s="77"/>
@@ -33233,30 +33233,30 @@
       <c r="N63" s="78"/>
     </row>
     <row r="64" spans="2:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="284" t="s">
+      <c r="B64" s="265" t="s">
         <v>173</v>
       </c>
-      <c r="C64" s="285"/>
+      <c r="C64" s="266"/>
       <c r="D64" s="56"/>
       <c r="E64" s="46"/>
       <c r="F64" s="89">
         <f>(F63/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G64" s="264"/>
-      <c r="H64" s="266"/>
-      <c r="I64" s="264"/>
-      <c r="J64" s="265"/>
-      <c r="K64" s="265"/>
-      <c r="L64" s="265"/>
-      <c r="M64" s="265"/>
-      <c r="N64" s="266"/>
+      <c r="G64" s="267"/>
+      <c r="H64" s="268"/>
+      <c r="I64" s="267"/>
+      <c r="J64" s="271"/>
+      <c r="K64" s="271"/>
+      <c r="L64" s="271"/>
+      <c r="M64" s="271"/>
+      <c r="N64" s="268"/>
     </row>
     <row r="65" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="267" t="s">
+      <c r="B65" s="264" t="s">
         <v>174</v>
       </c>
-      <c r="C65" s="267"/>
+      <c r="C65" s="264"/>
       <c r="D65" s="192" t="s">
         <v>284</v>
       </c>
@@ -33277,10 +33277,10 @@
       <c r="N65" s="93"/>
     </row>
     <row r="66" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="267" t="s">
+      <c r="B66" s="264" t="s">
         <v>175</v>
       </c>
-      <c r="C66" s="267"/>
+      <c r="C66" s="264"/>
       <c r="D66" s="192" t="s">
         <v>283</v>
       </c>
@@ -33289,8 +33289,8 @@
         <f>IF(F65=1,0.0302,IF(F65=1.25,0.03814,IF(F65=1.5,0.04368,IF(F65=2,0.05458,IF(F65=2.5,0.06607,IF(F65=3,0.08042,IF(F65=4,0.10342,4)))))))</f>
         <v>4.3679999999999997E-2</v>
       </c>
-      <c r="G66" s="264"/>
-      <c r="H66" s="266"/>
+      <c r="G66" s="267"/>
+      <c r="H66" s="268"/>
       <c r="I66" s="92"/>
       <c r="J66" s="94"/>
       <c r="K66" s="94"/>
@@ -33299,18 +33299,18 @@
       <c r="N66" s="93"/>
     </row>
     <row r="67" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="284" t="s">
+      <c r="B67" s="265" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="285"/>
+      <c r="C67" s="266"/>
       <c r="D67" s="56"/>
       <c r="E67" s="46"/>
       <c r="F67" s="89">
         <f>(F66/F60)^2*F33</f>
         <v>0.4350397582251469</v>
       </c>
-      <c r="G67" s="264"/>
-      <c r="H67" s="266"/>
+      <c r="G67" s="267"/>
+      <c r="H67" s="268"/>
       <c r="I67" s="92"/>
       <c r="J67" s="101"/>
       <c r="K67" s="94"/>
@@ -33319,10 +33319,10 @@
       <c r="N67" s="93"/>
     </row>
     <row r="68" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="260" t="s">
+      <c r="B68" s="269" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="261"/>
+      <c r="C68" s="270"/>
       <c r="D68" s="56" t="s">
         <v>285</v>
       </c>
@@ -33333,8 +33333,8 @@
         <f>F52+F25+F43+F24</f>
         <v>3.0550497968668746</v>
       </c>
-      <c r="G68" s="264"/>
-      <c r="H68" s="266"/>
+      <c r="G68" s="267"/>
+      <c r="H68" s="268"/>
       <c r="I68" s="76"/>
       <c r="J68" s="77"/>
       <c r="K68" s="77"/>
@@ -33343,10 +33343,10 @@
       <c r="N68" s="78"/>
     </row>
     <row r="69" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="260" t="s">
+      <c r="B69" s="269" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="261"/>
+      <c r="C69" s="270"/>
       <c r="D69" s="56" t="s">
         <v>286</v>
       </c>
@@ -33355,8 +33355,8 @@
         <f>F58/F33</f>
         <v>0.61566411306595636</v>
       </c>
-      <c r="G69" s="262"/>
-      <c r="H69" s="263"/>
+      <c r="G69" s="291"/>
+      <c r="H69" s="292"/>
       <c r="I69" s="76"/>
       <c r="J69" s="77"/>
       <c r="K69" s="77"/>
@@ -33365,10 +33365,10 @@
       <c r="N69" s="78"/>
     </row>
     <row r="70" spans="2:14" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="284" t="s">
+      <c r="B70" s="265" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="285"/>
+      <c r="C70" s="266"/>
       <c r="D70" s="56" t="s">
         <v>287</v>
       </c>
@@ -33389,10 +33389,10 @@
       <c r="N70" s="78"/>
     </row>
     <row r="71" spans="2:14" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="284" t="s">
+      <c r="B71" s="265" t="s">
         <v>176</v>
       </c>
-      <c r="C71" s="285"/>
+      <c r="C71" s="266"/>
       <c r="D71" s="56" t="s">
         <v>287</v>
       </c>
@@ -33401,30 +33401,30 @@
         <f>F42/F33</f>
         <v>0.58566411306595634</v>
       </c>
-      <c r="G71" s="264"/>
-      <c r="H71" s="266"/>
-      <c r="I71" s="291" t="s">
+      <c r="G71" s="267"/>
+      <c r="H71" s="268"/>
+      <c r="I71" s="260" t="s">
         <v>171</v>
       </c>
-      <c r="J71" s="292"/>
-      <c r="K71" s="292"/>
-      <c r="L71" s="292"/>
-      <c r="M71" s="292"/>
-      <c r="N71" s="293"/>
+      <c r="J71" s="261"/>
+      <c r="K71" s="261"/>
+      <c r="L71" s="261"/>
+      <c r="M71" s="261"/>
+      <c r="N71" s="262"/>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="277"/>
-      <c r="C72" s="277"/>
+      <c r="B72" s="279"/>
+      <c r="C72" s="279"/>
       <c r="J72" s="22"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="24"/>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="272" t="s">
+      <c r="B73" s="286" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="272"/>
+      <c r="C73" s="286"/>
       <c r="J73" s="22"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
@@ -33440,13 +33440,13 @@
       <c r="B75" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C75" s="259" t="s">
+      <c r="C75" s="290" t="s">
         <v>51</v>
       </c>
-      <c r="D75" s="259"/>
-      <c r="E75" s="259"/>
-      <c r="F75" s="259"/>
-      <c r="G75" s="259"/>
+      <c r="D75" s="290"/>
+      <c r="E75" s="290"/>
+      <c r="F75" s="290"/>
+      <c r="G75" s="290"/>
       <c r="H75" s="65"/>
       <c r="I75" s="96"/>
       <c r="J75" s="22"/>
@@ -33458,13 +33458,13 @@
       <c r="B76" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="259" t="s">
+      <c r="C76" s="290" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="259"/>
-      <c r="E76" s="259"/>
-      <c r="F76" s="259"/>
-      <c r="G76" s="259"/>
+      <c r="D76" s="290"/>
+      <c r="E76" s="290"/>
+      <c r="F76" s="290"/>
+      <c r="G76" s="290"/>
       <c r="H76" s="65"/>
       <c r="J76" s="97"/>
       <c r="K76" s="23"/>
@@ -33475,13 +33475,13 @@
       <c r="B77" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="271" t="s">
+      <c r="C77" s="282" t="s">
         <v>40</v>
       </c>
-      <c r="D77" s="271"/>
-      <c r="E77" s="271"/>
-      <c r="F77" s="271"/>
-      <c r="G77" s="271"/>
+      <c r="D77" s="282"/>
+      <c r="E77" s="282"/>
+      <c r="F77" s="282"/>
+      <c r="G77" s="282"/>
       <c r="H77" s="64"/>
       <c r="J77" s="22"/>
       <c r="K77" s="23"/>
@@ -33492,13 +33492,13 @@
       <c r="B78" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C78" s="259" t="s">
+      <c r="C78" s="290" t="s">
         <v>65</v>
       </c>
-      <c r="D78" s="259"/>
-      <c r="E78" s="259"/>
-      <c r="F78" s="259"/>
-      <c r="G78" s="259"/>
+      <c r="D78" s="290"/>
+      <c r="E78" s="290"/>
+      <c r="F78" s="290"/>
+      <c r="G78" s="290"/>
       <c r="H78" s="65"/>
       <c r="J78" s="22"/>
       <c r="K78" s="23"/>
@@ -33509,16 +33509,16 @@
       <c r="B79" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C79" s="259" t="s">
+      <c r="C79" s="290" t="s">
         <v>66</v>
       </c>
-      <c r="D79" s="259"/>
-      <c r="E79" s="259"/>
-      <c r="F79" s="259"/>
-      <c r="G79" s="259"/>
+      <c r="D79" s="290"/>
+      <c r="E79" s="290"/>
+      <c r="F79" s="290"/>
+      <c r="G79" s="290"/>
       <c r="H79" s="65"/>
-      <c r="J79" s="294"/>
-      <c r="K79" s="294"/>
+      <c r="J79" s="263"/>
+      <c r="K79" s="263"/>
       <c r="L79" s="23"/>
       <c r="M79" s="24"/>
     </row>
@@ -33526,13 +33526,13 @@
       <c r="B80" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C80" s="271" t="s">
+      <c r="C80" s="282" t="s">
         <v>56</v>
       </c>
-      <c r="D80" s="271"/>
-      <c r="E80" s="271"/>
-      <c r="F80" s="271"/>
-      <c r="G80" s="271"/>
+      <c r="D80" s="282"/>
+      <c r="E80" s="282"/>
+      <c r="F80" s="282"/>
+      <c r="G80" s="282"/>
       <c r="H80" s="64"/>
       <c r="J80" s="22"/>
       <c r="K80" s="23"/>
@@ -33543,13 +33543,13 @@
       <c r="B81" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="271" t="s">
+      <c r="C81" s="282" t="s">
         <v>78</v>
       </c>
-      <c r="D81" s="271"/>
-      <c r="E81" s="271"/>
-      <c r="F81" s="271"/>
-      <c r="G81" s="271"/>
+      <c r="D81" s="282"/>
+      <c r="E81" s="282"/>
+      <c r="F81" s="282"/>
+      <c r="G81" s="282"/>
       <c r="H81" s="64"/>
       <c r="J81" s="22"/>
       <c r="K81" s="23"/>
@@ -33560,13 +33560,13 @@
       <c r="B82" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C82" s="259" t="s">
+      <c r="C82" s="290" t="s">
         <v>83</v>
       </c>
-      <c r="D82" s="259"/>
-      <c r="E82" s="259"/>
-      <c r="F82" s="259"/>
-      <c r="G82" s="259"/>
+      <c r="D82" s="290"/>
+      <c r="E82" s="290"/>
+      <c r="F82" s="290"/>
+      <c r="G82" s="290"/>
       <c r="H82" s="65"/>
       <c r="J82" s="22"/>
       <c r="K82" s="23"/>
@@ -33577,13 +33577,13 @@
       <c r="B83" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="259" t="s">
+      <c r="C83" s="290" t="s">
         <v>169</v>
       </c>
-      <c r="D83" s="259"/>
-      <c r="E83" s="259"/>
-      <c r="F83" s="259"/>
-      <c r="G83" s="259"/>
+      <c r="D83" s="290"/>
+      <c r="E83" s="290"/>
+      <c r="F83" s="290"/>
+      <c r="G83" s="290"/>
       <c r="H83" s="79"/>
       <c r="J83" s="22"/>
       <c r="K83" s="23"/>
@@ -35005,6 +35005,105 @@
     </row>
   </sheetData>
   <mergeCells count="123">
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="I49:N49"/>
+    <mergeCell ref="I50:N50"/>
+    <mergeCell ref="I51:N51"/>
+    <mergeCell ref="I52:N52"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="I61:N61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I44:N44"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="I71:N71"/>
     <mergeCell ref="J79:K79"/>
     <mergeCell ref="B65:C65"/>
@@ -35029,105 +35128,6 @@
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="C80:G80"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I44:N44"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="I48:N48"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="I49:N49"/>
-    <mergeCell ref="I50:N50"/>
-    <mergeCell ref="I51:N51"/>
-    <mergeCell ref="I52:N52"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="I61:N61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="C82:G82"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C78:G78"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C76:G76"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="B73:C73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35180,13 +35180,13 @@
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="296" t="s">
+      <c r="B7" s="300" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="296"/>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="296"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="300"/>
+      <c r="E7" s="300"/>
+      <c r="F7" s="300"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
@@ -35195,10 +35195,10 @@
       <c r="C9" s="41"/>
     </row>
     <row r="10" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="279" t="s">
+      <c r="B10" s="280" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="280"/>
+      <c r="C10" s="281"/>
       <c r="D10" s="9" t="s">
         <v>0</v>
       </c>
@@ -35210,10 +35210,10 @@
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="279" t="s">
+      <c r="B11" s="280" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="280"/>
+      <c r="C11" s="281"/>
       <c r="D11" s="9" t="s">
         <v>3</v>
       </c>
@@ -35225,10 +35225,10 @@
       </c>
     </row>
     <row r="12" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="279" t="s">
+      <c r="B12" s="280" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="280"/>
+      <c r="C12" s="281"/>
       <c r="D12" s="9" t="s">
         <v>92</v>
       </c>
@@ -35241,10 +35241,10 @@
       </c>
     </row>
     <row r="13" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="279" t="s">
+      <c r="B13" s="280" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="280"/>
+      <c r="C13" s="281"/>
       <c r="D13" s="9" t="s">
         <v>2</v>
       </c>
@@ -35256,10 +35256,10 @@
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="279" t="s">
+      <c r="B14" s="280" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="280"/>
+      <c r="C14" s="281"/>
       <c r="D14" s="36"/>
       <c r="E14" s="1"/>
       <c r="F14" s="3" t="s">
@@ -35267,11 +35267,11 @@
       </c>
     </row>
     <row r="15" spans="2:6" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="279" t="str">
+      <c r="B15" s="280" t="str">
         <f>"Eficiencia crítica para sedimentador de "&amp;F14</f>
         <v>Eficiencia crítica para sedimentador de Placas paralelas</v>
       </c>
-      <c r="C15" s="280"/>
+      <c r="C15" s="281"/>
       <c r="D15" s="8" t="s">
         <v>108</v>
       </c>
@@ -35281,10 +35281,10 @@
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="279" t="s">
+      <c r="B16" s="280" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="280"/>
+      <c r="C16" s="281"/>
       <c r="D16" s="9" t="s">
         <v>11</v>
       </c>
@@ -35297,10 +35297,10 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="279" t="s">
+      <c r="B17" s="280" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="280"/>
+      <c r="C17" s="281"/>
       <c r="D17" s="9" t="s">
         <v>12</v>
       </c>
@@ -35313,10 +35313,10 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="279" t="s">
+      <c r="B18" s="280" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="280"/>
+      <c r="C18" s="281"/>
       <c r="D18" s="25" t="s">
         <v>13</v>
       </c>
@@ -35330,10 +35330,10 @@
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="279" t="s">
+      <c r="B19" s="280" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="280"/>
+      <c r="C19" s="281"/>
       <c r="D19" s="9" t="s">
         <v>14</v>
       </c>
@@ -35346,10 +35346,10 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="279" t="s">
+      <c r="B20" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="280"/>
+      <c r="C20" s="281"/>
       <c r="D20" s="7" t="s">
         <v>24</v>
       </c>
@@ -35378,10 +35378,10 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="279" t="s">
+      <c r="B23" s="280" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="280"/>
+      <c r="C23" s="281"/>
       <c r="D23" s="9" t="s">
         <v>46</v>
       </c>
@@ -35425,22 +35425,22 @@
       <c r="C27" s="41"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="295" t="s">
+      <c r="B28" s="297" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="295"/>
-      <c r="D28" s="295"/>
-      <c r="E28" s="295"/>
-      <c r="F28" s="295"/>
-      <c r="G28" s="295"/>
+      <c r="C28" s="297"/>
+      <c r="D28" s="297"/>
+      <c r="E28" s="297"/>
+      <c r="F28" s="297"/>
+      <c r="G28" s="297"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="295"/>
-      <c r="C29" s="295"/>
-      <c r="D29" s="295"/>
-      <c r="E29" s="295"/>
-      <c r="F29" s="295"/>
-      <c r="G29" s="295"/>
+      <c r="B29" s="297"/>
+      <c r="C29" s="297"/>
+      <c r="D29" s="297"/>
+      <c r="E29" s="297"/>
+      <c r="F29" s="297"/>
+      <c r="G29" s="297"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="53"/>
@@ -35451,10 +35451,10 @@
       <c r="G30" s="53"/>
     </row>
     <row r="31" spans="2:7" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="260" t="s">
+      <c r="B31" s="269" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="261"/>
+      <c r="C31" s="270"/>
       <c r="D31" s="51" t="s">
         <v>137</v>
       </c>
@@ -35468,10 +35468,10 @@
       <c r="G31" s="53"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="260" t="s">
+      <c r="B32" s="269" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="261"/>
+      <c r="C32" s="270"/>
       <c r="D32" s="51" t="s">
         <v>14</v>
       </c>
@@ -35511,10 +35511,10 @@
       <c r="G35" s="53"/>
     </row>
     <row r="36" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="260" t="s">
+      <c r="B36" s="269" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="261"/>
+      <c r="C36" s="270"/>
       <c r="D36" s="55" t="s">
         <v>91</v>
       </c>
@@ -35536,14 +35536,14 @@
       <c r="G37" s="53"/>
     </row>
     <row r="38" spans="2:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="295" t="s">
+      <c r="B38" s="297" t="s">
         <v>132</v>
       </c>
-      <c r="C38" s="295"/>
-      <c r="D38" s="295"/>
-      <c r="E38" s="295"/>
-      <c r="F38" s="295"/>
-      <c r="G38" s="295"/>
+      <c r="C38" s="297"/>
+      <c r="D38" s="297"/>
+      <c r="E38" s="297"/>
+      <c r="F38" s="297"/>
+      <c r="G38" s="297"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="53"/>
@@ -35554,10 +35554,10 @@
       <c r="G39" s="53"/>
     </row>
     <row r="40" spans="2:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="260" t="s">
+      <c r="B40" s="269" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="261"/>
+      <c r="C40" s="270"/>
       <c r="D40" s="51" t="s">
         <v>131</v>
       </c>
@@ -35571,10 +35571,10 @@
       <c r="G40" s="49"/>
     </row>
     <row r="41" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="260" t="s">
+      <c r="B41" s="269" t="s">
         <v>97</v>
       </c>
-      <c r="C41" s="261"/>
+      <c r="C41" s="270"/>
       <c r="D41" s="48" t="s">
         <v>144</v>
       </c>
@@ -35589,10 +35589,10 @@
       <c r="H41" s="23"/>
     </row>
     <row r="42" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="260" t="s">
+      <c r="B42" s="269" t="s">
         <v>94</v>
       </c>
-      <c r="C42" s="261"/>
+      <c r="C42" s="270"/>
       <c r="D42" s="45" t="s">
         <v>135</v>
       </c>
@@ -35632,10 +35632,10 @@
       <c r="G45" s="53"/>
     </row>
     <row r="46" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="260" t="s">
+      <c r="B46" s="269" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="261"/>
+      <c r="C46" s="270"/>
       <c r="D46" s="51" t="s">
         <v>88</v>
       </c>
@@ -35647,10 +35647,10 @@
       <c r="G46" s="49"/>
     </row>
     <row r="47" spans="2:8" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="260" t="s">
+      <c r="B47" s="269" t="s">
         <v>100</v>
       </c>
-      <c r="C47" s="261"/>
+      <c r="C47" s="270"/>
       <c r="D47" s="51" t="s">
         <v>101</v>
       </c>
@@ -35662,10 +35662,10 @@
       <c r="G47" s="49"/>
     </row>
     <row r="48" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="260" t="s">
+      <c r="B48" s="269" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="261"/>
+      <c r="C48" s="270"/>
       <c r="D48" s="51" t="s">
         <v>145</v>
       </c>
@@ -35703,10 +35703,10 @@
       <c r="G51" s="53"/>
     </row>
     <row r="52" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="260" t="s">
+      <c r="B52" s="269" t="s">
         <v>104</v>
       </c>
-      <c r="C52" s="261"/>
+      <c r="C52" s="270"/>
       <c r="D52" s="51" t="s">
         <v>146</v>
       </c>
@@ -35764,10 +35764,10 @@
       <c r="G57" s="53"/>
     </row>
     <row r="58" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="260" t="s">
+      <c r="B58" s="269" t="s">
         <v>109</v>
       </c>
-      <c r="C58" s="261"/>
+      <c r="C58" s="270"/>
       <c r="D58" s="56" t="s">
         <v>1</v>
       </c>
@@ -35805,10 +35805,10 @@
       <c r="G61" s="53"/>
     </row>
     <row r="62" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="260" t="s">
+      <c r="B62" s="269" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="261"/>
+      <c r="C62" s="270"/>
       <c r="D62" s="48" t="s">
         <v>136</v>
       </c>
@@ -35830,14 +35830,14 @@
       <c r="G63" s="53"/>
     </row>
     <row r="64" spans="2:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="295" t="s">
+      <c r="B64" s="297" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="295"/>
-      <c r="D64" s="295"/>
-      <c r="E64" s="295"/>
-      <c r="F64" s="295"/>
-      <c r="G64" s="295"/>
+      <c r="C64" s="297"/>
+      <c r="D64" s="297"/>
+      <c r="E64" s="297"/>
+      <c r="F64" s="297"/>
+      <c r="G64" s="297"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="53"/>
@@ -35848,10 +35848,10 @@
       <c r="G65" s="53"/>
     </row>
     <row r="66" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="260" t="s">
+      <c r="B66" s="269" t="s">
         <v>44</v>
       </c>
-      <c r="C66" s="261"/>
+      <c r="C66" s="270"/>
       <c r="D66" s="51" t="s">
         <v>27</v>
       </c>
@@ -35891,10 +35891,10 @@
       <c r="G69" s="53"/>
     </row>
     <row r="70" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="260" t="s">
+      <c r="B70" s="269" t="s">
         <v>30</v>
       </c>
-      <c r="C70" s="261"/>
+      <c r="C70" s="270"/>
       <c r="D70" s="48" t="s">
         <v>138</v>
       </c>
@@ -35908,10 +35908,10 @@
       <c r="G70" s="49"/>
     </row>
     <row r="71" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="260" t="s">
+      <c r="B71" s="269" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="261"/>
+      <c r="C71" s="270"/>
       <c r="D71" s="51" t="s">
         <v>139</v>
       </c>
@@ -35925,10 +35925,10 @@
       <c r="G71" s="49"/>
     </row>
     <row r="72" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="260" t="s">
+      <c r="B72" s="269" t="s">
         <v>69</v>
       </c>
-      <c r="C72" s="261"/>
+      <c r="C72" s="270"/>
       <c r="D72" s="51" t="s">
         <v>140</v>
       </c>
@@ -35942,10 +35942,10 @@
       <c r="G72" s="49"/>
     </row>
     <row r="73" spans="2:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="260" t="s">
+      <c r="B73" s="269" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="261"/>
+      <c r="C73" s="270"/>
       <c r="D73" s="51" t="s">
         <v>142</v>
       </c>
@@ -35965,46 +35965,46 @@
       <c r="C75" s="41"/>
     </row>
     <row r="76" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="297" t="s">
+      <c r="B76" s="296" t="s">
         <v>148</v>
       </c>
-      <c r="C76" s="297"/>
-      <c r="D76" s="297"/>
-      <c r="E76" s="297"/>
-      <c r="F76" s="297"/>
-      <c r="G76" s="297"/>
+      <c r="C76" s="296"/>
+      <c r="D76" s="296"/>
+      <c r="E76" s="296"/>
+      <c r="F76" s="296"/>
+      <c r="G76" s="296"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="297"/>
-      <c r="C77" s="297"/>
-      <c r="D77" s="297"/>
-      <c r="E77" s="297"/>
-      <c r="F77" s="297"/>
-      <c r="G77" s="297"/>
+      <c r="B77" s="296"/>
+      <c r="C77" s="296"/>
+      <c r="D77" s="296"/>
+      <c r="E77" s="296"/>
+      <c r="F77" s="296"/>
+      <c r="G77" s="296"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="297"/>
-      <c r="C78" s="297"/>
-      <c r="D78" s="297"/>
-      <c r="E78" s="297"/>
-      <c r="F78" s="297"/>
-      <c r="G78" s="297"/>
+      <c r="B78" s="296"/>
+      <c r="C78" s="296"/>
+      <c r="D78" s="296"/>
+      <c r="E78" s="296"/>
+      <c r="F78" s="296"/>
+      <c r="G78" s="296"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="297"/>
-      <c r="C79" s="297"/>
-      <c r="D79" s="297"/>
-      <c r="E79" s="297"/>
-      <c r="F79" s="297"/>
-      <c r="G79" s="297"/>
+      <c r="B79" s="296"/>
+      <c r="C79" s="296"/>
+      <c r="D79" s="296"/>
+      <c r="E79" s="296"/>
+      <c r="F79" s="296"/>
+      <c r="G79" s="296"/>
     </row>
     <row r="80" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="297"/>
-      <c r="C80" s="297"/>
-      <c r="D80" s="297"/>
-      <c r="E80" s="297"/>
-      <c r="F80" s="297"/>
-      <c r="G80" s="297"/>
+      <c r="B80" s="296"/>
+      <c r="C80" s="296"/>
+      <c r="D80" s="296"/>
+      <c r="E80" s="296"/>
+      <c r="F80" s="296"/>
+      <c r="G80" s="296"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="42"/>
@@ -36042,6 +36042,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B64:G64"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B76:G80"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B17:C17"/>
@@ -36058,25 +36077,6 @@
     <mergeCell ref="B58:C58"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B64:G64"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B70:C70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -36088,8 +36088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J134" sqref="J134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -36126,11 +36126,11 @@
     </row>
     <row r="2" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
-      <c r="B2" s="398"/>
-      <c r="C2" s="398"/>
-      <c r="D2" s="398"/>
-      <c r="E2" s="398"/>
-      <c r="F2" s="398"/>
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
       <c r="G2" s="41" t="s">
         <v>119</v>
       </c>
@@ -36138,11 +36138,11 @@
     </row>
     <row r="3" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
-      <c r="B3" s="398"/>
-      <c r="C3" s="398"/>
-      <c r="D3" s="398"/>
-      <c r="E3" s="398"/>
-      <c r="F3" s="398"/>
+      <c r="B3" s="339"/>
+      <c r="C3" s="339"/>
+      <c r="D3" s="339"/>
+      <c r="E3" s="339"/>
+      <c r="F3" s="339"/>
       <c r="G3" s="41" t="s">
         <v>120</v>
       </c>
@@ -36150,11 +36150,11 @@
     </row>
     <row r="4" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
-      <c r="B4" s="398"/>
-      <c r="C4" s="398"/>
-      <c r="D4" s="398"/>
-      <c r="E4" s="398"/>
-      <c r="F4" s="398"/>
+      <c r="B4" s="339"/>
+      <c r="C4" s="339"/>
+      <c r="D4" s="339"/>
+      <c r="E4" s="339"/>
+      <c r="F4" s="339"/>
       <c r="G4" s="41" t="s">
         <v>121</v>
       </c>
@@ -36162,11 +36162,11 @@
     </row>
     <row r="5" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="398"/>
-      <c r="C5" s="398"/>
-      <c r="D5" s="398"/>
-      <c r="E5" s="398"/>
-      <c r="F5" s="398"/>
+      <c r="B5" s="339"/>
+      <c r="C5" s="339"/>
+      <c r="D5" s="339"/>
+      <c r="E5" s="339"/>
+      <c r="F5" s="339"/>
       <c r="G5" s="41" t="s">
         <v>327</v>
       </c>
@@ -36218,15 +36218,15 @@
       <c r="AK7" s="237"/>
     </row>
     <row r="8" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="278" t="s">
+      <c r="B8" s="275" t="s">
         <v>321</v>
       </c>
-      <c r="C8" s="278"/>
-      <c r="D8" s="278"/>
-      <c r="E8" s="278"/>
-      <c r="F8" s="278"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
+      <c r="C8" s="275"/>
+      <c r="D8" s="275"/>
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="275"/>
+      <c r="H8" s="275"/>
       <c r="I8" s="145" t="s">
         <v>323</v>
       </c>
@@ -36234,10 +36234,10 @@
         <v>1.3</v>
       </c>
       <c r="K8" s="49"/>
-      <c r="X8" s="278" t="s">
+      <c r="X8" s="275" t="s">
         <v>328</v>
       </c>
-      <c r="Y8" s="278"/>
+      <c r="Y8" s="275"/>
       <c r="Z8" s="118"/>
       <c r="AA8" s="13" t="s">
         <v>326</v>
@@ -36256,15 +36256,15 @@
       <c r="AK8" s="237"/>
     </row>
     <row r="9" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="306" t="s">
+      <c r="B9" s="418" t="s">
         <v>322</v>
       </c>
-      <c r="C9" s="306"/>
-      <c r="D9" s="306"/>
-      <c r="E9" s="306"/>
-      <c r="F9" s="306"/>
-      <c r="G9" s="306"/>
-      <c r="H9" s="306"/>
+      <c r="C9" s="418"/>
+      <c r="D9" s="418"/>
+      <c r="E9" s="418"/>
+      <c r="F9" s="418"/>
+      <c r="G9" s="418"/>
+      <c r="H9" s="418"/>
       <c r="I9" s="258" t="s">
         <v>324</v>
       </c>
@@ -36272,10 +36272,10 @@
         <v>1.6</v>
       </c>
       <c r="K9" s="49"/>
-      <c r="X9" s="278" t="s">
+      <c r="X9" s="275" t="s">
         <v>329</v>
       </c>
-      <c r="Y9" s="278"/>
+      <c r="Y9" s="275"/>
       <c r="Z9" s="118"/>
       <c r="AA9" s="13" t="s">
         <v>340</v>
@@ -36294,15 +36294,15 @@
       <c r="AK9" s="237"/>
     </row>
     <row r="10" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="306" t="s">
+      <c r="B10" s="418" t="s">
         <v>317</v>
       </c>
-      <c r="C10" s="306"/>
-      <c r="D10" s="306"/>
-      <c r="E10" s="306"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="306"/>
-      <c r="H10" s="306"/>
+      <c r="C10" s="418"/>
+      <c r="D10" s="418"/>
+      <c r="E10" s="418"/>
+      <c r="F10" s="418"/>
+      <c r="G10" s="418"/>
+      <c r="H10" s="418"/>
       <c r="I10" s="258" t="s">
         <v>318</v>
       </c>
@@ -36334,15 +36334,15 @@
       <c r="AK10" s="237"/>
     </row>
     <row r="11" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="278" t="s">
+      <c r="B11" s="275" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="278"/>
-      <c r="D11" s="278"/>
-      <c r="E11" s="278"/>
-      <c r="F11" s="278"/>
-      <c r="G11" s="278"/>
-      <c r="H11" s="278"/>
+      <c r="C11" s="275"/>
+      <c r="D11" s="275"/>
+      <c r="E11" s="275"/>
+      <c r="F11" s="275"/>
+      <c r="G11" s="275"/>
+      <c r="H11" s="275"/>
       <c r="I11" s="56" t="s">
         <v>315</v>
       </c>
@@ -36376,15 +36376,15 @@
       <c r="AK11" s="237"/>
     </row>
     <row r="12" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="278" t="s">
+      <c r="B12" s="275" t="s">
         <v>319</v>
       </c>
-      <c r="C12" s="278"/>
-      <c r="D12" s="278"/>
-      <c r="E12" s="278"/>
-      <c r="F12" s="278"/>
-      <c r="G12" s="278"/>
-      <c r="H12" s="278"/>
+      <c r="C12" s="275"/>
+      <c r="D12" s="275"/>
+      <c r="E12" s="275"/>
+      <c r="F12" s="275"/>
+      <c r="G12" s="275"/>
+      <c r="H12" s="275"/>
       <c r="I12" s="56" t="s">
         <v>362</v>
       </c>
@@ -36464,10 +36464,10 @@
       <c r="J14" s="216"/>
       <c r="K14" s="215"/>
       <c r="L14" s="82"/>
-      <c r="X14" s="278" t="s">
+      <c r="X14" s="275" t="s">
         <v>333</v>
       </c>
-      <c r="Y14" s="278"/>
+      <c r="Y14" s="275"/>
       <c r="Z14" s="234"/>
       <c r="AA14" s="181" t="s">
         <v>348</v>
@@ -36486,18 +36486,18 @@
       <c r="AK14" s="237"/>
     </row>
     <row r="15" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="260" t="s">
+      <c r="B15" s="269" t="s">
         <v>328</v>
       </c>
-      <c r="C15" s="304"/>
-      <c r="D15" s="304"/>
-      <c r="E15" s="304"/>
-      <c r="F15" s="304"/>
-      <c r="G15" s="261"/>
-      <c r="H15" s="260" t="s">
+      <c r="C15" s="307"/>
+      <c r="D15" s="307"/>
+      <c r="E15" s="307"/>
+      <c r="F15" s="307"/>
+      <c r="G15" s="270"/>
+      <c r="H15" s="269" t="s">
         <v>326</v>
       </c>
-      <c r="I15" s="261"/>
+      <c r="I15" s="270"/>
       <c r="J15" s="229"/>
       <c r="K15" s="215"/>
       <c r="L15" s="82"/>
@@ -36523,19 +36523,19 @@
       <c r="AK15" s="237"/>
     </row>
     <row r="16" spans="1:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="260" t="s">
+      <c r="B16" s="269" t="s">
         <v>329</v>
       </c>
-      <c r="C16" s="304"/>
-      <c r="D16" s="304"/>
-      <c r="E16" s="304"/>
-      <c r="F16" s="304"/>
-      <c r="G16" s="261"/>
-      <c r="H16" s="260" t="str">
+      <c r="C16" s="307"/>
+      <c r="D16" s="307"/>
+      <c r="E16" s="307"/>
+      <c r="F16" s="307"/>
+      <c r="G16" s="270"/>
+      <c r="H16" s="269" t="str">
         <f>IF($H$15=$AA$8,$AA$9,IF($H$15=$AB$8,$AB$9,""))</f>
         <v>Arena</v>
       </c>
-      <c r="I16" s="261"/>
+      <c r="I16" s="270"/>
       <c r="J16" s="229"/>
       <c r="K16" s="215"/>
       <c r="L16" s="82"/>
@@ -36561,24 +36561,24 @@
       <c r="AK16" s="237"/>
     </row>
     <row r="17" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="260" t="s">
+      <c r="B17" s="269" t="s">
         <v>330</v>
       </c>
-      <c r="C17" s="304"/>
-      <c r="D17" s="304"/>
-      <c r="E17" s="304"/>
-      <c r="F17" s="304"/>
-      <c r="G17" s="261"/>
-      <c r="H17" s="260" t="str">
+      <c r="C17" s="307"/>
+      <c r="D17" s="307"/>
+      <c r="E17" s="307"/>
+      <c r="F17" s="307"/>
+      <c r="G17" s="270"/>
+      <c r="H17" s="269" t="str">
         <f>IF($H$15=$AA$8,AA10,IF($H$15=$AB$8,AB10,""))</f>
         <v>Estratificado fino a grueso</v>
       </c>
-      <c r="I17" s="261"/>
+      <c r="I17" s="270"/>
       <c r="J17" s="229"/>
       <c r="K17" s="215"/>
       <c r="L17" s="82"/>
-      <c r="X17" s="305"/>
-      <c r="Y17" s="305"/>
+      <c r="X17" s="421"/>
+      <c r="Y17" s="421"/>
       <c r="Z17" s="220"/>
       <c r="AA17" s="250"/>
       <c r="AB17" s="181" t="s">
@@ -36595,23 +36595,23 @@
       <c r="AK17" s="237"/>
     </row>
     <row r="18" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="260" t="s">
+      <c r="B18" s="269" t="s">
         <v>337</v>
       </c>
-      <c r="C18" s="304"/>
-      <c r="D18" s="304"/>
-      <c r="E18" s="304"/>
-      <c r="F18" s="304"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="260"/>
-      <c r="I18" s="261"/>
+      <c r="C18" s="307"/>
+      <c r="D18" s="307"/>
+      <c r="E18" s="307"/>
+      <c r="F18" s="307"/>
+      <c r="G18" s="270"/>
+      <c r="H18" s="269"/>
+      <c r="I18" s="270"/>
       <c r="J18" s="229"/>
       <c r="K18" s="215"/>
       <c r="L18" s="82"/>
-      <c r="X18" s="305" t="s">
+      <c r="X18" s="421" t="s">
         <v>336</v>
       </c>
-      <c r="Y18" s="305"/>
+      <c r="Y18" s="421"/>
       <c r="Z18" s="220"/>
       <c r="AA18" s="250" t="s">
         <v>351</v>
@@ -36630,19 +36630,19 @@
       <c r="AK18" s="237"/>
     </row>
     <row r="19" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="260" t="s">
+      <c r="B19" s="269" t="s">
         <v>180</v>
       </c>
-      <c r="C19" s="304"/>
-      <c r="D19" s="304"/>
-      <c r="E19" s="304"/>
-      <c r="F19" s="304"/>
-      <c r="G19" s="261"/>
-      <c r="H19" s="302">
+      <c r="C19" s="307"/>
+      <c r="D19" s="307"/>
+      <c r="E19" s="307"/>
+      <c r="F19" s="307"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="308">
         <f t="shared" ref="H19:H24" si="0">IF($H$15=$AA$8,AA11,IF($H$15=$AB$8,AB11,""))</f>
         <v>120</v>
       </c>
-      <c r="I19" s="303"/>
+      <c r="I19" s="309"/>
       <c r="J19" s="56" t="s">
         <v>4</v>
       </c>
@@ -36668,19 +36668,19 @@
       <c r="AK19" s="237"/>
     </row>
     <row r="20" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="260" t="s">
+      <c r="B20" s="269" t="s">
         <v>331</v>
       </c>
-      <c r="C20" s="304"/>
-      <c r="D20" s="304"/>
-      <c r="E20" s="304"/>
-      <c r="F20" s="304"/>
-      <c r="G20" s="261"/>
-      <c r="H20" s="302" t="str">
+      <c r="C20" s="307"/>
+      <c r="D20" s="307"/>
+      <c r="E20" s="307"/>
+      <c r="F20" s="307"/>
+      <c r="G20" s="270"/>
+      <c r="H20" s="308" t="str">
         <f t="shared" si="0"/>
         <v>12 - 36</v>
       </c>
-      <c r="I20" s="303"/>
+      <c r="I20" s="309"/>
       <c r="J20" s="229" t="s">
         <v>345</v>
       </c>
@@ -36704,24 +36704,24 @@
       <c r="AK20" s="237"/>
     </row>
     <row r="21" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="260" t="s">
+      <c r="B21" s="269" t="s">
         <v>332</v>
       </c>
-      <c r="C21" s="304"/>
-      <c r="D21" s="304"/>
-      <c r="E21" s="304"/>
-      <c r="F21" s="304"/>
-      <c r="G21" s="261"/>
-      <c r="H21" s="302">
+      <c r="C21" s="307"/>
+      <c r="D21" s="307"/>
+      <c r="E21" s="307"/>
+      <c r="F21" s="307"/>
+      <c r="G21" s="270"/>
+      <c r="H21" s="308">
         <f t="shared" si="0"/>
         <v>0.3</v>
       </c>
-      <c r="I21" s="303"/>
+      <c r="I21" s="309"/>
       <c r="J21" s="229" t="s">
         <v>3</v>
       </c>
       <c r="K21" s="215"/>
-      <c r="L21" s="423"/>
+      <c r="L21" s="259"/>
       <c r="X21" s="213"/>
       <c r="Y21" s="214"/>
       <c r="Z21" s="236"/>
@@ -36740,29 +36740,29 @@
       <c r="AK21" s="237"/>
     </row>
     <row r="22" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="260" t="s">
+      <c r="B22" s="269" t="s">
         <v>333</v>
       </c>
-      <c r="C22" s="304"/>
-      <c r="D22" s="304"/>
-      <c r="E22" s="304"/>
-      <c r="F22" s="304"/>
-      <c r="G22" s="261"/>
-      <c r="H22" s="302" t="str">
+      <c r="C22" s="307"/>
+      <c r="D22" s="307"/>
+      <c r="E22" s="307"/>
+      <c r="F22" s="307"/>
+      <c r="G22" s="270"/>
+      <c r="H22" s="308" t="str">
         <f t="shared" si="0"/>
         <v>2,4 - 3,0</v>
       </c>
-      <c r="I22" s="303"/>
+      <c r="I22" s="309"/>
       <c r="J22" s="229" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="215"/>
       <c r="L22" s="82"/>
-      <c r="X22" s="301"/>
-      <c r="Y22" s="301"/>
+      <c r="X22" s="423"/>
+      <c r="Y22" s="423"/>
       <c r="Z22" s="228"/>
-      <c r="AA22" s="300"/>
-      <c r="AB22" s="300"/>
+      <c r="AA22" s="422"/>
+      <c r="AB22" s="422"/>
       <c r="AC22" s="115"/>
       <c r="AD22" s="237"/>
       <c r="AE22" s="237"/>
@@ -36774,29 +36774,29 @@
       <c r="AK22" s="237"/>
     </row>
     <row r="23" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="260" t="s">
+      <c r="B23" s="269" t="s">
         <v>344</v>
       </c>
-      <c r="C23" s="304"/>
-      <c r="D23" s="304"/>
-      <c r="E23" s="304"/>
-      <c r="F23" s="304"/>
-      <c r="G23" s="261"/>
-      <c r="H23" s="421" t="str">
+      <c r="C23" s="307"/>
+      <c r="D23" s="307"/>
+      <c r="E23" s="307"/>
+      <c r="F23" s="307"/>
+      <c r="G23" s="270"/>
+      <c r="H23" s="419" t="str">
         <f t="shared" si="0"/>
         <v>2 - 4</v>
       </c>
-      <c r="I23" s="422"/>
+      <c r="I23" s="420"/>
       <c r="J23" s="229" t="s">
         <v>346</v>
       </c>
       <c r="K23" s="215"/>
       <c r="L23" s="82"/>
-      <c r="X23" s="301"/>
-      <c r="Y23" s="301"/>
+      <c r="X23" s="423"/>
+      <c r="Y23" s="423"/>
       <c r="Z23" s="228"/>
-      <c r="AA23" s="300"/>
-      <c r="AB23" s="300"/>
+      <c r="AA23" s="422"/>
+      <c r="AB23" s="422"/>
       <c r="AC23" s="115"/>
       <c r="AD23" s="237"/>
       <c r="AE23" s="237"/>
@@ -36808,30 +36808,30 @@
       <c r="AK23" s="237"/>
     </row>
     <row r="24" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="260" t="str">
+      <c r="B24" s="269" t="str">
         <f>IF($H$15=$AA$8,$X$16,IF($H$15=$AB$8,X16&amp;" (antracita)",IF($H$15="",X16&amp;" (antracita)")))</f>
         <v>Profundidad del medio</v>
       </c>
-      <c r="C24" s="304"/>
-      <c r="D24" s="304"/>
-      <c r="E24" s="304"/>
-      <c r="F24" s="304"/>
-      <c r="G24" s="261"/>
-      <c r="H24" s="302" t="str">
+      <c r="C24" s="307"/>
+      <c r="D24" s="307"/>
+      <c r="E24" s="307"/>
+      <c r="F24" s="307"/>
+      <c r="G24" s="270"/>
+      <c r="H24" s="308" t="str">
         <f t="shared" si="0"/>
         <v>0,60 - 0,75</v>
       </c>
-      <c r="I24" s="303"/>
+      <c r="I24" s="309"/>
       <c r="J24" s="229" t="s">
         <v>3</v>
       </c>
       <c r="K24" s="215"/>
       <c r="L24" s="82"/>
-      <c r="X24" s="301"/>
-      <c r="Y24" s="301"/>
+      <c r="X24" s="423"/>
+      <c r="Y24" s="423"/>
       <c r="Z24" s="228"/>
-      <c r="AA24" s="300"/>
-      <c r="AB24" s="300"/>
+      <c r="AA24" s="422"/>
+      <c r="AB24" s="422"/>
       <c r="AC24" s="115"/>
       <c r="AD24" s="237"/>
       <c r="AE24" s="237"/>
@@ -36843,30 +36843,30 @@
       <c r="AK24" s="237"/>
     </row>
     <row r="25" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="260" t="str">
+      <c r="B25" s="269" t="str">
         <f>IF($H$15=$AA$8,$X$18,IF($H$15=$AB$8,X16&amp;" (arena)",IF($H$15="",X16&amp;" (arena)")))</f>
         <v>Profundidad de grava</v>
       </c>
-      <c r="C25" s="304"/>
-      <c r="D25" s="304"/>
-      <c r="E25" s="304"/>
-      <c r="F25" s="304"/>
-      <c r="G25" s="261"/>
-      <c r="H25" s="302" t="str">
+      <c r="C25" s="307"/>
+      <c r="D25" s="307"/>
+      <c r="E25" s="307"/>
+      <c r="F25" s="307"/>
+      <c r="G25" s="270"/>
+      <c r="H25" s="308" t="str">
         <f>IF($H$15=$AA$8,AA18,IF($H$15=$AB$8,AB17,""))</f>
         <v>0,30 - 0,45</v>
       </c>
-      <c r="I25" s="303"/>
+      <c r="I25" s="309"/>
       <c r="J25" s="229" t="s">
         <v>3</v>
       </c>
       <c r="K25" s="215"/>
       <c r="L25" s="82"/>
-      <c r="X25" s="301"/>
-      <c r="Y25" s="301"/>
+      <c r="X25" s="423"/>
+      <c r="Y25" s="423"/>
       <c r="Z25" s="228"/>
-      <c r="AA25" s="300"/>
-      <c r="AB25" s="300"/>
+      <c r="AA25" s="422"/>
+      <c r="AB25" s="422"/>
       <c r="AD25" s="237"/>
       <c r="AE25" s="237"/>
       <c r="AF25" s="237"/>
@@ -36877,20 +36877,20 @@
       <c r="AK25" s="237"/>
     </row>
     <row r="26" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="260" t="str">
+      <c r="B26" s="269" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$X$18,IF($H$15="",$X$18)))</f>
         <v/>
       </c>
-      <c r="C26" s="304"/>
-      <c r="D26" s="304"/>
-      <c r="E26" s="304"/>
-      <c r="F26" s="304"/>
-      <c r="G26" s="304"/>
-      <c r="H26" s="302" t="str">
+      <c r="C26" s="307"/>
+      <c r="D26" s="307"/>
+      <c r="E26" s="307"/>
+      <c r="F26" s="307"/>
+      <c r="G26" s="307"/>
+      <c r="H26" s="308" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,$AB$18,IF($H$15="","")))</f>
         <v/>
       </c>
-      <c r="I26" s="303"/>
+      <c r="I26" s="309"/>
       <c r="J26" s="245" t="str">
         <f>IF($H$15=$AA$8,"",IF($H$15=$AB$8,"m",IF($H$15="","m")))</f>
         <v/>
@@ -36958,15 +36958,15 @@
       <c r="AB28" s="228"/>
     </row>
     <row r="29" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="278" t="s">
+      <c r="B29" s="275" t="s">
         <v>263</v>
       </c>
-      <c r="C29" s="278"/>
-      <c r="D29" s="278"/>
-      <c r="E29" s="278"/>
-      <c r="F29" s="278"/>
-      <c r="G29" s="278"/>
-      <c r="H29" s="278"/>
+      <c r="C29" s="275"/>
+      <c r="D29" s="275"/>
+      <c r="E29" s="275"/>
+      <c r="F29" s="275"/>
+      <c r="G29" s="275"/>
+      <c r="H29" s="275"/>
       <c r="I29" s="56" t="s">
         <v>260</v>
       </c>
@@ -36984,16 +36984,16 @@
       <c r="AB29" s="228"/>
     </row>
     <row r="30" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="278" t="str">
+      <c r="B30" s="275" t="str">
         <f>"Densidad del agua a "&amp;J29&amp;" °C"</f>
         <v>Densidad del agua a 3 °C</v>
       </c>
-      <c r="C30" s="278"/>
-      <c r="D30" s="278"/>
-      <c r="E30" s="278"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="278"/>
-      <c r="H30" s="278"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="275"/>
+      <c r="E30" s="275"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="275"/>
+      <c r="H30" s="275"/>
       <c r="I30" s="56" t="s">
         <v>259</v>
       </c>
@@ -37011,25 +37011,25 @@
       <c r="Y30" s="200" t="s">
         <v>325</v>
       </c>
-      <c r="Z30" s="307" t="s">
+      <c r="Z30" s="396" t="s">
         <v>257</v>
       </c>
-      <c r="AA30" s="307" t="s">
+      <c r="AA30" s="396" t="s">
         <v>255</v>
       </c>
       <c r="AB30" s="198"/>
     </row>
     <row r="31" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="278" t="str">
+      <c r="B31" s="275" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J29&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C31" s="278"/>
-      <c r="D31" s="278"/>
-      <c r="E31" s="278"/>
-      <c r="F31" s="278"/>
-      <c r="G31" s="278"/>
-      <c r="H31" s="278"/>
+      <c r="C31" s="275"/>
+      <c r="D31" s="275"/>
+      <c r="E31" s="275"/>
+      <c r="F31" s="275"/>
+      <c r="G31" s="275"/>
+      <c r="H31" s="275"/>
       <c r="I31" s="51" t="s">
         <v>213</v>
       </c>
@@ -37047,21 +37047,21 @@
       <c r="Y31" s="201" t="s">
         <v>259</v>
       </c>
-      <c r="Z31" s="308"/>
-      <c r="AA31" s="308"/>
+      <c r="Z31" s="397"/>
+      <c r="AA31" s="397"/>
       <c r="AB31" s="198"/>
     </row>
     <row r="32" spans="2:37" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="403" t="str">
+      <c r="B32" s="343" t="str">
         <f>"Viscocidad cinemática del agua a "&amp;J29&amp;" °C"</f>
         <v>Viscocidad cinemática del agua a 3 °C</v>
       </c>
-      <c r="C32" s="403"/>
-      <c r="D32" s="403"/>
-      <c r="E32" s="403"/>
-      <c r="F32" s="403"/>
-      <c r="G32" s="403"/>
-      <c r="H32" s="403"/>
+      <c r="C32" s="343"/>
+      <c r="D32" s="343"/>
+      <c r="E32" s="343"/>
+      <c r="F32" s="343"/>
+      <c r="G32" s="343"/>
+      <c r="H32" s="343"/>
       <c r="I32" s="51" t="s">
         <v>2</v>
       </c>
@@ -37181,26 +37181,26 @@
       <c r="AB36" s="173"/>
     </row>
     <row r="37" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="369" t="s">
+      <c r="B37" s="316" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="370"/>
+      <c r="C37" s="317"/>
       <c r="D37" s="148"/>
       <c r="E37" s="144"/>
-      <c r="F37" s="375" t="s">
+      <c r="F37" s="301" t="s">
         <v>204</v>
       </c>
-      <c r="G37" s="375" t="s">
+      <c r="G37" s="301" t="s">
         <v>203</v>
       </c>
-      <c r="H37" s="378" t="s">
+      <c r="H37" s="375" t="s">
         <v>210</v>
       </c>
-      <c r="I37" s="379"/>
-      <c r="J37" s="378" t="s">
+      <c r="I37" s="376"/>
+      <c r="J37" s="375" t="s">
         <v>209</v>
       </c>
-      <c r="K37" s="379"/>
+      <c r="K37" s="376"/>
       <c r="X37" s="181">
         <v>3</v>
       </c>
@@ -37217,22 +37217,22 @@
       <c r="AB37" s="173"/>
     </row>
     <row r="38" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="371"/>
-      <c r="C38" s="372"/>
+      <c r="B38" s="318"/>
+      <c r="C38" s="319"/>
       <c r="D38" s="148"/>
       <c r="E38" s="144"/>
-      <c r="F38" s="376"/>
-      <c r="G38" s="376"/>
-      <c r="H38" s="375" t="s">
+      <c r="F38" s="302"/>
+      <c r="G38" s="302"/>
+      <c r="H38" s="301" t="s">
         <v>186</v>
       </c>
-      <c r="I38" s="375" t="s">
+      <c r="I38" s="301" t="s">
         <v>207</v>
       </c>
-      <c r="J38" s="375" t="s">
+      <c r="J38" s="301" t="s">
         <v>186</v>
       </c>
-      <c r="K38" s="375" t="s">
+      <c r="K38" s="301" t="s">
         <v>207</v>
       </c>
       <c r="X38" s="181">
@@ -37251,16 +37251,16 @@
       <c r="AB38" s="173"/>
     </row>
     <row r="39" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="371"/>
-      <c r="C39" s="372"/>
+      <c r="B39" s="318"/>
+      <c r="C39" s="319"/>
       <c r="D39" s="148"/>
       <c r="E39" s="144"/>
-      <c r="F39" s="376"/>
-      <c r="G39" s="376"/>
-      <c r="H39" s="376"/>
-      <c r="I39" s="376"/>
-      <c r="J39" s="376"/>
-      <c r="K39" s="376"/>
+      <c r="F39" s="302"/>
+      <c r="G39" s="302"/>
+      <c r="H39" s="302"/>
+      <c r="I39" s="302"/>
+      <c r="J39" s="302"/>
+      <c r="K39" s="302"/>
       <c r="X39" s="181">
         <v>5</v>
       </c>
@@ -37277,16 +37277,16 @@
       <c r="AB39" s="173"/>
     </row>
     <row r="40" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="373"/>
-      <c r="C40" s="374"/>
+      <c r="B40" s="320"/>
+      <c r="C40" s="321"/>
       <c r="D40" s="148"/>
       <c r="E40" s="144"/>
-      <c r="F40" s="377"/>
-      <c r="G40" s="377"/>
-      <c r="H40" s="377"/>
-      <c r="I40" s="377"/>
-      <c r="J40" s="377"/>
-      <c r="K40" s="377"/>
+      <c r="F40" s="303"/>
+      <c r="G40" s="303"/>
+      <c r="H40" s="303"/>
+      <c r="I40" s="303"/>
+      <c r="J40" s="303"/>
+      <c r="K40" s="303"/>
       <c r="X40" s="181">
         <v>6</v>
       </c>
@@ -37303,10 +37303,10 @@
       <c r="AB40" s="173"/>
     </row>
     <row r="41" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="380" t="s">
+      <c r="B41" s="377" t="s">
         <v>193</v>
       </c>
-      <c r="C41" s="381"/>
+      <c r="C41" s="378"/>
       <c r="D41" s="154">
         <f>LEFT(B41,2)+0</f>
         <v>14</v>
@@ -37356,10 +37356,10 @@
       <c r="AB41" s="173"/>
     </row>
     <row r="42" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="380" t="s">
+      <c r="B42" s="377" t="s">
         <v>194</v>
       </c>
-      <c r="C42" s="381"/>
+      <c r="C42" s="378"/>
       <c r="D42" s="154">
         <f t="shared" ref="D42:D49" si="3">LEFT(B42,2)+0</f>
         <v>20</v>
@@ -37409,10 +37409,10 @@
       <c r="AB42" s="173"/>
     </row>
     <row r="43" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="380" t="s">
+      <c r="B43" s="377" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="381"/>
+      <c r="C43" s="378"/>
       <c r="D43" s="154">
         <f t="shared" si="3"/>
         <v>25</v>
@@ -37462,10 +37462,10 @@
       <c r="AB43" s="173"/>
     </row>
     <row r="44" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="380" t="s">
+      <c r="B44" s="377" t="s">
         <v>201</v>
       </c>
-      <c r="C44" s="381"/>
+      <c r="C44" s="378"/>
       <c r="D44" s="154">
         <f t="shared" si="3"/>
         <v>30</v>
@@ -37515,10 +37515,10 @@
       <c r="AB44" s="173"/>
     </row>
     <row r="45" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="380" t="s">
+      <c r="B45" s="377" t="s">
         <v>196</v>
       </c>
-      <c r="C45" s="381"/>
+      <c r="C45" s="378"/>
       <c r="D45" s="154">
         <f t="shared" si="3"/>
         <v>35</v>
@@ -37568,10 +37568,10 @@
       <c r="AB45" s="173"/>
     </row>
     <row r="46" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="380" t="s">
+      <c r="B46" s="377" t="s">
         <v>197</v>
       </c>
-      <c r="C46" s="381"/>
+      <c r="C46" s="378"/>
       <c r="D46" s="154">
         <f t="shared" si="3"/>
         <v>40</v>
@@ -37621,10 +37621,10 @@
       <c r="AB46" s="173"/>
     </row>
     <row r="47" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="380" t="s">
+      <c r="B47" s="377" t="s">
         <v>198</v>
       </c>
-      <c r="C47" s="381"/>
+      <c r="C47" s="378"/>
       <c r="D47" s="154">
         <f t="shared" si="3"/>
         <v>50</v>
@@ -37674,10 +37674,10 @@
       <c r="AB47" s="173"/>
     </row>
     <row r="48" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="380" t="s">
+      <c r="B48" s="377" t="s">
         <v>199</v>
       </c>
-      <c r="C48" s="381"/>
+      <c r="C48" s="378"/>
       <c r="D48" s="154">
         <f t="shared" si="3"/>
         <v>60</v>
@@ -37727,10 +37727,10 @@
       <c r="AB48" s="173"/>
     </row>
     <row r="49" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="380" t="s">
+      <c r="B49" s="377" t="s">
         <v>200</v>
       </c>
-      <c r="C49" s="381"/>
+      <c r="C49" s="378"/>
       <c r="D49" s="154">
         <f t="shared" si="3"/>
         <v>70</v>
@@ -37824,20 +37824,20 @@
       <c r="AB51" s="173"/>
     </row>
     <row r="52" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="357"/>
-      <c r="C52" s="357"/>
+      <c r="B52" s="314"/>
+      <c r="C52" s="314"/>
       <c r="D52" s="155"/>
       <c r="E52" s="103"/>
-      <c r="F52" s="358" t="s">
+      <c r="F52" s="347" t="s">
         <v>186</v>
       </c>
-      <c r="G52" s="358" t="s">
+      <c r="G52" s="347" t="s">
         <v>207</v>
       </c>
-      <c r="H52" s="340"/>
-      <c r="I52" s="340"/>
-      <c r="J52" s="340"/>
-      <c r="K52" s="367" t="s">
+      <c r="H52" s="334"/>
+      <c r="I52" s="334"/>
+      <c r="J52" s="334"/>
+      <c r="K52" s="338" t="s">
         <v>239</v>
       </c>
       <c r="L52" s="165"/>
@@ -37857,16 +37857,16 @@
       <c r="AB52" s="173"/>
     </row>
     <row r="53" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="357"/>
-      <c r="C53" s="357"/>
+      <c r="B53" s="314"/>
+      <c r="C53" s="314"/>
       <c r="D53" s="155"/>
       <c r="E53" s="103"/>
-      <c r="F53" s="358"/>
-      <c r="G53" s="358"/>
-      <c r="H53" s="340"/>
-      <c r="I53" s="340"/>
-      <c r="J53" s="340"/>
-      <c r="K53" s="367"/>
+      <c r="F53" s="347"/>
+      <c r="G53" s="347"/>
+      <c r="H53" s="334"/>
+      <c r="I53" s="334"/>
+      <c r="J53" s="334"/>
+      <c r="K53" s="338"/>
       <c r="L53" s="165"/>
       <c r="X53" s="181">
         <v>19</v>
@@ -37885,16 +37885,16 @@
       <c r="AD53" s="188"/>
     </row>
     <row r="54" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="357"/>
-      <c r="C54" s="357"/>
+      <c r="B54" s="314"/>
+      <c r="C54" s="314"/>
       <c r="D54" s="155"/>
       <c r="E54" s="103"/>
-      <c r="F54" s="358"/>
-      <c r="G54" s="358"/>
-      <c r="H54" s="340"/>
-      <c r="I54" s="340"/>
-      <c r="J54" s="340"/>
-      <c r="K54" s="367"/>
+      <c r="F54" s="347"/>
+      <c r="G54" s="347"/>
+      <c r="H54" s="334"/>
+      <c r="I54" s="334"/>
+      <c r="J54" s="334"/>
+      <c r="K54" s="338"/>
       <c r="L54" s="165"/>
       <c r="X54" s="183">
         <v>20</v>
@@ -37913,10 +37913,10 @@
       <c r="AD54" s="188"/>
     </row>
     <row r="55" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="340" t="s">
+      <c r="B55" s="334" t="s">
         <v>225</v>
       </c>
-      <c r="C55" s="340"/>
+      <c r="C55" s="334"/>
       <c r="D55" s="155"/>
       <c r="E55" s="103"/>
       <c r="F55" s="157">
@@ -37927,13 +37927,13 @@
         <f>VLOOKUP(F55,J$41:K$49,2,FALSE)</f>
         <v>2.0699999999999932</v>
       </c>
-      <c r="H55" s="357">
+      <c r="H55" s="314">
         <f>(LOG(F55)+((10-G55)/(G56-G55))*LOG(F56/F55))</f>
         <v>-0.61321454811239473</v>
       </c>
-      <c r="I55" s="357"/>
-      <c r="J55" s="357"/>
-      <c r="K55" s="340">
+      <c r="I55" s="314"/>
+      <c r="J55" s="314"/>
+      <c r="K55" s="334">
         <f>10^(H55)</f>
         <v>0.2436606799987964</v>
       </c>
@@ -37954,10 +37954,10 @@
       <c r="AB55" s="173"/>
     </row>
     <row r="56" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="340" t="s">
+      <c r="B56" s="334" t="s">
         <v>226</v>
       </c>
-      <c r="C56" s="340"/>
+      <c r="C56" s="334"/>
       <c r="D56" s="155"/>
       <c r="E56" s="103"/>
       <c r="F56" s="157">
@@ -37968,10 +37968,10 @@
         <f>VLOOKUP(F56,J$41:K$49,2,FALSE)</f>
         <v>11.36999999999999</v>
       </c>
-      <c r="H56" s="357"/>
-      <c r="I56" s="357"/>
-      <c r="J56" s="357"/>
-      <c r="K56" s="340"/>
+      <c r="H56" s="314"/>
+      <c r="I56" s="314"/>
+      <c r="J56" s="314"/>
+      <c r="K56" s="334"/>
       <c r="L56" s="165"/>
       <c r="X56" s="181">
         <v>22</v>
@@ -38045,20 +38045,20 @@
       <c r="AB58" s="173"/>
     </row>
     <row r="59" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="357"/>
-      <c r="C59" s="357"/>
+      <c r="B59" s="314"/>
+      <c r="C59" s="314"/>
       <c r="D59" s="155"/>
       <c r="E59" s="103"/>
-      <c r="F59" s="358" t="s">
+      <c r="F59" s="347" t="s">
         <v>186</v>
       </c>
-      <c r="G59" s="358" t="s">
+      <c r="G59" s="347" t="s">
         <v>207</v>
       </c>
-      <c r="H59" s="340"/>
-      <c r="I59" s="340"/>
-      <c r="J59" s="340"/>
-      <c r="K59" s="367" t="s">
+      <c r="H59" s="334"/>
+      <c r="I59" s="334"/>
+      <c r="J59" s="334"/>
+      <c r="K59" s="338" t="s">
         <v>228</v>
       </c>
       <c r="L59" s="165"/>
@@ -38078,16 +38078,16 @@
       <c r="AB59" s="173"/>
     </row>
     <row r="60" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="357"/>
-      <c r="C60" s="357"/>
+      <c r="B60" s="314"/>
+      <c r="C60" s="314"/>
       <c r="D60" s="155"/>
       <c r="E60" s="103"/>
-      <c r="F60" s="358"/>
-      <c r="G60" s="358"/>
-      <c r="H60" s="340"/>
-      <c r="I60" s="340"/>
-      <c r="J60" s="340"/>
-      <c r="K60" s="367"/>
+      <c r="F60" s="347"/>
+      <c r="G60" s="347"/>
+      <c r="H60" s="334"/>
+      <c r="I60" s="334"/>
+      <c r="J60" s="334"/>
+      <c r="K60" s="338"/>
       <c r="L60" s="165"/>
       <c r="X60" s="181">
         <v>26</v>
@@ -38105,16 +38105,16 @@
       <c r="AB60" s="173"/>
     </row>
     <row r="61" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="357"/>
-      <c r="C61" s="357"/>
+      <c r="B61" s="314"/>
+      <c r="C61" s="314"/>
       <c r="D61" s="155"/>
       <c r="E61" s="103"/>
-      <c r="F61" s="358"/>
-      <c r="G61" s="358"/>
-      <c r="H61" s="340"/>
-      <c r="I61" s="340"/>
-      <c r="J61" s="340"/>
-      <c r="K61" s="367"/>
+      <c r="F61" s="347"/>
+      <c r="G61" s="347"/>
+      <c r="H61" s="334"/>
+      <c r="I61" s="334"/>
+      <c r="J61" s="334"/>
+      <c r="K61" s="338"/>
       <c r="L61" s="165"/>
       <c r="X61" s="181">
         <v>27</v>
@@ -38132,10 +38132,10 @@
       <c r="AB61" s="173"/>
     </row>
     <row r="62" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="340" t="s">
+      <c r="B62" s="334" t="s">
         <v>225</v>
       </c>
-      <c r="C62" s="340"/>
+      <c r="C62" s="334"/>
       <c r="D62" s="155"/>
       <c r="E62" s="103"/>
       <c r="F62" s="157">
@@ -38146,13 +38146,13 @@
         <f>VLOOKUP(F62,J$41:K$49,2,FALSE)</f>
         <v>45.269999999999996</v>
       </c>
-      <c r="H62" s="357">
+      <c r="H62" s="314">
         <f>(LOG(F62)+((60-G62)/(G63-G62))*LOG(F63/F62))</f>
         <v>-0.31867934839393264</v>
       </c>
-      <c r="I62" s="357"/>
-      <c r="J62" s="357"/>
-      <c r="K62" s="340">
+      <c r="I62" s="314"/>
+      <c r="J62" s="314"/>
+      <c r="K62" s="334">
         <f>10^(H62)</f>
         <v>0.48008777987655482</v>
       </c>
@@ -38173,10 +38173,10 @@
       <c r="AB62" s="173"/>
     </row>
     <row r="63" spans="2:30" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="340" t="s">
+      <c r="B63" s="334" t="s">
         <v>226</v>
       </c>
-      <c r="C63" s="340"/>
+      <c r="C63" s="334"/>
       <c r="D63" s="155"/>
       <c r="E63" s="103"/>
       <c r="F63" s="157">
@@ -38187,10 +38187,10 @@
         <f>VLOOKUP(F63,J$41:K$49,2,FALSE)</f>
         <v>63.28</v>
       </c>
-      <c r="H63" s="357"/>
-      <c r="I63" s="357"/>
-      <c r="J63" s="357"/>
-      <c r="K63" s="340"/>
+      <c r="H63" s="314"/>
+      <c r="I63" s="314"/>
+      <c r="J63" s="314"/>
+      <c r="K63" s="334"/>
       <c r="L63" s="165"/>
       <c r="X63" s="181">
         <v>29</v>
@@ -38264,19 +38264,19 @@
       <c r="AB65" s="173"/>
     </row>
     <row r="66" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="359" t="s">
+      <c r="B66" s="379" t="s">
         <v>227</v>
       </c>
-      <c r="C66" s="360"/>
+      <c r="C66" s="380"/>
       <c r="D66" s="155"/>
       <c r="E66" s="103"/>
-      <c r="F66" s="359" t="s">
+      <c r="F66" s="379" t="s">
         <v>228</v>
       </c>
-      <c r="G66" s="365" t="s">
+      <c r="G66" s="385" t="s">
         <v>211</v>
       </c>
-      <c r="H66" s="365"/>
+      <c r="H66" s="385"/>
       <c r="I66" s="107"/>
       <c r="J66" s="107"/>
       <c r="K66" s="122"/>
@@ -38297,13 +38297,13 @@
       <c r="AB66" s="173"/>
     </row>
     <row r="67" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="361"/>
-      <c r="C67" s="362"/>
+      <c r="B67" s="381"/>
+      <c r="C67" s="382"/>
       <c r="D67" s="155"/>
       <c r="E67" s="103"/>
-      <c r="F67" s="361"/>
-      <c r="G67" s="365"/>
-      <c r="H67" s="365"/>
+      <c r="F67" s="381"/>
+      <c r="G67" s="385"/>
+      <c r="H67" s="385"/>
       <c r="I67" s="107"/>
       <c r="J67" s="107"/>
       <c r="K67" s="122"/>
@@ -38325,13 +38325,13 @@
       <c r="AB67" s="173"/>
     </row>
     <row r="68" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="363"/>
-      <c r="C68" s="364"/>
+      <c r="B68" s="383"/>
+      <c r="C68" s="384"/>
       <c r="D68" s="155"/>
       <c r="E68" s="103"/>
-      <c r="F68" s="363"/>
-      <c r="G68" s="365"/>
-      <c r="H68" s="365"/>
+      <c r="F68" s="383"/>
+      <c r="G68" s="385"/>
+      <c r="H68" s="385"/>
       <c r="I68" s="107"/>
       <c r="J68" s="107"/>
       <c r="K68" s="122"/>
@@ -38353,22 +38353,22 @@
       <c r="AB68" s="173"/>
     </row>
     <row r="69" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="340">
+      <c r="B69" s="334">
         <f>K55</f>
         <v>0.2436606799987964</v>
       </c>
-      <c r="C69" s="340"/>
+      <c r="C69" s="334"/>
       <c r="D69" s="155"/>
       <c r="E69" s="103"/>
       <c r="F69" s="157">
         <f>K62</f>
         <v>0.48008777987655482</v>
       </c>
-      <c r="G69" s="341">
+      <c r="G69" s="386">
         <f>F69/B69</f>
         <v>1.9703128952891631</v>
       </c>
-      <c r="H69" s="341"/>
+      <c r="H69" s="386"/>
       <c r="I69" s="107"/>
       <c r="J69" s="107"/>
       <c r="K69" s="122"/>
@@ -38410,15 +38410,15 @@
       <c r="AB71" s="173"/>
     </row>
     <row r="72" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="342" t="s">
+      <c r="B72" s="335" t="s">
         <v>235</v>
       </c>
-      <c r="C72" s="343"/>
-      <c r="D72" s="343"/>
-      <c r="E72" s="343"/>
-      <c r="F72" s="343"/>
-      <c r="G72" s="343"/>
-      <c r="H72" s="344"/>
+      <c r="C72" s="336"/>
+      <c r="D72" s="336"/>
+      <c r="E72" s="336"/>
+      <c r="F72" s="336"/>
+      <c r="G72" s="336"/>
+      <c r="H72" s="337"/>
       <c r="I72" s="56" t="s">
         <v>181</v>
       </c>
@@ -38436,15 +38436,15 @@
       <c r="AA72" s="115"/>
     </row>
     <row r="73" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="342" t="s">
+      <c r="B73" s="335" t="s">
         <v>296</v>
       </c>
-      <c r="C73" s="343"/>
-      <c r="D73" s="343"/>
-      <c r="E73" s="343"/>
-      <c r="F73" s="343"/>
-      <c r="G73" s="343"/>
-      <c r="H73" s="344"/>
+      <c r="C73" s="336"/>
+      <c r="D73" s="336"/>
+      <c r="E73" s="336"/>
+      <c r="F73" s="336"/>
+      <c r="G73" s="336"/>
+      <c r="H73" s="337"/>
       <c r="I73" s="56" t="s">
         <v>88</v>
       </c>
@@ -38462,15 +38462,15 @@
       <c r="AA73" s="115"/>
     </row>
     <row r="74" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="342" t="s">
+      <c r="B74" s="335" t="s">
         <v>292</v>
       </c>
-      <c r="C74" s="343"/>
-      <c r="D74" s="343"/>
-      <c r="E74" s="343"/>
-      <c r="F74" s="343"/>
-      <c r="G74" s="343"/>
-      <c r="H74" s="344"/>
+      <c r="C74" s="336"/>
+      <c r="D74" s="336"/>
+      <c r="E74" s="336"/>
+      <c r="F74" s="336"/>
+      <c r="G74" s="336"/>
+      <c r="H74" s="337"/>
       <c r="I74" s="56" t="s">
         <v>293</v>
       </c>
@@ -38486,15 +38486,15 @@
       <c r="AA74" s="115"/>
     </row>
     <row r="75" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="342" t="s">
+      <c r="B75" s="335" t="s">
         <v>238</v>
       </c>
-      <c r="C75" s="343"/>
-      <c r="D75" s="343"/>
-      <c r="E75" s="343"/>
-      <c r="F75" s="343"/>
-      <c r="G75" s="343"/>
-      <c r="H75" s="344"/>
+      <c r="C75" s="336"/>
+      <c r="D75" s="336"/>
+      <c r="E75" s="336"/>
+      <c r="F75" s="336"/>
+      <c r="G75" s="336"/>
+      <c r="H75" s="337"/>
       <c r="I75" s="56" t="s">
         <v>248</v>
       </c>
@@ -38510,15 +38510,15 @@
       <c r="AA75" s="115"/>
     </row>
     <row r="76" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="342" t="s">
+      <c r="B76" s="335" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="343"/>
-      <c r="D76" s="343"/>
-      <c r="E76" s="343"/>
-      <c r="F76" s="343"/>
-      <c r="G76" s="343"/>
-      <c r="H76" s="344"/>
+      <c r="C76" s="336"/>
+      <c r="D76" s="336"/>
+      <c r="E76" s="336"/>
+      <c r="F76" s="336"/>
+      <c r="G76" s="336"/>
+      <c r="H76" s="337"/>
       <c r="I76" s="56" t="s">
         <v>191</v>
       </c>
@@ -38534,15 +38534,15 @@
       <c r="AA76" s="115"/>
     </row>
     <row r="77" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="342" t="s">
+      <c r="B77" s="335" t="s">
         <v>236</v>
       </c>
-      <c r="C77" s="343"/>
-      <c r="D77" s="343"/>
-      <c r="E77" s="343"/>
-      <c r="F77" s="343"/>
-      <c r="G77" s="343"/>
-      <c r="H77" s="344"/>
+      <c r="C77" s="336"/>
+      <c r="D77" s="336"/>
+      <c r="E77" s="336"/>
+      <c r="F77" s="336"/>
+      <c r="G77" s="336"/>
+      <c r="H77" s="337"/>
       <c r="I77" s="145" t="s">
         <v>189</v>
       </c>
@@ -38558,15 +38558,15 @@
       <c r="AA77" s="115"/>
     </row>
     <row r="78" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="342" t="s">
+      <c r="B78" s="335" t="s">
         <v>237</v>
       </c>
-      <c r="C78" s="343"/>
-      <c r="D78" s="343"/>
-      <c r="E78" s="343"/>
-      <c r="F78" s="343"/>
-      <c r="G78" s="343"/>
-      <c r="H78" s="344"/>
+      <c r="C78" s="336"/>
+      <c r="D78" s="336"/>
+      <c r="E78" s="336"/>
+      <c r="F78" s="336"/>
+      <c r="G78" s="336"/>
+      <c r="H78" s="337"/>
       <c r="I78" s="145" t="s">
         <v>189</v>
       </c>
@@ -38582,15 +38582,15 @@
       <c r="AA78" s="115"/>
     </row>
     <row r="79" spans="2:28" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="342" t="s">
+      <c r="B79" s="335" t="s">
         <v>245</v>
       </c>
-      <c r="C79" s="343"/>
-      <c r="D79" s="343"/>
-      <c r="E79" s="343"/>
-      <c r="F79" s="343"/>
-      <c r="G79" s="343"/>
-      <c r="H79" s="344"/>
+      <c r="C79" s="336"/>
+      <c r="D79" s="336"/>
+      <c r="E79" s="336"/>
+      <c r="F79" s="336"/>
+      <c r="G79" s="336"/>
+      <c r="H79" s="337"/>
       <c r="I79" s="167" t="s">
         <v>246</v>
       </c>
@@ -38672,139 +38672,139 @@
       <c r="Z82" s="111"/>
     </row>
     <row r="83" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="369" t="s">
+      <c r="B83" s="316" t="s">
         <v>192</v>
       </c>
-      <c r="C83" s="370"/>
-      <c r="D83" s="402"/>
-      <c r="E83" s="375"/>
-      <c r="F83" s="375" t="s">
+      <c r="C83" s="317"/>
+      <c r="D83" s="342"/>
+      <c r="E83" s="301"/>
+      <c r="F83" s="301" t="s">
         <v>204</v>
       </c>
-      <c r="G83" s="375" t="s">
+      <c r="G83" s="301" t="s">
         <v>205</v>
       </c>
-      <c r="H83" s="375" t="s">
+      <c r="H83" s="301" t="s">
         <v>206</v>
       </c>
-      <c r="I83" s="409" t="s">
+      <c r="I83" s="322" t="s">
         <v>208</v>
       </c>
-      <c r="J83" s="404" t="s">
+      <c r="J83" s="344" t="s">
         <v>182</v>
       </c>
-      <c r="K83" s="405"/>
-      <c r="L83" s="405"/>
-      <c r="M83" s="406"/>
-      <c r="N83" s="387" t="s">
+      <c r="K83" s="345"/>
+      <c r="L83" s="345"/>
+      <c r="M83" s="346"/>
+      <c r="N83" s="357" t="s">
         <v>183</v>
       </c>
-      <c r="O83" s="388"/>
-      <c r="P83" s="388"/>
-      <c r="Q83" s="388"/>
-      <c r="R83" s="389"/>
-      <c r="S83" s="386" t="s">
+      <c r="O83" s="358"/>
+      <c r="P83" s="358"/>
+      <c r="Q83" s="358"/>
+      <c r="R83" s="359"/>
+      <c r="S83" s="356" t="s">
         <v>184</v>
       </c>
-      <c r="T83" s="386"/>
-      <c r="U83" s="386"/>
-      <c r="V83" s="386"/>
+      <c r="T83" s="356"/>
+      <c r="U83" s="356"/>
+      <c r="V83" s="356"/>
       <c r="W83" s="114"/>
-      <c r="X83" s="375" t="s">
+      <c r="X83" s="301" t="s">
         <v>185</v>
       </c>
-      <c r="Y83" s="375" t="s">
+      <c r="Y83" s="301" t="s">
         <v>186</v>
       </c>
       <c r="Z83" s="111"/>
     </row>
     <row r="84" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="371"/>
-      <c r="C84" s="372"/>
-      <c r="D84" s="402"/>
-      <c r="E84" s="377"/>
-      <c r="F84" s="376"/>
-      <c r="G84" s="376"/>
-      <c r="H84" s="376"/>
-      <c r="I84" s="410"/>
-      <c r="J84" s="391" t="s">
+      <c r="B84" s="318"/>
+      <c r="C84" s="319"/>
+      <c r="D84" s="342"/>
+      <c r="E84" s="303"/>
+      <c r="F84" s="302"/>
+      <c r="G84" s="302"/>
+      <c r="H84" s="302"/>
+      <c r="I84" s="323"/>
+      <c r="J84" s="304" t="s">
         <v>187</v>
       </c>
-      <c r="K84" s="334"/>
-      <c r="L84" s="397"/>
-      <c r="M84" s="335"/>
-      <c r="N84" s="390"/>
-      <c r="O84" s="334"/>
-      <c r="P84" s="335"/>
-      <c r="Q84" s="391" t="s">
+      <c r="K84" s="366"/>
+      <c r="L84" s="367"/>
+      <c r="M84" s="368"/>
+      <c r="N84" s="360"/>
+      <c r="O84" s="366"/>
+      <c r="P84" s="368"/>
+      <c r="Q84" s="304" t="s">
         <v>188</v>
       </c>
-      <c r="R84" s="394"/>
-      <c r="S84" s="394"/>
-      <c r="T84" s="394"/>
-      <c r="U84" s="391" t="s">
+      <c r="R84" s="361"/>
+      <c r="S84" s="361"/>
+      <c r="T84" s="361"/>
+      <c r="U84" s="304" t="s">
         <v>188</v>
       </c>
-      <c r="V84" s="394"/>
-      <c r="X84" s="376"/>
-      <c r="Y84" s="376"/>
+      <c r="V84" s="361"/>
+      <c r="X84" s="302"/>
+      <c r="Y84" s="302"/>
     </row>
     <row r="85" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="371"/>
-      <c r="C85" s="372"/>
+      <c r="B85" s="318"/>
+      <c r="C85" s="319"/>
       <c r="D85" s="125"/>
       <c r="E85" s="126"/>
-      <c r="F85" s="376"/>
-      <c r="G85" s="376"/>
-      <c r="H85" s="376"/>
-      <c r="I85" s="410"/>
-      <c r="J85" s="392"/>
-      <c r="K85" s="336"/>
-      <c r="L85" s="398"/>
-      <c r="M85" s="337"/>
-      <c r="N85" s="390"/>
-      <c r="O85" s="336"/>
-      <c r="P85" s="337"/>
-      <c r="Q85" s="392"/>
-      <c r="R85" s="395"/>
-      <c r="S85" s="395"/>
-      <c r="T85" s="395"/>
-      <c r="U85" s="392"/>
-      <c r="V85" s="395"/>
-      <c r="X85" s="376"/>
-      <c r="Y85" s="376"/>
+      <c r="F85" s="302"/>
+      <c r="G85" s="302"/>
+      <c r="H85" s="302"/>
+      <c r="I85" s="323"/>
+      <c r="J85" s="305"/>
+      <c r="K85" s="369"/>
+      <c r="L85" s="339"/>
+      <c r="M85" s="370"/>
+      <c r="N85" s="360"/>
+      <c r="O85" s="369"/>
+      <c r="P85" s="370"/>
+      <c r="Q85" s="305"/>
+      <c r="R85" s="362"/>
+      <c r="S85" s="362"/>
+      <c r="T85" s="362"/>
+      <c r="U85" s="305"/>
+      <c r="V85" s="362"/>
+      <c r="X85" s="302"/>
+      <c r="Y85" s="302"/>
     </row>
     <row r="86" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="373"/>
-      <c r="C86" s="374"/>
+      <c r="B86" s="320"/>
+      <c r="C86" s="321"/>
       <c r="D86" s="125"/>
       <c r="E86" s="126"/>
-      <c r="F86" s="377"/>
-      <c r="G86" s="377"/>
-      <c r="H86" s="377"/>
-      <c r="I86" s="411"/>
-      <c r="J86" s="393"/>
-      <c r="K86" s="338"/>
-      <c r="L86" s="399"/>
-      <c r="M86" s="339"/>
-      <c r="N86" s="390"/>
-      <c r="O86" s="338"/>
-      <c r="P86" s="339"/>
-      <c r="Q86" s="393"/>
-      <c r="R86" s="396"/>
-      <c r="S86" s="396"/>
-      <c r="T86" s="396"/>
-      <c r="U86" s="393"/>
-      <c r="V86" s="396"/>
-      <c r="X86" s="377"/>
-      <c r="Y86" s="377"/>
+      <c r="F86" s="303"/>
+      <c r="G86" s="303"/>
+      <c r="H86" s="303"/>
+      <c r="I86" s="324"/>
+      <c r="J86" s="306"/>
+      <c r="K86" s="371"/>
+      <c r="L86" s="372"/>
+      <c r="M86" s="373"/>
+      <c r="N86" s="360"/>
+      <c r="O86" s="371"/>
+      <c r="P86" s="373"/>
+      <c r="Q86" s="306"/>
+      <c r="R86" s="363"/>
+      <c r="S86" s="363"/>
+      <c r="T86" s="363"/>
+      <c r="U86" s="306"/>
+      <c r="V86" s="363"/>
+      <c r="X86" s="303"/>
+      <c r="Y86" s="303"/>
     </row>
     <row r="87" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="302" t="str">
+      <c r="B87" s="308" t="str">
         <f t="shared" ref="B87:B95" si="6">B41</f>
         <v>14-20</v>
       </c>
-      <c r="C87" s="303"/>
+      <c r="C87" s="309"/>
       <c r="D87" s="130">
         <f>LEFT(B87,2)+0</f>
         <v>14</v>
@@ -38833,26 +38833,26 @@
         <f t="shared" ref="J87:J95" si="10">(F87/100)/((I87/1000)^2)</f>
         <v>6746.44335939147</v>
       </c>
-      <c r="K87" s="412" t="str">
+      <c r="K87" s="325" t="str">
         <f>ROUND((J76*J32*((1-J75)^2)/(J75^3)*(J73*(J72/3600))/9.806*((6/J77)^2)*J96),4)&amp;" m"</f>
         <v>0.9072 m</v>
       </c>
-      <c r="L87" s="413"/>
-      <c r="M87" s="414"/>
+      <c r="L87" s="326"/>
+      <c r="M87" s="327"/>
       <c r="N87" s="104">
         <f t="shared" ref="N87:N95" si="11">$J$78*(I87/1000)*($J$72/3600)/$J$32</f>
         <v>0.79404869211710449</v>
       </c>
-      <c r="O87" s="332">
+      <c r="O87" s="364">
         <f>150*(1-$J$75)/N87+1.75</f>
         <v>105.64791056772258</v>
       </c>
-      <c r="P87" s="333"/>
+      <c r="P87" s="365"/>
       <c r="Q87" s="118">
         <f t="shared" ref="Q87:Q95" si="12">O87*(F87/100)/(I87/1000)</f>
         <v>776.14585960550062</v>
       </c>
-      <c r="R87" s="366" t="str">
+      <c r="R87" s="374" t="str">
         <f>ROUND((1/J78*(1-J75)/(J75^3)*J73*((J72/3600)^2)/9.806*Q96),4)&amp; " m"</f>
         <v>0.7598 m</v>
       </c>
@@ -38868,7 +38868,7 @@
         <f t="shared" ref="U87:U95" si="14">T87*(F87/100)/(I87/1000)</f>
         <v>214.04135325970518</v>
       </c>
-      <c r="V87" s="366" t="str">
+      <c r="V87" s="374" t="str">
         <f>ROUND((0.178*((J72/3600)^2)*J73*1/(9.806*(J75^4))*J79*U96),4)&amp;" m"</f>
         <v>0.7576 m</v>
       </c>
@@ -38889,11 +38889,11 @@
       </c>
     </row>
     <row r="88" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="302" t="str">
+      <c r="B88" s="308" t="str">
         <f t="shared" si="6"/>
         <v>20-25</v>
       </c>
-      <c r="C88" s="303"/>
+      <c r="C88" s="309"/>
       <c r="D88" s="130">
         <f t="shared" ref="D88:D95" si="15">LEFT(B88,2)+0</f>
         <v>20</v>
@@ -38922,23 +38922,23 @@
         <f t="shared" si="10"/>
         <v>71478.185698644607</v>
       </c>
-      <c r="K88" s="415"/>
-      <c r="L88" s="416"/>
-      <c r="M88" s="417"/>
+      <c r="K88" s="328"/>
+      <c r="L88" s="329"/>
+      <c r="M88" s="330"/>
       <c r="N88" s="104">
         <f t="shared" si="11"/>
         <v>0.56227307233134372</v>
       </c>
-      <c r="O88" s="332">
+      <c r="O88" s="364">
         <f t="shared" ref="O88:O95" si="18">150*(1-$J$75)/N88+1.75</f>
         <v>148.4758598352071</v>
       </c>
-      <c r="P88" s="333"/>
+      <c r="P88" s="365"/>
       <c r="Q88" s="118">
         <f t="shared" si="12"/>
         <v>8183.4620779777897</v>
       </c>
-      <c r="R88" s="366"/>
+      <c r="R88" s="374"/>
       <c r="S88" s="119">
         <f t="shared" si="13"/>
         <v>0.66149773215452201</v>
@@ -38951,7 +38951,7 @@
         <f t="shared" si="14"/>
         <v>2221.7366199873777</v>
       </c>
-      <c r="V88" s="366"/>
+      <c r="V88" s="374"/>
       <c r="X88" s="46">
         <v>100</v>
       </c>
@@ -38969,11 +38969,11 @@
       </c>
     </row>
     <row r="89" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="302" t="str">
+      <c r="B89" s="308" t="str">
         <f t="shared" si="6"/>
         <v>25-30</v>
       </c>
-      <c r="C89" s="303"/>
+      <c r="C89" s="309"/>
       <c r="D89" s="130">
         <f t="shared" si="15"/>
         <v>25</v>
@@ -39002,23 +39002,23 @@
         <f t="shared" si="10"/>
         <v>357053.7125741386</v>
       </c>
-      <c r="K89" s="415"/>
-      <c r="L89" s="416"/>
-      <c r="M89" s="417"/>
+      <c r="K89" s="328"/>
+      <c r="L89" s="329"/>
+      <c r="M89" s="330"/>
       <c r="N89" s="104">
         <f t="shared" si="11"/>
         <v>0.47294187660521642</v>
       </c>
-      <c r="O89" s="332">
+      <c r="O89" s="364">
         <f t="shared" si="18"/>
         <v>176.1900402691895</v>
       </c>
-      <c r="P89" s="333"/>
+      <c r="P89" s="365"/>
       <c r="Q89" s="118">
         <f t="shared" si="12"/>
         <v>40802.154662329915</v>
       </c>
-      <c r="R89" s="366"/>
+      <c r="R89" s="374"/>
       <c r="S89" s="119">
         <f t="shared" si="13"/>
         <v>0.55640220777084282</v>
@@ -39031,7 +39031,7 @@
         <f t="shared" si="14"/>
         <v>10999.169821885265</v>
       </c>
-      <c r="V89" s="366"/>
+      <c r="V89" s="374"/>
       <c r="X89" s="46">
         <v>80</v>
       </c>
@@ -39049,11 +39049,11 @@
       </c>
     </row>
     <row r="90" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="302" t="str">
+      <c r="B90" s="308" t="str">
         <f t="shared" si="6"/>
         <v>30-35</v>
       </c>
-      <c r="C90" s="303"/>
+      <c r="C90" s="309"/>
       <c r="D90" s="130">
         <f t="shared" si="15"/>
         <v>30</v>
@@ -39082,23 +39082,23 @@
         <f t="shared" si="10"/>
         <v>559663.86554621835</v>
       </c>
-      <c r="K90" s="415"/>
-      <c r="L90" s="416"/>
-      <c r="M90" s="417"/>
+      <c r="K90" s="328"/>
+      <c r="L90" s="329"/>
+      <c r="M90" s="330"/>
       <c r="N90" s="104">
         <f t="shared" si="11"/>
         <v>0.39772516031159311</v>
       </c>
-      <c r="O90" s="332">
+      <c r="O90" s="364">
         <f t="shared" si="18"/>
         <v>209.17967313248764</v>
       </c>
-      <c r="P90" s="333"/>
+      <c r="P90" s="365"/>
       <c r="Q90" s="118">
         <f t="shared" si="12"/>
         <v>63854.312425811499</v>
       </c>
-      <c r="R90" s="366"/>
+      <c r="R90" s="374"/>
       <c r="S90" s="119">
         <f t="shared" si="13"/>
         <v>0.46791195330775665</v>
@@ -39111,7 +39111,7 @@
         <f t="shared" si="14"/>
         <v>17099.90622380986</v>
       </c>
-      <c r="V90" s="366"/>
+      <c r="V90" s="374"/>
       <c r="X90" s="46">
         <v>70</v>
       </c>
@@ -39123,11 +39123,11 @@
       <c r="AF90" s="143"/>
     </row>
     <row r="91" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="302" t="str">
+      <c r="B91" s="308" t="str">
         <f t="shared" si="6"/>
         <v>35-40</v>
       </c>
-      <c r="C91" s="303"/>
+      <c r="C91" s="309"/>
       <c r="D91" s="130">
         <f t="shared" si="15"/>
         <v>35</v>
@@ -39156,23 +39156,23 @@
         <f t="shared" si="10"/>
         <v>900500</v>
       </c>
-      <c r="K91" s="415"/>
-      <c r="L91" s="416"/>
-      <c r="M91" s="417"/>
+      <c r="K91" s="328"/>
+      <c r="L91" s="329"/>
+      <c r="M91" s="330"/>
       <c r="N91" s="104">
         <f t="shared" si="11"/>
         <v>0.32610283797865985</v>
       </c>
-      <c r="O91" s="332">
+      <c r="O91" s="364">
         <f t="shared" si="18"/>
         <v>254.7376787070427</v>
       </c>
-      <c r="P91" s="333"/>
+      <c r="P91" s="365"/>
       <c r="Q91" s="118">
         <f t="shared" si="12"/>
         <v>102586.89896010263</v>
       </c>
-      <c r="R91" s="366"/>
+      <c r="R91" s="374"/>
       <c r="S91" s="119">
         <f t="shared" si="13"/>
         <v>0.3836503976219528</v>
@@ -39185,7 +39185,7 @@
         <f t="shared" si="14"/>
         <v>27280.127341534007</v>
       </c>
-      <c r="V91" s="366"/>
+      <c r="V91" s="374"/>
       <c r="X91" s="46">
         <v>60</v>
       </c>
@@ -39198,11 +39198,11 @@
       <c r="AF91" s="143"/>
     </row>
     <row r="92" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="302" t="str">
+      <c r="B92" s="308" t="str">
         <f t="shared" si="6"/>
         <v>40-50</v>
       </c>
-      <c r="C92" s="303"/>
+      <c r="C92" s="309"/>
       <c r="D92" s="130">
         <f t="shared" si="15"/>
         <v>40</v>
@@ -39231,23 +39231,23 @@
         <f t="shared" si="10"/>
         <v>1536195.2861952859</v>
       </c>
-      <c r="K92" s="415"/>
-      <c r="L92" s="416"/>
-      <c r="M92" s="417"/>
+      <c r="K92" s="328"/>
+      <c r="L92" s="329"/>
+      <c r="M92" s="330"/>
       <c r="N92" s="104">
         <f t="shared" si="11"/>
         <v>0.2513320079039183</v>
       </c>
-      <c r="O92" s="332">
+      <c r="O92" s="364">
         <f t="shared" si="18"/>
         <v>330.00106793217884</v>
       </c>
-      <c r="P92" s="333"/>
+      <c r="P92" s="365"/>
       <c r="Q92" s="118">
         <f t="shared" si="12"/>
         <v>174731.01262088667</v>
       </c>
-      <c r="R92" s="366"/>
+      <c r="R92" s="374"/>
       <c r="S92" s="119">
         <f t="shared" si="13"/>
         <v>0.29568471518108036</v>
@@ -39260,7 +39260,7 @@
         <f t="shared" si="14"/>
         <v>46078.31738632395</v>
       </c>
-      <c r="V92" s="366"/>
+      <c r="V92" s="374"/>
       <c r="W92" s="123"/>
       <c r="X92" s="46">
         <v>50</v>
@@ -39274,11 +39274,11 @@
       <c r="AF92" s="143"/>
     </row>
     <row r="93" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="302" t="str">
+      <c r="B93" s="308" t="str">
         <f t="shared" si="6"/>
         <v>50-60</v>
       </c>
-      <c r="C93" s="303"/>
+      <c r="C93" s="309"/>
       <c r="D93" s="130">
         <f t="shared" si="15"/>
         <v>50</v>
@@ -39307,23 +39307,23 @@
         <f t="shared" si="10"/>
         <v>2107744.1077441075</v>
       </c>
-      <c r="K93" s="415"/>
-      <c r="L93" s="416"/>
-      <c r="M93" s="417"/>
+      <c r="K93" s="328"/>
+      <c r="L93" s="329"/>
+      <c r="M93" s="330"/>
       <c r="N93" s="104">
         <f t="shared" si="11"/>
         <v>0.19869539846995582</v>
       </c>
-      <c r="O93" s="332">
+      <c r="O93" s="364">
         <f t="shared" si="18"/>
         <v>416.95840761933698</v>
       </c>
-      <c r="P93" s="333"/>
+      <c r="P93" s="365"/>
       <c r="Q93" s="118">
         <f t="shared" si="12"/>
         <v>239474.26464116818</v>
       </c>
-      <c r="R93" s="366"/>
+      <c r="R93" s="374"/>
       <c r="S93" s="119">
         <f t="shared" si="13"/>
         <v>0.23375929231759512</v>
@@ -39336,7 +39336,7 @@
         <f t="shared" si="14"/>
         <v>62725.912586708182</v>
       </c>
-      <c r="V93" s="366"/>
+      <c r="V93" s="374"/>
       <c r="W93" s="123"/>
       <c r="X93" s="46">
         <v>45</v>
@@ -39349,11 +39349,11 @@
       <c r="AF93" s="143"/>
     </row>
     <row r="94" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="302" t="str">
+      <c r="B94" s="308" t="str">
         <f t="shared" si="6"/>
         <v>60-70</v>
       </c>
-      <c r="C94" s="303"/>
+      <c r="C94" s="309"/>
       <c r="D94" s="130">
         <f t="shared" si="15"/>
         <v>60</v>
@@ -39382,23 +39382,23 @@
         <f t="shared" si="10"/>
         <v>1771428.5714285716</v>
       </c>
-      <c r="K94" s="415"/>
-      <c r="L94" s="416"/>
-      <c r="M94" s="417"/>
+      <c r="K94" s="328"/>
+      <c r="L94" s="329"/>
+      <c r="M94" s="330"/>
       <c r="N94" s="104">
         <f t="shared" si="11"/>
         <v>0.16707798627035139</v>
       </c>
-      <c r="O94" s="332">
+      <c r="O94" s="364">
         <f t="shared" si="18"/>
         <v>495.53138821056604</v>
       </c>
-      <c r="P94" s="333"/>
+      <c r="P94" s="365"/>
       <c r="Q94" s="118">
         <f t="shared" si="12"/>
         <v>201128.89419070137</v>
       </c>
-      <c r="R94" s="366"/>
+      <c r="R94" s="374"/>
       <c r="S94" s="119">
         <f t="shared" si="13"/>
         <v>0.19656233678864868</v>
@@ -39411,7 +39411,7 @@
         <f t="shared" si="14"/>
         <v>52442.520648440608</v>
       </c>
-      <c r="V94" s="366"/>
+      <c r="V94" s="374"/>
       <c r="W94" s="123"/>
       <c r="X94" s="46">
         <v>40</v>
@@ -39424,11 +39424,11 @@
       <c r="AF94" s="143"/>
     </row>
     <row r="95" spans="1:39" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="302" t="str">
+      <c r="B95" s="308" t="str">
         <f t="shared" si="6"/>
         <v>70-100</v>
       </c>
-      <c r="C95" s="303"/>
+      <c r="C95" s="309"/>
       <c r="D95" s="130">
         <f t="shared" si="15"/>
         <v>70</v>
@@ -39457,23 +39457,23 @@
         <f t="shared" si="10"/>
         <v>661553.21188878256</v>
       </c>
-      <c r="K95" s="418"/>
-      <c r="L95" s="419"/>
-      <c r="M95" s="420"/>
+      <c r="K95" s="331"/>
+      <c r="L95" s="332"/>
+      <c r="M95" s="333"/>
       <c r="N95" s="104">
         <f t="shared" si="11"/>
         <v>0.12898593676718717</v>
       </c>
-      <c r="O95" s="332">
+      <c r="O95" s="364">
         <f t="shared" si="18"/>
         <v>641.35461169428231</v>
       </c>
-      <c r="P95" s="333"/>
+      <c r="P95" s="365"/>
       <c r="Q95" s="118">
         <f t="shared" si="12"/>
         <v>75052.607596385686</v>
       </c>
-      <c r="R95" s="366"/>
+      <c r="R95" s="374"/>
       <c r="S95" s="119">
         <f t="shared" si="13"/>
         <v>0.15174816090257315</v>
@@ -39486,7 +39486,7 @@
         <f t="shared" si="14"/>
         <v>19448.824116320677</v>
       </c>
-      <c r="V95" s="366"/>
+      <c r="V95" s="374"/>
       <c r="W95" s="123"/>
       <c r="X95" s="46">
         <v>35</v>
@@ -39510,7 +39510,7 @@
       <c r="G96" s="129"/>
       <c r="H96" s="5"/>
       <c r="I96" s="123"/>
-      <c r="J96" s="401">
+      <c r="J96" s="340">
         <f>SUM(J87:J95)</f>
         <v>7972363.3844351405</v>
       </c>
@@ -39520,14 +39520,14 @@
       <c r="N96" s="123"/>
       <c r="O96" s="123"/>
       <c r="P96" s="123"/>
-      <c r="Q96" s="368">
+      <c r="Q96" s="341">
         <f>SUM(Q87:Q95)</f>
         <v>906589.75303496921</v>
       </c>
       <c r="R96" s="123"/>
       <c r="S96" s="123"/>
       <c r="T96" s="123"/>
-      <c r="U96" s="383">
+      <c r="U96" s="350">
         <f>SUM(U87:U95)</f>
         <v>238510.55609826962</v>
       </c>
@@ -39550,18 +39550,18 @@
       <c r="G97" s="5"/>
       <c r="H97" s="5"/>
       <c r="I97" s="123"/>
-      <c r="J97" s="368"/>
+      <c r="J97" s="341"/>
       <c r="K97" s="123"/>
       <c r="L97" s="123"/>
       <c r="M97" s="123"/>
       <c r="N97" s="123"/>
       <c r="O97" s="123"/>
       <c r="P97" s="123"/>
-      <c r="Q97" s="368"/>
+      <c r="Q97" s="341"/>
       <c r="R97" s="123"/>
       <c r="S97" s="123"/>
       <c r="T97" s="123"/>
-      <c r="U97" s="384"/>
+      <c r="U97" s="351"/>
       <c r="V97" s="123"/>
       <c r="W97" s="123"/>
       <c r="X97" s="46">
@@ -39581,7 +39581,7 @@
       <c r="G98" s="124"/>
       <c r="H98" s="124"/>
       <c r="I98" s="123"/>
-      <c r="J98" s="368"/>
+      <c r="J98" s="341"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6">
@@ -39590,13 +39590,13 @@
       <c r="N98" s="123"/>
       <c r="O98" s="123"/>
       <c r="P98" s="123"/>
-      <c r="Q98" s="368"/>
+      <c r="Q98" s="341"/>
       <c r="R98" s="6">
         <v>0.47220000000000001</v>
       </c>
       <c r="S98" s="123"/>
       <c r="T98" s="123"/>
-      <c r="U98" s="385"/>
+      <c r="U98" s="352"/>
       <c r="V98" s="6" t="s">
         <v>247</v>
       </c>
@@ -39674,19 +39674,19 @@
       <c r="Z100" s="122"/>
     </row>
     <row r="101" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="348" t="s">
+      <c r="B101" s="390" t="s">
         <v>224</v>
       </c>
-      <c r="C101" s="349"/>
+      <c r="C101" s="391"/>
       <c r="D101" s="149"/>
       <c r="E101" s="203"/>
-      <c r="F101" s="307" t="s">
+      <c r="F101" s="396" t="s">
         <v>222</v>
       </c>
-      <c r="G101" s="307" t="s">
+      <c r="G101" s="396" t="s">
         <v>223</v>
       </c>
-      <c r="H101" s="307" t="s">
+      <c r="H101" s="396" t="s">
         <v>216</v>
       </c>
       <c r="I101" s="123"/>
@@ -39713,13 +39713,13 @@
       <c r="Z101" s="122"/>
     </row>
     <row r="102" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="350"/>
-      <c r="C102" s="351"/>
+      <c r="B102" s="392"/>
+      <c r="C102" s="393"/>
       <c r="D102" s="149"/>
       <c r="E102" s="203"/>
-      <c r="F102" s="308"/>
-      <c r="G102" s="308"/>
-      <c r="H102" s="308"/>
+      <c r="F102" s="397"/>
+      <c r="G102" s="397"/>
+      <c r="H102" s="397"/>
       <c r="I102" s="123"/>
       <c r="J102" s="147"/>
       <c r="K102" s="6"/>
@@ -39744,13 +39744,13 @@
       <c r="Z102" s="122"/>
     </row>
     <row r="103" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="350"/>
-      <c r="C103" s="351"/>
+      <c r="B103" s="392"/>
+      <c r="C103" s="393"/>
       <c r="D103" s="149"/>
       <c r="E103" s="203"/>
-      <c r="F103" s="308"/>
-      <c r="G103" s="308"/>
-      <c r="H103" s="308"/>
+      <c r="F103" s="397"/>
+      <c r="G103" s="397"/>
+      <c r="H103" s="397"/>
       <c r="I103" s="166"/>
       <c r="J103" s="166"/>
       <c r="K103" s="166"/>
@@ -39775,13 +39775,13 @@
       <c r="Z103" s="122"/>
     </row>
     <row r="104" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="352"/>
-      <c r="C104" s="353"/>
+      <c r="B104" s="394"/>
+      <c r="C104" s="395"/>
       <c r="D104" s="149"/>
       <c r="E104" s="203"/>
-      <c r="F104" s="354"/>
-      <c r="G104" s="354"/>
-      <c r="H104" s="354"/>
+      <c r="F104" s="398"/>
+      <c r="G104" s="398"/>
+      <c r="H104" s="398"/>
       <c r="I104" s="166"/>
       <c r="J104" s="166"/>
       <c r="K104" s="166"/>
@@ -39806,10 +39806,10 @@
       <c r="Z104" s="122"/>
     </row>
     <row r="105" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="355">
+      <c r="B105" s="353">
         <v>1</v>
       </c>
-      <c r="C105" s="356"/>
+      <c r="C105" s="354"/>
       <c r="D105" s="150"/>
       <c r="E105" s="134"/>
       <c r="F105" s="152">
@@ -39847,10 +39847,10 @@
       <c r="Z105" s="122"/>
     </row>
     <row r="106" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="355">
+      <c r="B106" s="353">
         <v>2</v>
       </c>
-      <c r="C106" s="356"/>
+      <c r="C106" s="354"/>
       <c r="D106" s="150"/>
       <c r="E106" s="134"/>
       <c r="F106" s="152" t="s">
@@ -39894,10 +39894,10 @@
       <c r="Z106" s="122"/>
     </row>
     <row r="107" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="355">
+      <c r="B107" s="353">
         <v>3</v>
       </c>
-      <c r="C107" s="356"/>
+      <c r="C107" s="354"/>
       <c r="D107" s="150"/>
       <c r="E107" s="134"/>
       <c r="F107" s="152" t="s">
@@ -39941,10 +39941,10 @@
       <c r="Z107" s="122"/>
     </row>
     <row r="108" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="355">
+      <c r="B108" s="353">
         <v>4</v>
       </c>
-      <c r="C108" s="356"/>
+      <c r="C108" s="354"/>
       <c r="D108" s="150"/>
       <c r="E108" s="134"/>
       <c r="F108" s="152" t="s">
@@ -39982,10 +39982,10 @@
       <c r="Z108" s="122"/>
     </row>
     <row r="109" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="355">
+      <c r="B109" s="353">
         <v>5</v>
       </c>
-      <c r="C109" s="356"/>
+      <c r="C109" s="354"/>
       <c r="D109" s="199"/>
       <c r="E109" s="204"/>
       <c r="F109" s="135" t="s">
@@ -40082,15 +40082,15 @@
       <c r="Z111" s="122"/>
     </row>
     <row r="112" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="278" t="s">
+      <c r="B112" s="275" t="s">
         <v>180</v>
       </c>
-      <c r="C112" s="278"/>
-      <c r="D112" s="278"/>
-      <c r="E112" s="278"/>
-      <c r="F112" s="278"/>
-      <c r="G112" s="278"/>
-      <c r="H112" s="278"/>
+      <c r="C112" s="275"/>
+      <c r="D112" s="275"/>
+      <c r="E112" s="275"/>
+      <c r="F112" s="275"/>
+      <c r="G112" s="275"/>
+      <c r="H112" s="275"/>
       <c r="I112" s="225" t="s">
         <v>212</v>
       </c>
@@ -40100,10 +40100,10 @@
       <c r="K112" s="56" t="s">
         <v>358</v>
       </c>
-      <c r="L112" s="311"/>
-      <c r="M112" s="312"/>
-      <c r="N112" s="312"/>
-      <c r="O112" s="313"/>
+      <c r="L112" s="310"/>
+      <c r="M112" s="311"/>
+      <c r="N112" s="311"/>
+      <c r="O112" s="312"/>
       <c r="P112" s="123"/>
       <c r="Q112" s="205"/>
       <c r="R112" s="6"/>
@@ -40117,15 +40117,15 @@
       <c r="Z112" s="122"/>
     </row>
     <row r="113" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="260" t="s">
+      <c r="B113" s="269" t="s">
         <v>304</v>
       </c>
-      <c r="C113" s="304"/>
-      <c r="D113" s="304"/>
-      <c r="E113" s="304"/>
-      <c r="F113" s="304"/>
-      <c r="G113" s="304"/>
-      <c r="H113" s="261"/>
+      <c r="C113" s="307"/>
+      <c r="D113" s="307"/>
+      <c r="E113" s="307"/>
+      <c r="F113" s="307"/>
+      <c r="G113" s="307"/>
+      <c r="H113" s="270"/>
       <c r="I113" s="225" t="s">
         <v>305</v>
       </c>
@@ -40136,10 +40136,10 @@
       <c r="K113" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="L113" s="311"/>
-      <c r="M113" s="312"/>
-      <c r="N113" s="312"/>
-      <c r="O113" s="313"/>
+      <c r="L113" s="310"/>
+      <c r="M113" s="311"/>
+      <c r="N113" s="311"/>
+      <c r="O113" s="312"/>
       <c r="P113" s="123"/>
       <c r="Q113" s="205"/>
       <c r="R113" s="6"/>
@@ -40153,29 +40153,29 @@
       <c r="Z113" s="122"/>
     </row>
     <row r="114" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="314" t="s">
+      <c r="B114" s="399" t="s">
         <v>308</v>
       </c>
-      <c r="C114" s="315"/>
-      <c r="D114" s="315"/>
-      <c r="E114" s="315"/>
-      <c r="F114" s="315"/>
-      <c r="G114" s="315"/>
-      <c r="H114" s="316"/>
-      <c r="I114" s="324" t="s">
+      <c r="C114" s="400"/>
+      <c r="D114" s="400"/>
+      <c r="E114" s="400"/>
+      <c r="F114" s="400"/>
+      <c r="G114" s="400"/>
+      <c r="H114" s="401"/>
+      <c r="I114" s="409" t="s">
         <v>309</v>
       </c>
-      <c r="J114" s="322">
+      <c r="J114" s="407">
         <f>J112/(24*60)*J113/3</f>
         <v>1.2499999999999997E-2</v>
       </c>
-      <c r="K114" s="324" t="s">
+      <c r="K114" s="409" t="s">
         <v>3</v>
       </c>
-      <c r="L114" s="326"/>
-      <c r="M114" s="327"/>
-      <c r="N114" s="327"/>
-      <c r="O114" s="328"/>
+      <c r="L114" s="411"/>
+      <c r="M114" s="412"/>
+      <c r="N114" s="412"/>
+      <c r="O114" s="413"/>
       <c r="P114" s="123"/>
       <c r="Q114" s="205"/>
       <c r="R114" s="6"/>
@@ -40189,20 +40189,20 @@
       <c r="Z114" s="122"/>
     </row>
     <row r="115" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="317"/>
-      <c r="C115" s="318"/>
-      <c r="D115" s="318"/>
-      <c r="E115" s="318"/>
-      <c r="F115" s="318"/>
-      <c r="G115" s="318"/>
-      <c r="H115" s="319"/>
-      <c r="I115" s="325"/>
-      <c r="J115" s="323"/>
-      <c r="K115" s="325"/>
-      <c r="L115" s="329"/>
-      <c r="M115" s="330"/>
-      <c r="N115" s="330"/>
-      <c r="O115" s="331"/>
+      <c r="B115" s="402"/>
+      <c r="C115" s="403"/>
+      <c r="D115" s="403"/>
+      <c r="E115" s="403"/>
+      <c r="F115" s="403"/>
+      <c r="G115" s="403"/>
+      <c r="H115" s="404"/>
+      <c r="I115" s="410"/>
+      <c r="J115" s="408"/>
+      <c r="K115" s="410"/>
+      <c r="L115" s="414"/>
+      <c r="M115" s="415"/>
+      <c r="N115" s="415"/>
+      <c r="O115" s="416"/>
       <c r="P115" s="123"/>
       <c r="Q115" s="205"/>
       <c r="R115" s="6"/>
@@ -40272,15 +40272,15 @@
       <c r="Z117" s="122"/>
     </row>
     <row r="118" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="260" t="s">
+      <c r="B118" s="269" t="s">
         <v>361</v>
       </c>
-      <c r="C118" s="304"/>
-      <c r="D118" s="304"/>
-      <c r="E118" s="304"/>
-      <c r="F118" s="304"/>
-      <c r="G118" s="304"/>
-      <c r="H118" s="261"/>
+      <c r="C118" s="307"/>
+      <c r="D118" s="307"/>
+      <c r="E118" s="307"/>
+      <c r="F118" s="307"/>
+      <c r="G118" s="307"/>
+      <c r="H118" s="270"/>
       <c r="I118" s="211" t="s">
         <v>362</v>
       </c>
@@ -40291,10 +40291,10 @@
         <f>VLOOKUP(I118,I11:J12,2,FALSE)</f>
         <v>7.0464000000000013E-2</v>
       </c>
-      <c r="L118" s="311"/>
-      <c r="M118" s="312"/>
-      <c r="N118" s="312"/>
-      <c r="O118" s="313"/>
+      <c r="L118" s="310"/>
+      <c r="M118" s="311"/>
+      <c r="N118" s="311"/>
+      <c r="O118" s="312"/>
       <c r="P118" s="123"/>
       <c r="Q118" s="212"/>
       <c r="R118" s="6"/>
@@ -40308,29 +40308,29 @@
       <c r="Z118" s="122"/>
     </row>
     <row r="119" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="281" t="s">
+      <c r="B119" s="283" t="s">
         <v>360</v>
       </c>
-      <c r="C119" s="281"/>
-      <c r="D119" s="281"/>
-      <c r="E119" s="281"/>
-      <c r="F119" s="281"/>
-      <c r="G119" s="281"/>
-      <c r="H119" s="281"/>
-      <c r="I119" s="407" t="s">
+      <c r="C119" s="283"/>
+      <c r="D119" s="283"/>
+      <c r="E119" s="283"/>
+      <c r="F119" s="283"/>
+      <c r="G119" s="283"/>
+      <c r="H119" s="283"/>
+      <c r="I119" s="313" t="s">
         <v>27</v>
       </c>
-      <c r="J119" s="357" t="s">
+      <c r="J119" s="314" t="s">
         <v>28</v>
       </c>
-      <c r="K119" s="408">
+      <c r="K119" s="315">
         <f>0.044*SQRT(J11*86400)</f>
         <v>3.0946025497307401</v>
       </c>
-      <c r="L119" s="357"/>
-      <c r="M119" s="357"/>
-      <c r="N119" s="357"/>
-      <c r="O119" s="357"/>
+      <c r="L119" s="314"/>
+      <c r="M119" s="314"/>
+      <c r="N119" s="314"/>
+      <c r="O119" s="314"/>
       <c r="P119" s="123"/>
       <c r="Q119" s="212"/>
       <c r="R119" s="6"/>
@@ -40344,20 +40344,20 @@
       <c r="Z119" s="122"/>
     </row>
     <row r="120" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="281"/>
-      <c r="C120" s="281"/>
-      <c r="D120" s="281"/>
-      <c r="E120" s="281"/>
-      <c r="F120" s="281"/>
-      <c r="G120" s="281"/>
-      <c r="H120" s="281"/>
-      <c r="I120" s="407"/>
-      <c r="J120" s="357"/>
-      <c r="K120" s="408"/>
-      <c r="L120" s="357"/>
-      <c r="M120" s="357"/>
-      <c r="N120" s="357"/>
-      <c r="O120" s="357"/>
+      <c r="B120" s="283"/>
+      <c r="C120" s="283"/>
+      <c r="D120" s="283"/>
+      <c r="E120" s="283"/>
+      <c r="F120" s="283"/>
+      <c r="G120" s="283"/>
+      <c r="H120" s="283"/>
+      <c r="I120" s="313"/>
+      <c r="J120" s="314"/>
+      <c r="K120" s="315"/>
+      <c r="L120" s="314"/>
+      <c r="M120" s="314"/>
+      <c r="N120" s="314"/>
+      <c r="O120" s="314"/>
       <c r="P120" s="123"/>
       <c r="Q120" s="212"/>
       <c r="R120" s="6"/>
@@ -40566,15 +40566,15 @@
       <c r="Z127" s="122"/>
     </row>
     <row r="128" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="342" t="s">
+      <c r="B128" s="335" t="s">
         <v>238</v>
       </c>
-      <c r="C128" s="343"/>
-      <c r="D128" s="343"/>
-      <c r="E128" s="343"/>
-      <c r="F128" s="343"/>
-      <c r="G128" s="343"/>
-      <c r="H128" s="344"/>
+      <c r="C128" s="336"/>
+      <c r="D128" s="336"/>
+      <c r="E128" s="336"/>
+      <c r="F128" s="336"/>
+      <c r="G128" s="336"/>
+      <c r="H128" s="337"/>
       <c r="I128" s="56" t="s">
         <v>11</v>
       </c>
@@ -40583,10 +40583,10 @@
         <v>0.45</v>
       </c>
       <c r="K128" s="222"/>
-      <c r="L128" s="311"/>
-      <c r="M128" s="312"/>
-      <c r="N128" s="312"/>
-      <c r="O128" s="313"/>
+      <c r="L128" s="310"/>
+      <c r="M128" s="311"/>
+      <c r="N128" s="311"/>
+      <c r="O128" s="312"/>
       <c r="P128" s="123"/>
       <c r="Q128" s="205"/>
       <c r="R128" s="6"/>
@@ -40600,16 +40600,16 @@
       <c r="Z128" s="122"/>
     </row>
     <row r="129" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="342" t="str">
+      <c r="B129" s="335" t="str">
         <f>"Viscocidad dinámica del agua a "&amp;J29&amp;" °C"</f>
         <v>Viscocidad dinámica del agua a 3 °C</v>
       </c>
-      <c r="C129" s="343"/>
-      <c r="D129" s="343"/>
-      <c r="E129" s="343"/>
-      <c r="F129" s="343"/>
-      <c r="G129" s="343"/>
-      <c r="H129" s="344"/>
+      <c r="C129" s="336"/>
+      <c r="D129" s="336"/>
+      <c r="E129" s="336"/>
+      <c r="F129" s="336"/>
+      <c r="G129" s="336"/>
+      <c r="H129" s="337"/>
       <c r="I129" s="51" t="s">
         <v>213</v>
       </c>
@@ -40637,15 +40637,15 @@
       <c r="Z129" s="122"/>
     </row>
     <row r="130" spans="2:26" s="136" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="279" t="s">
+      <c r="B130" s="280" t="s">
         <v>252</v>
       </c>
-      <c r="C130" s="309"/>
-      <c r="D130" s="309"/>
-      <c r="E130" s="309"/>
-      <c r="F130" s="309"/>
-      <c r="G130" s="309"/>
-      <c r="H130" s="280"/>
+      <c r="C130" s="355"/>
+      <c r="D130" s="355"/>
+      <c r="E130" s="355"/>
+      <c r="F130" s="355"/>
+      <c r="G130" s="355"/>
+      <c r="H130" s="281"/>
       <c r="I130" s="169" t="s">
         <v>266</v>
       </c>
@@ -40656,10 +40656,10 @@
       <c r="K130" s="169" t="s">
         <v>253</v>
       </c>
-      <c r="L130" s="310"/>
-      <c r="M130" s="310"/>
-      <c r="N130" s="310"/>
-      <c r="O130" s="310"/>
+      <c r="L130" s="417"/>
+      <c r="M130" s="417"/>
+      <c r="N130" s="417"/>
+      <c r="O130" s="417"/>
       <c r="P130" s="177"/>
       <c r="Q130" s="153"/>
       <c r="R130" s="6"/>
@@ -40673,15 +40673,15 @@
       <c r="Z130" s="122"/>
     </row>
     <row r="131" spans="2:26" s="136" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="279" t="s">
+      <c r="B131" s="280" t="s">
         <v>289</v>
       </c>
-      <c r="C131" s="309"/>
-      <c r="D131" s="309"/>
-      <c r="E131" s="309"/>
-      <c r="F131" s="309"/>
-      <c r="G131" s="309"/>
-      <c r="H131" s="280"/>
+      <c r="C131" s="355"/>
+      <c r="D131" s="355"/>
+      <c r="E131" s="355"/>
+      <c r="F131" s="355"/>
+      <c r="G131" s="355"/>
+      <c r="H131" s="281"/>
       <c r="I131" s="169" t="s">
         <v>288</v>
       </c>
@@ -40692,10 +40692,10 @@
       <c r="K131" s="169" t="s">
         <v>251</v>
       </c>
-      <c r="L131" s="310"/>
-      <c r="M131" s="310"/>
-      <c r="N131" s="310"/>
-      <c r="O131" s="310"/>
+      <c r="L131" s="417"/>
+      <c r="M131" s="417"/>
+      <c r="N131" s="417"/>
+      <c r="O131" s="417"/>
       <c r="P131" s="177"/>
       <c r="Q131" s="153"/>
       <c r="R131" s="6"/>
@@ -40709,16 +40709,16 @@
       <c r="Z131" s="122"/>
     </row>
     <row r="132" spans="2:26" s="136" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="279" t="str">
+      <c r="B132" s="280" t="str">
         <f>"Velocidad de arrastre del medio filtrante a "&amp;J29&amp;" °C"</f>
         <v>Velocidad de arrastre del medio filtrante a 3 °C</v>
       </c>
-      <c r="C132" s="309"/>
-      <c r="D132" s="309"/>
-      <c r="E132" s="309"/>
-      <c r="F132" s="309"/>
-      <c r="G132" s="309"/>
-      <c r="H132" s="280"/>
+      <c r="C132" s="355"/>
+      <c r="D132" s="355"/>
+      <c r="E132" s="355"/>
+      <c r="F132" s="355"/>
+      <c r="G132" s="355"/>
+      <c r="H132" s="281"/>
       <c r="I132" s="169" t="s">
         <v>298</v>
       </c>
@@ -40729,10 +40729,10 @@
       <c r="K132" s="169" t="s">
         <v>251</v>
       </c>
-      <c r="L132" s="310"/>
-      <c r="M132" s="310"/>
-      <c r="N132" s="310"/>
-      <c r="O132" s="310"/>
+      <c r="L132" s="417"/>
+      <c r="M132" s="417"/>
+      <c r="N132" s="417"/>
+      <c r="O132" s="417"/>
       <c r="P132" s="177"/>
       <c r="Q132" s="153"/>
       <c r="R132" s="6"/>
@@ -40746,16 +40746,16 @@
       <c r="Z132" s="122"/>
     </row>
     <row r="133" spans="2:26" s="136" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="279" t="str">
+      <c r="B133" s="280" t="str">
         <f>"Velocidad de fluidización del medio filtrante a "&amp;J29&amp;" °C"</f>
         <v>Velocidad de fluidización del medio filtrante a 3 °C</v>
       </c>
-      <c r="C133" s="309"/>
-      <c r="D133" s="309"/>
-      <c r="E133" s="309"/>
-      <c r="F133" s="309"/>
-      <c r="G133" s="309"/>
-      <c r="H133" s="280"/>
+      <c r="C133" s="355"/>
+      <c r="D133" s="355"/>
+      <c r="E133" s="355"/>
+      <c r="F133" s="355"/>
+      <c r="G133" s="355"/>
+      <c r="H133" s="281"/>
       <c r="I133" s="169" t="s">
         <v>297</v>
       </c>
@@ -40766,10 +40766,10 @@
       <c r="K133" s="169" t="s">
         <v>251</v>
       </c>
-      <c r="L133" s="345"/>
-      <c r="M133" s="346"/>
-      <c r="N133" s="346"/>
-      <c r="O133" s="347"/>
+      <c r="L133" s="387"/>
+      <c r="M133" s="388"/>
+      <c r="N133" s="388"/>
+      <c r="O133" s="389"/>
       <c r="P133" s="177"/>
       <c r="Q133" s="205"/>
       <c r="R133" s="6"/>
@@ -40783,16 +40783,16 @@
       <c r="Z133" s="122"/>
     </row>
     <row r="134" spans="2:26" s="136" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="279" t="str">
+      <c r="B134" s="280" t="str">
         <f>"Velocidad óptima de lavado a "&amp;J29&amp;" °C"</f>
         <v>Velocidad óptima de lavado a 3 °C</v>
       </c>
-      <c r="C134" s="309"/>
-      <c r="D134" s="309"/>
-      <c r="E134" s="309"/>
-      <c r="F134" s="309"/>
-      <c r="G134" s="309"/>
-      <c r="H134" s="280"/>
+      <c r="C134" s="355"/>
+      <c r="D134" s="355"/>
+      <c r="E134" s="355"/>
+      <c r="F134" s="355"/>
+      <c r="G134" s="355"/>
+      <c r="H134" s="281"/>
       <c r="I134" s="169" t="s">
         <v>290</v>
       </c>
@@ -40803,10 +40803,10 @@
       <c r="K134" s="169" t="s">
         <v>251</v>
       </c>
-      <c r="L134" s="310"/>
-      <c r="M134" s="310"/>
-      <c r="N134" s="310"/>
-      <c r="O134" s="310"/>
+      <c r="L134" s="417"/>
+      <c r="M134" s="417"/>
+      <c r="N134" s="417"/>
+      <c r="O134" s="417"/>
       <c r="P134" s="177"/>
       <c r="Q134" s="153"/>
       <c r="R134" s="6"/>
@@ -41067,15 +41067,15 @@
       <c r="Z143" s="122"/>
     </row>
     <row r="144" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="279" t="s">
+      <c r="B144" s="280" t="s">
         <v>240</v>
       </c>
-      <c r="C144" s="309"/>
-      <c r="D144" s="309"/>
-      <c r="E144" s="309"/>
-      <c r="F144" s="309"/>
-      <c r="G144" s="309"/>
-      <c r="H144" s="280"/>
+      <c r="C144" s="355"/>
+      <c r="D144" s="355"/>
+      <c r="E144" s="355"/>
+      <c r="F144" s="355"/>
+      <c r="G144" s="355"/>
+      <c r="H144" s="281"/>
       <c r="I144" s="169" t="s">
         <v>88</v>
       </c>
@@ -41086,10 +41086,10 @@
       <c r="K144" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="L144" s="310"/>
-      <c r="M144" s="310"/>
-      <c r="N144" s="310"/>
-      <c r="O144" s="310"/>
+      <c r="L144" s="417"/>
+      <c r="M144" s="417"/>
+      <c r="N144" s="417"/>
+      <c r="O144" s="417"/>
       <c r="P144" s="123"/>
       <c r="Q144" s="123"/>
       <c r="R144" s="123"/>
@@ -41103,15 +41103,15 @@
       <c r="Z144" s="122"/>
     </row>
     <row r="145" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="279" t="s">
+      <c r="B145" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="C145" s="309"/>
-      <c r="D145" s="309"/>
-      <c r="E145" s="309"/>
-      <c r="F145" s="309"/>
-      <c r="G145" s="309"/>
-      <c r="H145" s="280"/>
+      <c r="C145" s="355"/>
+      <c r="D145" s="355"/>
+      <c r="E145" s="355"/>
+      <c r="F145" s="355"/>
+      <c r="G145" s="355"/>
+      <c r="H145" s="281"/>
       <c r="I145" s="169" t="s">
         <v>11</v>
       </c>
@@ -41120,10 +41120,10 @@
         <v>0.45</v>
       </c>
       <c r="K145" s="172"/>
-      <c r="L145" s="310"/>
-      <c r="M145" s="310"/>
-      <c r="N145" s="310"/>
-      <c r="O145" s="310"/>
+      <c r="L145" s="417"/>
+      <c r="M145" s="417"/>
+      <c r="N145" s="417"/>
+      <c r="O145" s="417"/>
       <c r="P145" s="123"/>
       <c r="Q145" s="123"/>
       <c r="R145" s="123"/>
@@ -41137,15 +41137,15 @@
       <c r="Z145" s="122"/>
     </row>
     <row r="146" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="279" t="s">
+      <c r="B146" s="280" t="s">
         <v>241</v>
       </c>
-      <c r="C146" s="309"/>
-      <c r="D146" s="309"/>
-      <c r="E146" s="309"/>
-      <c r="F146" s="309"/>
-      <c r="G146" s="309"/>
-      <c r="H146" s="280"/>
+      <c r="C146" s="355"/>
+      <c r="D146" s="355"/>
+      <c r="E146" s="355"/>
+      <c r="F146" s="355"/>
+      <c r="G146" s="355"/>
+      <c r="H146" s="281"/>
       <c r="I146" s="169" t="s">
         <v>242</v>
       </c>
@@ -41154,10 +41154,10 @@
         <v>2.65</v>
       </c>
       <c r="K146" s="172"/>
-      <c r="L146" s="310"/>
-      <c r="M146" s="310"/>
-      <c r="N146" s="310"/>
-      <c r="O146" s="310"/>
+      <c r="L146" s="417"/>
+      <c r="M146" s="417"/>
+      <c r="N146" s="417"/>
+      <c r="O146" s="417"/>
       <c r="P146" s="123"/>
       <c r="Q146" s="123"/>
       <c r="R146" s="123"/>
@@ -41171,15 +41171,15 @@
       <c r="Z146" s="122"/>
     </row>
     <row r="147" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="276" t="s">
+      <c r="B147" s="273" t="s">
         <v>244</v>
       </c>
-      <c r="C147" s="276"/>
-      <c r="D147" s="276"/>
-      <c r="E147" s="276"/>
-      <c r="F147" s="276"/>
-      <c r="G147" s="276"/>
-      <c r="H147" s="276"/>
+      <c r="C147" s="273"/>
+      <c r="D147" s="273"/>
+      <c r="E147" s="273"/>
+      <c r="F147" s="273"/>
+      <c r="G147" s="273"/>
+      <c r="H147" s="273"/>
       <c r="I147" s="169" t="s">
         <v>243</v>
       </c>
@@ -41190,10 +41190,10 @@
       <c r="K147" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="L147" s="310"/>
-      <c r="M147" s="310"/>
-      <c r="N147" s="310"/>
-      <c r="O147" s="310"/>
+      <c r="L147" s="417"/>
+      <c r="M147" s="417"/>
+      <c r="N147" s="417"/>
+      <c r="O147" s="417"/>
       <c r="P147" s="123"/>
       <c r="Q147" s="123"/>
       <c r="R147" s="123"/>
@@ -41263,15 +41263,15 @@
       <c r="Z149" s="122"/>
     </row>
     <row r="150" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B150" s="278" t="s">
+      <c r="B150" s="275" t="s">
         <v>310</v>
       </c>
-      <c r="C150" s="278"/>
-      <c r="D150" s="278"/>
-      <c r="E150" s="278"/>
-      <c r="F150" s="278"/>
-      <c r="G150" s="278"/>
-      <c r="H150" s="278"/>
+      <c r="C150" s="275"/>
+      <c r="D150" s="275"/>
+      <c r="E150" s="275"/>
+      <c r="F150" s="275"/>
+      <c r="G150" s="275"/>
+      <c r="H150" s="275"/>
       <c r="I150" s="225" t="s">
         <v>311</v>
       </c>
@@ -41282,10 +41282,10 @@
       <c r="K150" s="56" t="s">
         <v>251</v>
       </c>
-      <c r="L150" s="311"/>
-      <c r="M150" s="312"/>
-      <c r="N150" s="312"/>
-      <c r="O150" s="313"/>
+      <c r="L150" s="310"/>
+      <c r="M150" s="311"/>
+      <c r="N150" s="311"/>
+      <c r="O150" s="312"/>
       <c r="P150" s="123"/>
       <c r="Q150" s="153"/>
       <c r="R150" s="6"/>
@@ -41299,15 +41299,15 @@
       <c r="Z150" s="122"/>
     </row>
     <row r="151" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B151" s="260" t="s">
+      <c r="B151" s="269" t="s">
         <v>304</v>
       </c>
-      <c r="C151" s="304"/>
-      <c r="D151" s="304"/>
-      <c r="E151" s="304"/>
-      <c r="F151" s="304"/>
-      <c r="G151" s="304"/>
-      <c r="H151" s="261"/>
+      <c r="C151" s="307"/>
+      <c r="D151" s="307"/>
+      <c r="E151" s="307"/>
+      <c r="F151" s="307"/>
+      <c r="G151" s="307"/>
+      <c r="H151" s="270"/>
       <c r="I151" s="225" t="s">
         <v>305</v>
       </c>
@@ -41318,10 +41318,10 @@
       <c r="K151" s="169" t="s">
         <v>3</v>
       </c>
-      <c r="L151" s="311"/>
-      <c r="M151" s="312"/>
-      <c r="N151" s="312"/>
-      <c r="O151" s="313"/>
+      <c r="L151" s="310"/>
+      <c r="M151" s="311"/>
+      <c r="N151" s="311"/>
+      <c r="O151" s="312"/>
       <c r="P151" s="123"/>
       <c r="Q151" s="153"/>
       <c r="R151" s="6"/>
@@ -41335,29 +41335,29 @@
       <c r="Z151" s="122"/>
     </row>
     <row r="152" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B152" s="314" t="s">
+      <c r="B152" s="399" t="s">
         <v>312</v>
       </c>
-      <c r="C152" s="315"/>
-      <c r="D152" s="315"/>
-      <c r="E152" s="315"/>
-      <c r="F152" s="315"/>
-      <c r="G152" s="315"/>
-      <c r="H152" s="316"/>
-      <c r="I152" s="320" t="s">
+      <c r="C152" s="400"/>
+      <c r="D152" s="400"/>
+      <c r="E152" s="400"/>
+      <c r="F152" s="400"/>
+      <c r="G152" s="400"/>
+      <c r="H152" s="401"/>
+      <c r="I152" s="405" t="s">
         <v>366</v>
       </c>
-      <c r="J152" s="322">
+      <c r="J152" s="407">
         <f>J150*J151/3</f>
         <v>6.132858733100844E-2</v>
       </c>
-      <c r="K152" s="324" t="s">
+      <c r="K152" s="409" t="s">
         <v>3</v>
       </c>
-      <c r="L152" s="326"/>
-      <c r="M152" s="327"/>
-      <c r="N152" s="327"/>
-      <c r="O152" s="328"/>
+      <c r="L152" s="411"/>
+      <c r="M152" s="412"/>
+      <c r="N152" s="412"/>
+      <c r="O152" s="413"/>
       <c r="P152" s="123"/>
       <c r="Q152" s="153"/>
       <c r="R152" s="6"/>
@@ -41371,20 +41371,20 @@
       <c r="Z152" s="122"/>
     </row>
     <row r="153" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B153" s="317"/>
-      <c r="C153" s="318"/>
-      <c r="D153" s="318"/>
-      <c r="E153" s="318"/>
-      <c r="F153" s="318"/>
-      <c r="G153" s="318"/>
-      <c r="H153" s="319"/>
-      <c r="I153" s="321"/>
-      <c r="J153" s="323"/>
-      <c r="K153" s="325"/>
-      <c r="L153" s="329"/>
-      <c r="M153" s="330"/>
-      <c r="N153" s="330"/>
-      <c r="O153" s="331"/>
+      <c r="B153" s="402"/>
+      <c r="C153" s="403"/>
+      <c r="D153" s="403"/>
+      <c r="E153" s="403"/>
+      <c r="F153" s="403"/>
+      <c r="G153" s="403"/>
+      <c r="H153" s="404"/>
+      <c r="I153" s="406"/>
+      <c r="J153" s="408"/>
+      <c r="K153" s="410"/>
+      <c r="L153" s="414"/>
+      <c r="M153" s="415"/>
+      <c r="N153" s="415"/>
+      <c r="O153" s="416"/>
       <c r="P153" s="123"/>
       <c r="Q153" s="153"/>
       <c r="R153" s="6"/>
@@ -41479,8 +41479,8 @@
       <c r="Z156" s="122"/>
     </row>
     <row r="157" spans="2:26" s="136" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="382"/>
-      <c r="C157" s="382"/>
+      <c r="B157" s="349"/>
+      <c r="C157" s="349"/>
       <c r="D157" s="132"/>
       <c r="E157" s="5"/>
       <c r="F157" s="133"/>
@@ -41585,13 +41585,13 @@
       <c r="Y160" s="115"/>
     </row>
     <row r="161" spans="2:25" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="272" t="s">
+      <c r="B161" s="286" t="s">
         <v>34</v>
       </c>
-      <c r="C161" s="272"/>
-      <c r="D161" s="272"/>
-      <c r="E161" s="272"/>
-      <c r="F161" s="272"/>
+      <c r="C161" s="286"/>
+      <c r="D161" s="286"/>
+      <c r="E161" s="286"/>
+      <c r="F161" s="286"/>
       <c r="G161" s="12"/>
       <c r="H161" s="12"/>
       <c r="I161" s="12"/>
@@ -41642,16 +41642,16 @@
       <c r="B163" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C163" s="259" t="s">
+      <c r="C163" s="290" t="s">
         <v>202</v>
       </c>
-      <c r="D163" s="259"/>
-      <c r="E163" s="259"/>
-      <c r="F163" s="259"/>
-      <c r="G163" s="259"/>
-      <c r="H163" s="259"/>
-      <c r="I163" s="259"/>
-      <c r="J163" s="259"/>
+      <c r="D163" s="290"/>
+      <c r="E163" s="290"/>
+      <c r="F163" s="290"/>
+      <c r="G163" s="290"/>
+      <c r="H163" s="290"/>
+      <c r="I163" s="290"/>
+      <c r="J163" s="290"/>
       <c r="K163" s="115"/>
       <c r="L163" s="115"/>
       <c r="M163" s="115"/>
@@ -41672,16 +41672,16 @@
       <c r="B164" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C164" s="259" t="s">
+      <c r="C164" s="290" t="s">
         <v>64</v>
       </c>
-      <c r="D164" s="259"/>
-      <c r="E164" s="259"/>
-      <c r="F164" s="259"/>
-      <c r="G164" s="259"/>
-      <c r="H164" s="259"/>
-      <c r="I164" s="259"/>
-      <c r="J164" s="259"/>
+      <c r="D164" s="290"/>
+      <c r="E164" s="290"/>
+      <c r="F164" s="290"/>
+      <c r="G164" s="290"/>
+      <c r="H164" s="290"/>
+      <c r="I164" s="290"/>
+      <c r="J164" s="290"/>
       <c r="K164" s="115"/>
       <c r="L164" s="115"/>
       <c r="M164" s="115"/>
@@ -41702,16 +41702,16 @@
       <c r="B165" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C165" s="400" t="s">
+      <c r="C165" s="348" t="s">
         <v>40</v>
       </c>
-      <c r="D165" s="400"/>
-      <c r="E165" s="400"/>
-      <c r="F165" s="400"/>
-      <c r="G165" s="400"/>
-      <c r="H165" s="400"/>
-      <c r="I165" s="400"/>
-      <c r="J165" s="400"/>
+      <c r="D165" s="348"/>
+      <c r="E165" s="348"/>
+      <c r="F165" s="348"/>
+      <c r="G165" s="348"/>
+      <c r="H165" s="348"/>
+      <c r="I165" s="348"/>
+      <c r="J165" s="348"/>
       <c r="K165" s="23"/>
       <c r="L165" s="23"/>
       <c r="M165" s="23"/>
@@ -41732,16 +41732,16 @@
       <c r="B166" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C166" s="259" t="s">
+      <c r="C166" s="290" t="s">
         <v>65</v>
       </c>
-      <c r="D166" s="259"/>
-      <c r="E166" s="259"/>
-      <c r="F166" s="259"/>
-      <c r="G166" s="259"/>
-      <c r="H166" s="259"/>
-      <c r="I166" s="259"/>
-      <c r="J166" s="259"/>
+      <c r="D166" s="290"/>
+      <c r="E166" s="290"/>
+      <c r="F166" s="290"/>
+      <c r="G166" s="290"/>
+      <c r="H166" s="290"/>
+      <c r="I166" s="290"/>
+      <c r="J166" s="290"/>
       <c r="K166" s="23"/>
       <c r="L166" s="23"/>
       <c r="M166" s="23"/>
@@ -41762,16 +41762,16 @@
       <c r="B167" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C167" s="259" t="s">
+      <c r="C167" s="290" t="s">
         <v>66</v>
       </c>
-      <c r="D167" s="259"/>
-      <c r="E167" s="259"/>
-      <c r="F167" s="259"/>
-      <c r="G167" s="259"/>
-      <c r="H167" s="259"/>
-      <c r="I167" s="259"/>
-      <c r="J167" s="259"/>
+      <c r="D167" s="290"/>
+      <c r="E167" s="290"/>
+      <c r="F167" s="290"/>
+      <c r="G167" s="290"/>
+      <c r="H167" s="290"/>
+      <c r="I167" s="290"/>
+      <c r="J167" s="290"/>
       <c r="K167" s="23"/>
       <c r="L167" s="23"/>
       <c r="M167" s="23"/>
@@ -41792,16 +41792,16 @@
       <c r="B168" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C168" s="271" t="s">
+      <c r="C168" s="282" t="s">
         <v>56</v>
       </c>
-      <c r="D168" s="271"/>
-      <c r="E168" s="271"/>
-      <c r="F168" s="271"/>
-      <c r="G168" s="271"/>
-      <c r="H168" s="271"/>
-      <c r="I168" s="271"/>
-      <c r="J168" s="271"/>
+      <c r="D168" s="282"/>
+      <c r="E168" s="282"/>
+      <c r="F168" s="282"/>
+      <c r="G168" s="282"/>
+      <c r="H168" s="282"/>
+      <c r="I168" s="282"/>
+      <c r="J168" s="282"/>
       <c r="K168" s="115"/>
       <c r="L168" s="115"/>
       <c r="M168" s="115"/>
@@ -41822,16 +41822,16 @@
       <c r="B169" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C169" s="400" t="s">
+      <c r="C169" s="348" t="s">
         <v>78</v>
       </c>
-      <c r="D169" s="400"/>
-      <c r="E169" s="400"/>
-      <c r="F169" s="400"/>
-      <c r="G169" s="400"/>
-      <c r="H169" s="400"/>
-      <c r="I169" s="400"/>
-      <c r="J169" s="400"/>
+      <c r="D169" s="348"/>
+      <c r="E169" s="348"/>
+      <c r="F169" s="348"/>
+      <c r="G169" s="348"/>
+      <c r="H169" s="348"/>
+      <c r="I169" s="348"/>
+      <c r="J169" s="348"/>
       <c r="K169" s="115"/>
       <c r="L169" s="115"/>
       <c r="M169" s="115"/>
@@ -41852,16 +41852,16 @@
       <c r="B170" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C170" s="259" t="s">
+      <c r="C170" s="290" t="s">
         <v>83</v>
       </c>
-      <c r="D170" s="259"/>
-      <c r="E170" s="259"/>
-      <c r="F170" s="259"/>
-      <c r="G170" s="259"/>
-      <c r="H170" s="259"/>
-      <c r="I170" s="259"/>
-      <c r="J170" s="259"/>
+      <c r="D170" s="290"/>
+      <c r="E170" s="290"/>
+      <c r="F170" s="290"/>
+      <c r="G170" s="290"/>
+      <c r="H170" s="290"/>
+      <c r="I170" s="290"/>
+      <c r="J170" s="290"/>
       <c r="K170" s="115"/>
       <c r="L170" s="115"/>
       <c r="M170" s="115"/>
@@ -41882,16 +41882,16 @@
       <c r="B171" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="259" t="s">
+      <c r="C171" s="290" t="s">
         <v>169</v>
       </c>
-      <c r="D171" s="259"/>
-      <c r="E171" s="259"/>
-      <c r="F171" s="259"/>
-      <c r="G171" s="259"/>
-      <c r="H171" s="259"/>
-      <c r="I171" s="259"/>
-      <c r="J171" s="259"/>
+      <c r="D171" s="290"/>
+      <c r="E171" s="290"/>
+      <c r="F171" s="290"/>
+      <c r="G171" s="290"/>
+      <c r="H171" s="290"/>
+      <c r="I171" s="290"/>
+      <c r="J171" s="290"/>
       <c r="K171" s="123"/>
       <c r="L171" s="123"/>
       <c r="M171" s="123"/>
@@ -43554,6 +43554,192 @@
     </row>
   </sheetData>
   <mergeCells count="210">
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B12:H12"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
+    <mergeCell ref="X24:Y24"/>
+    <mergeCell ref="X25:Y25"/>
+    <mergeCell ref="AA22:AB22"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="AA30:AA31"/>
+    <mergeCell ref="Z30:Z31"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="B134:H134"/>
+    <mergeCell ref="L144:O144"/>
+    <mergeCell ref="L145:O145"/>
+    <mergeCell ref="L146:O146"/>
+    <mergeCell ref="L147:O147"/>
+    <mergeCell ref="L150:O150"/>
+    <mergeCell ref="L151:O151"/>
+    <mergeCell ref="B8:H8"/>
+    <mergeCell ref="B9:H9"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="L152:O153"/>
+    <mergeCell ref="L134:O134"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="O88:P88"/>
+    <mergeCell ref="O84:P86"/>
+    <mergeCell ref="O87:P87"/>
+    <mergeCell ref="B130:H130"/>
+    <mergeCell ref="B131:H131"/>
+    <mergeCell ref="B114:H115"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="L114:O115"/>
+    <mergeCell ref="L130:O130"/>
+    <mergeCell ref="L131:O131"/>
+    <mergeCell ref="L132:O132"/>
+    <mergeCell ref="B132:H132"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="B77:H77"/>
+    <mergeCell ref="H59:J61"/>
+    <mergeCell ref="B74:H74"/>
+    <mergeCell ref="B133:H133"/>
+    <mergeCell ref="B129:H129"/>
+    <mergeCell ref="L133:O133"/>
+    <mergeCell ref="B128:H128"/>
+    <mergeCell ref="L128:O128"/>
+    <mergeCell ref="B101:C104"/>
+    <mergeCell ref="F101:F104"/>
+    <mergeCell ref="G101:G104"/>
+    <mergeCell ref="H101:H104"/>
+    <mergeCell ref="B112:H112"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="L113:O113"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="H62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B66:C68"/>
+    <mergeCell ref="F66:F68"/>
+    <mergeCell ref="G66:H68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="V87:V95"/>
+    <mergeCell ref="L112:O112"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="Q96:Q98"/>
+    <mergeCell ref="B37:C40"/>
+    <mergeCell ref="F37:F40"/>
+    <mergeCell ref="G37:G40"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H38:H40"/>
+    <mergeCell ref="I38:I40"/>
+    <mergeCell ref="J38:J40"/>
+    <mergeCell ref="K38:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B52:C54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="U96:U98"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="S83:V83"/>
+    <mergeCell ref="N83:R83"/>
+    <mergeCell ref="N84:N86"/>
+    <mergeCell ref="Q84:Q86"/>
+    <mergeCell ref="R84:R86"/>
+    <mergeCell ref="S84:S86"/>
+    <mergeCell ref="T84:T86"/>
+    <mergeCell ref="U84:U86"/>
+    <mergeCell ref="V84:V86"/>
+    <mergeCell ref="O89:P89"/>
+    <mergeCell ref="O90:P90"/>
+    <mergeCell ref="O91:P91"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="O94:P94"/>
+    <mergeCell ref="O95:P95"/>
+    <mergeCell ref="K84:M86"/>
+    <mergeCell ref="R87:R95"/>
+    <mergeCell ref="C171:J171"/>
+    <mergeCell ref="B161:F161"/>
+    <mergeCell ref="C166:J166"/>
+    <mergeCell ref="C167:J167"/>
+    <mergeCell ref="C168:J168"/>
+    <mergeCell ref="C169:J169"/>
+    <mergeCell ref="C170:J170"/>
+    <mergeCell ref="C163:J163"/>
+    <mergeCell ref="C164:J164"/>
+    <mergeCell ref="C165:J165"/>
+    <mergeCell ref="B2:F5"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="J96:J98"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="B87:C87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="H55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B59:C61"/>
+    <mergeCell ref="F59:F61"/>
+    <mergeCell ref="G59:G61"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="X83:X86"/>
     <mergeCell ref="Y83:Y86"/>
     <mergeCell ref="J84:J86"/>
@@ -43578,192 +43764,6 @@
     <mergeCell ref="B78:H78"/>
     <mergeCell ref="K52:K54"/>
     <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B2:F5"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="J96:J98"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="B87:C87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="G52:G54"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="H55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="C171:J171"/>
-    <mergeCell ref="B161:F161"/>
-    <mergeCell ref="C166:J166"/>
-    <mergeCell ref="C167:J167"/>
-    <mergeCell ref="C168:J168"/>
-    <mergeCell ref="C169:J169"/>
-    <mergeCell ref="C170:J170"/>
-    <mergeCell ref="C163:J163"/>
-    <mergeCell ref="C164:J164"/>
-    <mergeCell ref="C165:J165"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="U96:U98"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="S83:V83"/>
-    <mergeCell ref="N83:R83"/>
-    <mergeCell ref="N84:N86"/>
-    <mergeCell ref="Q84:Q86"/>
-    <mergeCell ref="R84:R86"/>
-    <mergeCell ref="S84:S86"/>
-    <mergeCell ref="T84:T86"/>
-    <mergeCell ref="U84:U86"/>
-    <mergeCell ref="V84:V86"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="O90:P90"/>
-    <mergeCell ref="O91:P91"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="O94:P94"/>
-    <mergeCell ref="O95:P95"/>
-    <mergeCell ref="K84:M86"/>
-    <mergeCell ref="R87:R95"/>
-    <mergeCell ref="V87:V95"/>
-    <mergeCell ref="L112:O112"/>
-    <mergeCell ref="K59:K61"/>
-    <mergeCell ref="Q96:Q98"/>
-    <mergeCell ref="B37:C40"/>
-    <mergeCell ref="F37:F40"/>
-    <mergeCell ref="G37:G40"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H38:H40"/>
-    <mergeCell ref="I38:I40"/>
-    <mergeCell ref="J38:J40"/>
-    <mergeCell ref="K38:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B52:C54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="B59:C61"/>
-    <mergeCell ref="F59:F61"/>
-    <mergeCell ref="G59:G61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="H62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B66:C68"/>
-    <mergeCell ref="F66:F68"/>
-    <mergeCell ref="G66:H68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B76:H76"/>
-    <mergeCell ref="B77:H77"/>
-    <mergeCell ref="H59:J61"/>
-    <mergeCell ref="B74:H74"/>
-    <mergeCell ref="B133:H133"/>
-    <mergeCell ref="B129:H129"/>
-    <mergeCell ref="L133:O133"/>
-    <mergeCell ref="B128:H128"/>
-    <mergeCell ref="L128:O128"/>
-    <mergeCell ref="B101:C104"/>
-    <mergeCell ref="F101:F104"/>
-    <mergeCell ref="G101:G104"/>
-    <mergeCell ref="H101:H104"/>
-    <mergeCell ref="B112:H112"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="L113:O113"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="B152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="L152:O153"/>
-    <mergeCell ref="L134:O134"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="O88:P88"/>
-    <mergeCell ref="O84:P86"/>
-    <mergeCell ref="O87:P87"/>
-    <mergeCell ref="B130:H130"/>
-    <mergeCell ref="B131:H131"/>
-    <mergeCell ref="B114:H115"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="K114:K115"/>
-    <mergeCell ref="L114:O115"/>
-    <mergeCell ref="L130:O130"/>
-    <mergeCell ref="L131:O131"/>
-    <mergeCell ref="L132:O132"/>
-    <mergeCell ref="B132:H132"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="B134:H134"/>
-    <mergeCell ref="L144:O144"/>
-    <mergeCell ref="L145:O145"/>
-    <mergeCell ref="L146:O146"/>
-    <mergeCell ref="L147:O147"/>
-    <mergeCell ref="L150:O150"/>
-    <mergeCell ref="L151:O151"/>
-    <mergeCell ref="B8:H8"/>
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="AA30:AA31"/>
-    <mergeCell ref="Z30:Z31"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="B12:H12"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="X22:Y22"/>
-    <mergeCell ref="X23:Y23"/>
-    <mergeCell ref="X24:Y24"/>
-    <mergeCell ref="X25:Y25"/>
-    <mergeCell ref="AA22:AB22"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="H25:I25"/>
   </mergeCells>
   <conditionalFormatting sqref="B27:J27">
     <cfRule type="expression" dxfId="4" priority="6">
@@ -43828,10 +43828,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="K118" evalError="1"/>
-    <ignoredError sqref="G109" twoDigitTextYear="1"/>
-  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>